--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -451,17 +451,13 @@
         <v>141.025</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>143.8</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>141.0916666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>144</v>
-      </c>
-      <c r="K3" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>141.0966666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>145.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>141.1666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>141.2533333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>141.3316666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>145.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>141.415</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>145</v>
-      </c>
-      <c r="K8" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>141.4816666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>145</v>
-      </c>
-      <c r="K9" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>141.5483333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>144</v>
-      </c>
-      <c r="K10" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>141.635</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>141.7166666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>145</v>
-      </c>
-      <c r="K12" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>141.8266666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -969,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1010,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1051,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1133,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1174,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1215,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1256,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1291,22 +1151,14 @@
         <v>142.3916666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,22 +1186,14 @@
         <v>142.455</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1383,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1418,22 +1256,14 @@
         <v>142.6016666666666</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1467,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1508,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1549,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1590,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1631,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1672,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1713,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1754,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1795,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1836,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1877,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1918,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1959,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2000,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2041,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2082,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2123,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2164,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2205,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2246,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2287,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2366,17 +2064,11 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2407,17 +2099,11 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2451,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2492,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2533,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2574,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2615,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2656,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2697,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2738,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2779,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2820,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2861,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2902,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2943,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2984,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3025,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3066,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3107,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3148,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3189,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3230,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3271,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3309,19 +2869,13 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1.152858136300417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3350,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3385,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -4677,14 +4231,20 @@
         <v>159.605</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>157.8</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4712,14 +4272,20 @@
         <v>159.605</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>158</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4747,14 +4313,20 @@
         <v>159.6066666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>158.8</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4789,7 +4361,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4824,7 +4400,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4859,7 +4439,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4894,7 +4478,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4929,7 +4517,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4964,7 +4556,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4999,7 +4595,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5034,7 +4634,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5069,7 +4673,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5104,7 +4712,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5139,7 +4751,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +4790,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5209,7 +4829,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5237,14 +4861,20 @@
         <v>158.3083333333334</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>153.7</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5272,14 +4902,20 @@
         <v>158.1583333333334</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>153.4</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>143.8</v>
+        <v>143.2</v>
       </c>
       <c r="C2" t="n">
-        <v>143.8</v>
+        <v>144</v>
       </c>
       <c r="D2" t="n">
-        <v>143.8</v>
+        <v>144</v>
       </c>
       <c r="E2" t="n">
-        <v>143.8</v>
+        <v>143.2</v>
       </c>
       <c r="F2" t="n">
-        <v>125</v>
+        <v>3188.9541</v>
       </c>
       <c r="G2" t="n">
-        <v>141.025</v>
+        <v>140.9616666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>144</v>
+        <v>143.8</v>
       </c>
       <c r="C3" t="n">
-        <v>145.9</v>
+        <v>143.8</v>
       </c>
       <c r="D3" t="n">
-        <v>145.9</v>
+        <v>143.8</v>
       </c>
       <c r="E3" t="n">
-        <v>144</v>
+        <v>143.8</v>
       </c>
       <c r="F3" t="n">
-        <v>13930.85465105</v>
+        <v>125</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0916666666666</v>
+        <v>141.025</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>145.8</v>
+        <v>144</v>
       </c>
       <c r="C4" t="n">
-        <v>143.2</v>
+        <v>145.9</v>
       </c>
       <c r="D4" t="n">
-        <v>145.8</v>
+        <v>145.9</v>
       </c>
       <c r="E4" t="n">
-        <v>142.2</v>
+        <v>144</v>
       </c>
       <c r="F4" t="n">
-        <v>9419.5844</v>
+        <v>13930.85465105</v>
       </c>
       <c r="G4" t="n">
-        <v>141.0966666666667</v>
+        <v>141.0916666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>144.1</v>
+        <v>145.8</v>
       </c>
       <c r="C5" t="n">
-        <v>144.1</v>
+        <v>143.2</v>
       </c>
       <c r="D5" t="n">
-        <v>144.1</v>
+        <v>145.8</v>
       </c>
       <c r="E5" t="n">
-        <v>144.1</v>
+        <v>142.2</v>
       </c>
       <c r="F5" t="n">
-        <v>236</v>
+        <v>9419.5844</v>
       </c>
       <c r="G5" t="n">
-        <v>141.1666666666667</v>
+        <v>141.0966666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>144.1</v>
       </c>
       <c r="C6" t="n">
-        <v>145.2</v>
+        <v>144.1</v>
       </c>
       <c r="D6" t="n">
-        <v>145.2</v>
+        <v>144.1</v>
       </c>
       <c r="E6" t="n">
         <v>144.1</v>
       </c>
       <c r="F6" t="n">
-        <v>380.48888243</v>
+        <v>236</v>
       </c>
       <c r="G6" t="n">
-        <v>141.2533333333334</v>
+        <v>141.1666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="C7" t="n">
         <v>145.2</v>
       </c>
-      <c r="C7" t="n">
-        <v>143.7</v>
-      </c>
       <c r="D7" t="n">
-        <v>146.1</v>
+        <v>145.2</v>
       </c>
       <c r="E7" t="n">
-        <v>142.4</v>
+        <v>144.1</v>
       </c>
       <c r="F7" t="n">
-        <v>3174.83036163</v>
+        <v>380.48888243</v>
       </c>
       <c r="G7" t="n">
-        <v>141.3316666666667</v>
+        <v>141.2533333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>145</v>
+        <v>145.2</v>
       </c>
       <c r="C8" t="n">
-        <v>145</v>
+        <v>143.7</v>
       </c>
       <c r="D8" t="n">
-        <v>145</v>
+        <v>146.1</v>
       </c>
       <c r="E8" t="n">
-        <v>145</v>
+        <v>142.4</v>
       </c>
       <c r="F8" t="n">
-        <v>603.80689655</v>
+        <v>3174.83036163</v>
       </c>
       <c r="G8" t="n">
-        <v>141.415</v>
+        <v>141.3316666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>145</v>
       </c>
       <c r="F9" t="n">
-        <v>92.5215</v>
+        <v>603.80689655</v>
       </c>
       <c r="G9" t="n">
-        <v>141.4816666666667</v>
+        <v>141.415</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" t="n">
         <v>145</v>
       </c>
       <c r="E10" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F10" t="n">
-        <v>774</v>
+        <v>92.5215</v>
       </c>
       <c r="G10" t="n">
-        <v>141.5483333333333</v>
+        <v>141.4816666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>145.9</v>
+        <v>144</v>
       </c>
       <c r="C11" t="n">
+        <v>144</v>
+      </c>
+      <c r="D11" t="n">
         <v>145</v>
       </c>
-      <c r="D11" t="n">
-        <v>145.9</v>
-      </c>
       <c r="E11" t="n">
-        <v>144.9</v>
+        <v>144</v>
       </c>
       <c r="F11" t="n">
-        <v>5078.006854</v>
+        <v>774</v>
       </c>
       <c r="G11" t="n">
-        <v>141.635</v>
+        <v>141.5483333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="C12" t="n">
         <v>145</v>
-      </c>
-      <c r="C12" t="n">
-        <v>145.9</v>
       </c>
       <c r="D12" t="n">
         <v>145.9</v>
       </c>
       <c r="E12" t="n">
-        <v>145</v>
+        <v>144.9</v>
       </c>
       <c r="F12" t="n">
-        <v>2395</v>
+        <v>5078.006854</v>
       </c>
       <c r="G12" t="n">
-        <v>141.7166666666667</v>
+        <v>141.635</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>145</v>
+      </c>
+      <c r="C13" t="n">
         <v>145.9</v>
       </c>
-      <c r="C13" t="n">
-        <v>146</v>
-      </c>
       <c r="D13" t="n">
-        <v>146</v>
+        <v>145.9</v>
       </c>
       <c r="E13" t="n">
-        <v>145.9</v>
+        <v>145</v>
       </c>
       <c r="F13" t="n">
-        <v>1406.0938</v>
+        <v>2395</v>
       </c>
       <c r="G13" t="n">
-        <v>141.8266666666667</v>
+        <v>141.7166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>145.9</v>
       </c>
       <c r="C14" t="n">
-        <v>145.9</v>
+        <v>146</v>
       </c>
       <c r="D14" t="n">
-        <v>145.9</v>
+        <v>146</v>
       </c>
       <c r="E14" t="n">
         <v>145.9</v>
       </c>
       <c r="F14" t="n">
-        <v>957.3547</v>
+        <v>1406.0938</v>
       </c>
       <c r="G14" t="n">
-        <v>141.925</v>
+        <v>141.8266666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>145.9</v>
       </c>
       <c r="F15" t="n">
-        <v>637</v>
+        <v>957.3547</v>
       </c>
       <c r="G15" t="n">
-        <v>142.0233333333334</v>
+        <v>141.925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>145.7</v>
+        <v>145.9</v>
       </c>
       <c r="C16" t="n">
-        <v>142.9</v>
+        <v>145.9</v>
       </c>
       <c r="D16" t="n">
-        <v>145.7</v>
+        <v>145.9</v>
       </c>
       <c r="E16" t="n">
-        <v>142.9</v>
+        <v>145.9</v>
       </c>
       <c r="F16" t="n">
-        <v>6544.751</v>
+        <v>637</v>
       </c>
       <c r="G16" t="n">
-        <v>142.055</v>
+        <v>142.0233333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>144</v>
+        <v>145.7</v>
       </c>
       <c r="C17" t="n">
-        <v>144</v>
+        <v>142.9</v>
       </c>
       <c r="D17" t="n">
-        <v>144</v>
+        <v>145.7</v>
       </c>
       <c r="E17" t="n">
-        <v>144</v>
+        <v>142.9</v>
       </c>
       <c r="F17" t="n">
-        <v>454.3695</v>
+        <v>6544.751</v>
       </c>
       <c r="G17" t="n">
-        <v>142.135</v>
+        <v>142.055</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>144</v>
       </c>
       <c r="F18" t="n">
-        <v>454.3696</v>
+        <v>454.3695</v>
       </c>
       <c r="G18" t="n">
-        <v>142.185</v>
+        <v>142.135</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>144</v>
       </c>
       <c r="F19" t="n">
-        <v>619.528</v>
+        <v>454.3696</v>
       </c>
       <c r="G19" t="n">
-        <v>142.265</v>
+        <v>142.185</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="C20" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="D20" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="E20" t="n">
-        <v>143.9</v>
+        <v>144</v>
       </c>
       <c r="F20" t="n">
-        <v>302.913</v>
+        <v>619.528</v>
       </c>
       <c r="G20" t="n">
-        <v>142.2816666666667</v>
+        <v>142.265</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="C21" t="n">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="D21" t="n">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="E21" t="n">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="F21" t="n">
-        <v>717</v>
+        <v>302.913</v>
       </c>
       <c r="G21" t="n">
-        <v>142.3283333333333</v>
+        <v>142.2816666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>144.8</v>
+        <v>143.8</v>
       </c>
       <c r="C22" t="n">
-        <v>144.8</v>
+        <v>143.8</v>
       </c>
       <c r="D22" t="n">
-        <v>144.8</v>
+        <v>143.8</v>
       </c>
       <c r="E22" t="n">
-        <v>144.8</v>
+        <v>143.8</v>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>717</v>
       </c>
       <c r="G22" t="n">
-        <v>142.3916666666666</v>
+        <v>142.3283333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>143.9</v>
+        <v>144.8</v>
       </c>
       <c r="C23" t="n">
-        <v>143.9</v>
+        <v>144.8</v>
       </c>
       <c r="D23" t="n">
-        <v>143.9</v>
+        <v>144.8</v>
       </c>
       <c r="E23" t="n">
-        <v>143.9</v>
+        <v>144.8</v>
       </c>
       <c r="F23" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>142.455</v>
+        <v>142.3916666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>144.8</v>
+        <v>143.9</v>
       </c>
       <c r="C24" t="n">
-        <v>144.8</v>
+        <v>143.9</v>
       </c>
       <c r="D24" t="n">
-        <v>144.8</v>
+        <v>143.9</v>
       </c>
       <c r="E24" t="n">
-        <v>144.8</v>
+        <v>143.9</v>
       </c>
       <c r="F24" t="n">
-        <v>325.668</v>
+        <v>12.5</v>
       </c>
       <c r="G24" t="n">
-        <v>142.5183333333333</v>
+        <v>142.455</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>144.8</v>
       </c>
       <c r="C25" t="n">
-        <v>145</v>
+        <v>144.8</v>
       </c>
       <c r="D25" t="n">
-        <v>145</v>
+        <v>144.8</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>144.8</v>
       </c>
       <c r="F25" t="n">
-        <v>2696.6748</v>
+        <v>325.668</v>
       </c>
       <c r="G25" t="n">
-        <v>142.6016666666666</v>
+        <v>142.5183333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>145.5</v>
+        <v>144.8</v>
       </c>
       <c r="C26" t="n">
-        <v>145.5</v>
+        <v>145</v>
       </c>
       <c r="D26" t="n">
-        <v>145.5</v>
+        <v>145</v>
       </c>
       <c r="E26" t="n">
-        <v>145.5</v>
+        <v>144</v>
       </c>
       <c r="F26" t="n">
-        <v>85.73883161000001</v>
+        <v>2696.6748</v>
       </c>
       <c r="G26" t="n">
-        <v>142.6933333333333</v>
+        <v>142.6016666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>146</v>
+        <v>145.5</v>
       </c>
       <c r="C27" t="n">
-        <v>146.6</v>
+        <v>145.5</v>
       </c>
       <c r="D27" t="n">
-        <v>146.6</v>
+        <v>145.5</v>
       </c>
       <c r="E27" t="n">
         <v>145.5</v>
       </c>
       <c r="F27" t="n">
-        <v>4409.093</v>
+        <v>85.73883161000001</v>
       </c>
       <c r="G27" t="n">
-        <v>142.8033333333333</v>
+        <v>142.6933333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>146</v>
+      </c>
+      <c r="C28" t="n">
         <v>146.6</v>
       </c>
-      <c r="C28" t="n">
-        <v>147.1</v>
-      </c>
       <c r="D28" t="n">
-        <v>147.1</v>
+        <v>146.6</v>
       </c>
       <c r="E28" t="n">
-        <v>146.6</v>
+        <v>145.5</v>
       </c>
       <c r="F28" t="n">
-        <v>3102.425</v>
+        <v>4409.093</v>
       </c>
       <c r="G28" t="n">
-        <v>142.9216666666666</v>
+        <v>142.8033333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="C29" t="n">
         <v>147.1</v>
       </c>
-      <c r="C29" t="n">
-        <v>148</v>
-      </c>
       <c r="D29" t="n">
-        <v>148.7</v>
+        <v>147.1</v>
       </c>
       <c r="E29" t="n">
-        <v>145.1</v>
+        <v>146.6</v>
       </c>
       <c r="F29" t="n">
-        <v>7170.8693</v>
+        <v>3102.425</v>
       </c>
       <c r="G29" t="n">
-        <v>143.0616666666666</v>
+        <v>142.9216666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>148</v>
+        <v>147.1</v>
       </c>
       <c r="C30" t="n">
         <v>148</v>
@@ -1422,13 +1422,13 @@
         <v>148.7</v>
       </c>
       <c r="E30" t="n">
-        <v>148</v>
+        <v>145.1</v>
       </c>
       <c r="F30" t="n">
-        <v>2380.423</v>
+        <v>7170.8693</v>
       </c>
       <c r="G30" t="n">
-        <v>143.2116666666666</v>
+        <v>143.0616666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>147.1</v>
+        <v>148</v>
       </c>
       <c r="C31" t="n">
         <v>148</v>
@@ -1457,13 +1457,13 @@
         <v>148.7</v>
       </c>
       <c r="E31" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F31" t="n">
-        <v>7870.5291</v>
+        <v>2380.423</v>
       </c>
       <c r="G31" t="n">
-        <v>143.33</v>
+        <v>143.2116666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>148.1</v>
+        <v>147.1</v>
       </c>
       <c r="C32" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D32" t="n">
         <v>148.7</v>
@@ -1495,10 +1495,10 @@
         <v>147</v>
       </c>
       <c r="F32" t="n">
-        <v>7262.318</v>
+        <v>7870.5291</v>
       </c>
       <c r="G32" t="n">
-        <v>143.4316666666666</v>
+        <v>143.33</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>148</v>
+        <v>148.1</v>
       </c>
       <c r="C33" t="n">
-        <v>148.7</v>
+        <v>147</v>
       </c>
       <c r="D33" t="n">
         <v>148.7</v>
       </c>
       <c r="E33" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" t="n">
-        <v>5206.302</v>
+        <v>7262.318</v>
       </c>
       <c r="G33" t="n">
-        <v>143.595</v>
+        <v>143.4316666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>148.7</v>
+        <v>148</v>
       </c>
       <c r="C34" t="n">
         <v>148.7</v>
       </c>
       <c r="D34" t="n">
-        <v>148.8</v>
+        <v>148.7</v>
       </c>
       <c r="E34" t="n">
-        <v>148.5</v>
+        <v>148</v>
       </c>
       <c r="F34" t="n">
-        <v>21958.8208</v>
+        <v>5206.302</v>
       </c>
       <c r="G34" t="n">
-        <v>143.74</v>
+        <v>143.595</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1594,16 +1594,16 @@
         <v>148.7</v>
       </c>
       <c r="D35" t="n">
-        <v>148.7</v>
+        <v>148.8</v>
       </c>
       <c r="E35" t="n">
-        <v>148.7</v>
+        <v>148.5</v>
       </c>
       <c r="F35" t="n">
-        <v>6740</v>
+        <v>21958.8208</v>
       </c>
       <c r="G35" t="n">
-        <v>143.8683333333333</v>
+        <v>143.74</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>148.7</v>
       </c>
       <c r="F36" t="n">
-        <v>3371</v>
+        <v>6740</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9966666666667</v>
+        <v>143.8683333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>148.7</v>
       </c>
       <c r="C37" t="n">
-        <v>149</v>
+        <v>148.7</v>
       </c>
       <c r="D37" t="n">
-        <v>149</v>
+        <v>148.7</v>
       </c>
       <c r="E37" t="n">
         <v>148.7</v>
       </c>
       <c r="F37" t="n">
-        <v>13979.4299</v>
+        <v>3371</v>
       </c>
       <c r="G37" t="n">
-        <v>144.1183333333333</v>
+        <v>143.9966666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>149.3</v>
+        <v>148.7</v>
       </c>
       <c r="C38" t="n">
-        <v>150.7</v>
+        <v>149</v>
       </c>
       <c r="D38" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E38" t="n">
-        <v>149.3</v>
+        <v>148.7</v>
       </c>
       <c r="F38" t="n">
-        <v>43091.09051891</v>
+        <v>13979.4299</v>
       </c>
       <c r="G38" t="n">
-        <v>144.28</v>
+        <v>144.1183333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>150.7</v>
+        <v>149.3</v>
       </c>
       <c r="C39" t="n">
         <v>150.7</v>
       </c>
       <c r="D39" t="n">
-        <v>150.7</v>
+        <v>151</v>
       </c>
       <c r="E39" t="n">
-        <v>149.8</v>
+        <v>149.3</v>
       </c>
       <c r="F39" t="n">
-        <v>10635.5283</v>
+        <v>43091.09051891</v>
       </c>
       <c r="G39" t="n">
-        <v>144.425</v>
+        <v>144.28</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>150.7</v>
       </c>
       <c r="C40" t="n">
-        <v>151.1</v>
+        <v>150.7</v>
       </c>
       <c r="D40" t="n">
-        <v>151.1</v>
+        <v>150.7</v>
       </c>
       <c r="E40" t="n">
-        <v>150.7</v>
+        <v>149.8</v>
       </c>
       <c r="F40" t="n">
-        <v>2386.2496</v>
+        <v>10635.5283</v>
       </c>
       <c r="G40" t="n">
-        <v>144.5933333333334</v>
+        <v>144.425</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="C41" t="n">
         <v>151.1</v>
       </c>
-      <c r="C41" t="n">
-        <v>152</v>
-      </c>
       <c r="D41" t="n">
-        <v>152.9</v>
+        <v>151.1</v>
       </c>
       <c r="E41" t="n">
-        <v>151.1</v>
+        <v>150.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1488.137</v>
+        <v>2386.2496</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7766666666667</v>
+        <v>144.5933333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="C42" t="n">
         <v>152</v>
       </c>
-      <c r="C42" t="n">
-        <v>153</v>
-      </c>
       <c r="D42" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="E42" t="n">
-        <v>151.3</v>
+        <v>151.1</v>
       </c>
       <c r="F42" t="n">
-        <v>16315.22018109</v>
+        <v>1488.137</v>
       </c>
       <c r="G42" t="n">
-        <v>144.9533333333334</v>
+        <v>144.7766666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>152</v>
       </c>
       <c r="C43" t="n">
-        <v>152.9</v>
+        <v>153</v>
       </c>
       <c r="D43" t="n">
         <v>153</v>
       </c>
       <c r="E43" t="n">
-        <v>152</v>
+        <v>151.3</v>
       </c>
       <c r="F43" t="n">
-        <v>4042.998</v>
+        <v>16315.22018109</v>
       </c>
       <c r="G43" t="n">
-        <v>145.1283333333334</v>
+        <v>144.9533333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>152</v>
+      </c>
+      <c r="C44" t="n">
         <v>152.9</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>153</v>
       </c>
-      <c r="D44" t="n">
-        <v>153.7</v>
-      </c>
       <c r="E44" t="n">
-        <v>152.9</v>
+        <v>152</v>
       </c>
       <c r="F44" t="n">
-        <v>20399.5393</v>
+        <v>4042.998</v>
       </c>
       <c r="G44" t="n">
-        <v>145.3083333333334</v>
+        <v>145.1283333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="C45" t="n">
         <v>153</v>
       </c>
-      <c r="C45" t="n">
-        <v>154</v>
-      </c>
       <c r="D45" t="n">
-        <v>154.9</v>
+        <v>153.7</v>
       </c>
       <c r="E45" t="n">
-        <v>153</v>
+        <v>152.9</v>
       </c>
       <c r="F45" t="n">
-        <v>21038.9127</v>
+        <v>20399.5393</v>
       </c>
       <c r="G45" t="n">
-        <v>145.5083333333334</v>
+        <v>145.3083333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>153</v>
+      </c>
+      <c r="C46" t="n">
         <v>154</v>
       </c>
-      <c r="C46" t="n">
-        <v>157.2</v>
-      </c>
       <c r="D46" t="n">
-        <v>160</v>
+        <v>154.9</v>
       </c>
       <c r="E46" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F46" t="n">
-        <v>128251.96046107</v>
+        <v>21038.9127</v>
       </c>
       <c r="G46" t="n">
-        <v>145.7616666666667</v>
+        <v>145.5083333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>159.6</v>
+        <v>154</v>
       </c>
       <c r="C47" t="n">
-        <v>158.9</v>
+        <v>157.2</v>
       </c>
       <c r="D47" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E47" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F47" t="n">
-        <v>54086.56392075</v>
+        <v>128251.96046107</v>
       </c>
       <c r="G47" t="n">
-        <v>146.06</v>
+        <v>145.7616666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>157.7</v>
+        <v>159.6</v>
       </c>
       <c r="C48" t="n">
-        <v>157.1</v>
+        <v>158.9</v>
       </c>
       <c r="D48" t="n">
-        <v>159.8</v>
+        <v>162</v>
       </c>
       <c r="E48" t="n">
-        <v>157.1</v>
+        <v>155</v>
       </c>
       <c r="F48" t="n">
-        <v>14791.8087</v>
+        <v>54086.56392075</v>
       </c>
       <c r="G48" t="n">
-        <v>146.3116666666667</v>
+        <v>146.06</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>157.7</v>
+      </c>
+      <c r="C49" t="n">
         <v>157.1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>158.8</v>
       </c>
       <c r="D49" t="n">
         <v>159.8</v>
       </c>
       <c r="E49" t="n">
-        <v>156.1</v>
+        <v>157.1</v>
       </c>
       <c r="F49" t="n">
-        <v>38024.35444949</v>
+        <v>14791.8087</v>
       </c>
       <c r="G49" t="n">
-        <v>146.6083333333334</v>
+        <v>146.3116666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>158.8</v>
+        <v>157.1</v>
       </c>
       <c r="C50" t="n">
         <v>158.8</v>
@@ -2122,19 +2122,19 @@
         <v>159.8</v>
       </c>
       <c r="E50" t="n">
-        <v>157.2</v>
+        <v>156.1</v>
       </c>
       <c r="F50" t="n">
-        <v>70481.5931</v>
+        <v>38024.35444949</v>
       </c>
       <c r="G50" t="n">
-        <v>146.9166666666667</v>
+        <v>146.6083333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2154,16 +2154,16 @@
         <v>158.8</v>
       </c>
       <c r="D51" t="n">
-        <v>158.8</v>
+        <v>159.8</v>
       </c>
       <c r="E51" t="n">
-        <v>158</v>
+        <v>157.2</v>
       </c>
       <c r="F51" t="n">
-        <v>13703.2664</v>
+        <v>70481.5931</v>
       </c>
       <c r="G51" t="n">
-        <v>147.2133333333333</v>
+        <v>146.9166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>158.5</v>
+        <v>158.8</v>
       </c>
       <c r="C52" t="n">
         <v>158.8</v>
@@ -2192,13 +2192,13 @@
         <v>158.8</v>
       </c>
       <c r="E52" t="n">
-        <v>158.5</v>
+        <v>158</v>
       </c>
       <c r="F52" t="n">
-        <v>12644.0951</v>
+        <v>13703.2664</v>
       </c>
       <c r="G52" t="n">
-        <v>147.51</v>
+        <v>147.2133333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="C53" t="n">
         <v>158.8</v>
       </c>
-      <c r="C53" t="n">
-        <v>159</v>
-      </c>
       <c r="D53" t="n">
-        <v>160</v>
+        <v>158.8</v>
       </c>
       <c r="E53" t="n">
-        <v>158.8</v>
+        <v>158.5</v>
       </c>
       <c r="F53" t="n">
-        <v>49294.26145051</v>
+        <v>12644.0951</v>
       </c>
       <c r="G53" t="n">
-        <v>147.8233333333333</v>
+        <v>147.51</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>159</v>
+      </c>
+      <c r="D54" t="n">
         <v>160</v>
       </c>
-      <c r="C54" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>160.9</v>
-      </c>
       <c r="E54" t="n">
-        <v>160</v>
+        <v>158.8</v>
       </c>
       <c r="F54" t="n">
-        <v>36645.5027</v>
+        <v>49294.26145051</v>
       </c>
       <c r="G54" t="n">
-        <v>148.1683333333333</v>
+        <v>147.8233333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" t="n">
-        <v>161</v>
+        <v>160.9</v>
       </c>
       <c r="D55" t="n">
-        <v>162.1</v>
+        <v>160.9</v>
       </c>
       <c r="E55" t="n">
-        <v>160.9</v>
+        <v>160</v>
       </c>
       <c r="F55" t="n">
-        <v>43295.71950623</v>
+        <v>36645.5027</v>
       </c>
       <c r="G55" t="n">
-        <v>148.515</v>
+        <v>148.1683333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>161</v>
       </c>
       <c r="C56" t="n">
-        <v>150.1</v>
+        <v>161</v>
       </c>
       <c r="D56" t="n">
-        <v>163.3</v>
+        <v>162.1</v>
       </c>
       <c r="E56" t="n">
-        <v>150.1</v>
+        <v>160.9</v>
       </c>
       <c r="F56" t="n">
-        <v>82137.76549999999</v>
+        <v>43295.71950623</v>
       </c>
       <c r="G56" t="n">
-        <v>148.6416666666666</v>
+        <v>148.515</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" t="n">
-        <v>159.9</v>
+        <v>150.1</v>
       </c>
       <c r="D57" t="n">
-        <v>162</v>
+        <v>163.3</v>
       </c>
       <c r="E57" t="n">
-        <v>159</v>
+        <v>150.1</v>
       </c>
       <c r="F57" t="n">
-        <v>13328.6697</v>
+        <v>82137.76549999999</v>
       </c>
       <c r="G57" t="n">
-        <v>148.9233333333333</v>
+        <v>148.6416666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>162</v>
+      </c>
+      <c r="C58" t="n">
         <v>159.9</v>
       </c>
-      <c r="C58" t="n">
-        <v>163</v>
-      </c>
       <c r="D58" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" t="n">
-        <v>159.9</v>
+        <v>159</v>
       </c>
       <c r="F58" t="n">
-        <v>22444.5502</v>
+        <v>13328.6697</v>
       </c>
       <c r="G58" t="n">
-        <v>149.25</v>
+        <v>148.9233333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>162.8</v>
+        <v>159.9</v>
       </c>
       <c r="C59" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D59" t="n">
-        <v>162.8</v>
+        <v>163</v>
       </c>
       <c r="E59" t="n">
-        <v>160</v>
+        <v>159.9</v>
       </c>
       <c r="F59" t="n">
-        <v>26708.7952</v>
+        <v>22444.5502</v>
       </c>
       <c r="G59" t="n">
-        <v>149.5366666666667</v>
+        <v>149.25</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>160.2</v>
+        <v>162.8</v>
       </c>
       <c r="C60" t="n">
-        <v>161.5</v>
+        <v>161</v>
       </c>
       <c r="D60" t="n">
-        <v>162</v>
+        <v>162.8</v>
       </c>
       <c r="E60" t="n">
-        <v>159.2</v>
+        <v>160</v>
       </c>
       <c r="F60" t="n">
-        <v>29304.57683395</v>
+        <v>26708.7952</v>
       </c>
       <c r="G60" t="n">
-        <v>149.8316666666666</v>
+        <v>149.5366666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="C61" t="n">
         <v>161.5</v>
       </c>
-      <c r="C61" t="n">
-        <v>162.5</v>
-      </c>
       <c r="D61" t="n">
-        <v>162.5</v>
+        <v>162</v>
       </c>
       <c r="E61" t="n">
-        <v>161.5</v>
+        <v>159.2</v>
       </c>
       <c r="F61" t="n">
-        <v>872.8684660500001</v>
+        <v>29304.57683395</v>
       </c>
       <c r="G61" t="n">
-        <v>150.14</v>
+        <v>149.8316666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="C62" t="n">
         <v>162.5</v>
       </c>
-      <c r="C62" t="n">
-        <v>162</v>
-      </c>
       <c r="D62" t="n">
-        <v>163</v>
+        <v>162.5</v>
       </c>
       <c r="E62" t="n">
         <v>161.5</v>
       </c>
       <c r="F62" t="n">
-        <v>12141.2206</v>
+        <v>872.8684660500001</v>
       </c>
       <c r="G62" t="n">
-        <v>150.4433333333333</v>
+        <v>150.14</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>162</v>
+      </c>
+      <c r="D63" t="n">
+        <v>163</v>
+      </c>
+      <c r="E63" t="n">
         <v>161.5</v>
       </c>
-      <c r="C63" t="n">
-        <v>161.5</v>
-      </c>
-      <c r="D63" t="n">
-        <v>161.5</v>
-      </c>
-      <c r="E63" t="n">
-        <v>160.4</v>
-      </c>
       <c r="F63" t="n">
-        <v>5678.15193395</v>
+        <v>12141.2206</v>
       </c>
       <c r="G63" t="n">
-        <v>150.7033333333333</v>
+        <v>150.4433333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>161.5</v>
       </c>
       <c r="C64" t="n">
-        <v>162</v>
+        <v>161.5</v>
       </c>
       <c r="D64" t="n">
-        <v>162</v>
+        <v>161.5</v>
       </c>
       <c r="E64" t="n">
-        <v>161.5</v>
+        <v>160.4</v>
       </c>
       <c r="F64" t="n">
-        <v>13221.64556605</v>
+        <v>5678.15193395</v>
       </c>
       <c r="G64" t="n">
-        <v>151.0166666666667</v>
+        <v>150.7033333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>161.9</v>
+        <v>161.5</v>
       </c>
       <c r="C65" t="n">
-        <v>162.9</v>
+        <v>162</v>
       </c>
       <c r="D65" t="n">
-        <v>162.9</v>
+        <v>162</v>
       </c>
       <c r="E65" t="n">
-        <v>160</v>
+        <v>161.5</v>
       </c>
       <c r="F65" t="n">
-        <v>12900.4625</v>
+        <v>13221.64556605</v>
       </c>
       <c r="G65" t="n">
-        <v>151.33</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>160.4</v>
+        <v>161.9</v>
       </c>
       <c r="C66" t="n">
-        <v>162.6</v>
+        <v>162.9</v>
       </c>
       <c r="D66" t="n">
-        <v>162.6</v>
+        <v>162.9</v>
       </c>
       <c r="E66" t="n">
         <v>160</v>
       </c>
       <c r="F66" t="n">
-        <v>10931.0224</v>
+        <v>12900.4625</v>
       </c>
       <c r="G66" t="n">
-        <v>151.62</v>
+        <v>151.33</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>162.4</v>
+        <v>160.4</v>
       </c>
       <c r="C67" t="n">
-        <v>162.4</v>
+        <v>162.6</v>
       </c>
       <c r="D67" t="n">
-        <v>162.4</v>
+        <v>162.6</v>
       </c>
       <c r="E67" t="n">
-        <v>162.4</v>
+        <v>160</v>
       </c>
       <c r="F67" t="n">
-        <v>1608.0268</v>
+        <v>10931.0224</v>
       </c>
       <c r="G67" t="n">
-        <v>151.9316666666666</v>
+        <v>151.62</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>162.4</v>
       </c>
       <c r="C68" t="n">
-        <v>162.9</v>
+        <v>162.4</v>
       </c>
       <c r="D68" t="n">
-        <v>162.9</v>
+        <v>162.4</v>
       </c>
       <c r="E68" t="n">
         <v>162.4</v>
       </c>
       <c r="F68" t="n">
-        <v>23933.19204615</v>
+        <v>1608.0268</v>
       </c>
       <c r="G68" t="n">
-        <v>152.23</v>
+        <v>151.9316666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="C69" t="n">
         <v>162.9</v>
       </c>
-      <c r="C69" t="n">
-        <v>165</v>
-      </c>
       <c r="D69" t="n">
-        <v>165</v>
+        <v>162.9</v>
       </c>
       <c r="E69" t="n">
-        <v>162.8</v>
+        <v>162.4</v>
       </c>
       <c r="F69" t="n">
-        <v>95564.14295384999</v>
+        <v>23933.19204615</v>
       </c>
       <c r="G69" t="n">
-        <v>152.5633333333333</v>
+        <v>152.23</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="C70" t="n">
         <v>165</v>
       </c>
-      <c r="C70" t="n">
-        <v>167.6</v>
-      </c>
       <c r="D70" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E70" t="n">
-        <v>164.9</v>
+        <v>162.8</v>
       </c>
       <c r="F70" t="n">
-        <v>83328.61537236</v>
+        <v>95564.14295384999</v>
       </c>
       <c r="G70" t="n">
-        <v>152.9566666666666</v>
+        <v>152.5633333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>167.5</v>
+        <v>165</v>
       </c>
       <c r="C71" t="n">
-        <v>166.5</v>
+        <v>167.6</v>
       </c>
       <c r="D71" t="n">
-        <v>167.6</v>
+        <v>168</v>
       </c>
       <c r="E71" t="n">
-        <v>166</v>
+        <v>164.9</v>
       </c>
       <c r="F71" t="n">
-        <v>12584.3826</v>
+        <v>83328.61537236</v>
       </c>
       <c r="G71" t="n">
-        <v>153.315</v>
+        <v>152.9566666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="E72" t="n">
         <v>166</v>
       </c>
-      <c r="C72" t="n">
-        <v>164</v>
-      </c>
-      <c r="D72" t="n">
-        <v>166</v>
-      </c>
-      <c r="E72" t="n">
-        <v>164</v>
-      </c>
       <c r="F72" t="n">
-        <v>14379.6877</v>
+        <v>12584.3826</v>
       </c>
       <c r="G72" t="n">
-        <v>153.6166666666666</v>
+        <v>153.315</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>166</v>
+      </c>
+      <c r="C73" t="n">
         <v>164</v>
       </c>
-      <c r="C73" t="n">
-        <v>160.2</v>
-      </c>
       <c r="D73" t="n">
+        <v>166</v>
+      </c>
+      <c r="E73" t="n">
         <v>164</v>
       </c>
-      <c r="E73" t="n">
-        <v>160.2</v>
-      </c>
       <c r="F73" t="n">
-        <v>12410.2733</v>
+        <v>14379.6877</v>
       </c>
       <c r="G73" t="n">
-        <v>153.8533333333333</v>
+        <v>153.6166666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>160.1</v>
+        <v>164</v>
       </c>
       <c r="C74" t="n">
         <v>160.2</v>
       </c>
       <c r="D74" t="n">
-        <v>161.3</v>
+        <v>164</v>
       </c>
       <c r="E74" t="n">
-        <v>160</v>
+        <v>160.2</v>
       </c>
       <c r="F74" t="n">
-        <v>37811.6394</v>
+        <v>12410.2733</v>
       </c>
       <c r="G74" t="n">
-        <v>154.0916666666667</v>
+        <v>153.8533333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,10 +2988,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="C75" t="n">
         <v>160.2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>161</v>
       </c>
       <c r="D75" t="n">
         <v>161.3</v>
@@ -3000,10 +3000,10 @@
         <v>160</v>
       </c>
       <c r="F75" t="n">
-        <v>25819.5341</v>
+        <v>37811.6394</v>
       </c>
       <c r="G75" t="n">
-        <v>154.3433333333333</v>
+        <v>154.0916666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>161.3</v>
+        <v>160.2</v>
       </c>
       <c r="C76" t="n">
-        <v>161.3</v>
+        <v>161</v>
       </c>
       <c r="D76" t="n">
         <v>161.3</v>
       </c>
       <c r="E76" t="n">
-        <v>161.3</v>
+        <v>160</v>
       </c>
       <c r="F76" t="n">
-        <v>701.9915</v>
+        <v>25819.5341</v>
       </c>
       <c r="G76" t="n">
-        <v>154.65</v>
+        <v>154.3433333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>161.1</v>
+        <v>161.3</v>
       </c>
       <c r="C77" t="n">
-        <v>162.4</v>
+        <v>161.3</v>
       </c>
       <c r="D77" t="n">
-        <v>162.4</v>
+        <v>161.3</v>
       </c>
       <c r="E77" t="n">
-        <v>161</v>
+        <v>161.3</v>
       </c>
       <c r="F77" t="n">
-        <v>18094.5346</v>
+        <v>701.9915</v>
       </c>
       <c r="G77" t="n">
-        <v>154.9566666666666</v>
+        <v>154.65</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="C78" t="n">
         <v>162.4</v>
       </c>
-      <c r="C78" t="n">
-        <v>162.5</v>
-      </c>
       <c r="D78" t="n">
-        <v>162.5</v>
+        <v>162.4</v>
       </c>
       <c r="E78" t="n">
-        <v>161.1</v>
+        <v>161</v>
       </c>
       <c r="F78" t="n">
-        <v>21606.1963</v>
+        <v>18094.5346</v>
       </c>
       <c r="G78" t="n">
-        <v>155.265</v>
+        <v>154.9566666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>162.5</v>
+        <v>162.4</v>
       </c>
       <c r="C79" t="n">
         <v>162.5</v>
@@ -3137,13 +3137,13 @@
         <v>162.5</v>
       </c>
       <c r="E79" t="n">
-        <v>162.5</v>
+        <v>161.1</v>
       </c>
       <c r="F79" t="n">
-        <v>848.9008</v>
+        <v>21606.1963</v>
       </c>
       <c r="G79" t="n">
-        <v>155.5733333333333</v>
+        <v>155.265</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>162.4</v>
+        <v>162.5</v>
       </c>
       <c r="C80" t="n">
-        <v>162.4</v>
+        <v>162.5</v>
       </c>
       <c r="D80" t="n">
-        <v>162.4</v>
+        <v>162.5</v>
       </c>
       <c r="E80" t="n">
-        <v>162.4</v>
+        <v>162.5</v>
       </c>
       <c r="F80" t="n">
-        <v>5890.2754</v>
+        <v>848.9008</v>
       </c>
       <c r="G80" t="n">
-        <v>155.8816666666667</v>
+        <v>155.5733333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>162</v>
+        <v>162.4</v>
       </c>
       <c r="C81" t="n">
-        <v>162</v>
+        <v>162.4</v>
       </c>
       <c r="D81" t="n">
-        <v>162</v>
+        <v>162.4</v>
       </c>
       <c r="E81" t="n">
-        <v>162</v>
+        <v>162.4</v>
       </c>
       <c r="F81" t="n">
-        <v>214.2783</v>
+        <v>5890.2754</v>
       </c>
       <c r="G81" t="n">
-        <v>156.185</v>
+        <v>155.8816666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C82" t="n">
-        <v>161.8</v>
+        <v>162</v>
       </c>
       <c r="D82" t="n">
-        <v>161.8</v>
+        <v>162</v>
       </c>
       <c r="E82" t="n">
-        <v>160.1</v>
+        <v>162</v>
       </c>
       <c r="F82" t="n">
-        <v>11415.2325</v>
+        <v>214.2783</v>
       </c>
       <c r="G82" t="n">
-        <v>156.4683333333333</v>
+        <v>156.185</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C83" t="n">
-        <v>160</v>
+        <v>161.8</v>
       </c>
       <c r="D83" t="n">
-        <v>160</v>
+        <v>161.8</v>
       </c>
       <c r="E83" t="n">
-        <v>160</v>
+        <v>160.1</v>
       </c>
       <c r="F83" t="n">
-        <v>26143.5871</v>
+        <v>11415.2325</v>
       </c>
       <c r="G83" t="n">
-        <v>156.7366666666667</v>
+        <v>156.4683333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>159.4</v>
+        <v>160</v>
       </c>
       <c r="C84" t="n">
-        <v>159.8</v>
+        <v>160</v>
       </c>
       <c r="D84" t="n">
-        <v>159.9</v>
+        <v>160</v>
       </c>
       <c r="E84" t="n">
-        <v>156.8</v>
+        <v>160</v>
       </c>
       <c r="F84" t="n">
-        <v>40106.3274</v>
+        <v>26143.5871</v>
       </c>
       <c r="G84" t="n">
-        <v>156.9866666666667</v>
+        <v>156.7366666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>159</v>
+        <v>159.4</v>
       </c>
       <c r="C85" t="n">
-        <v>159</v>
+        <v>159.8</v>
       </c>
       <c r="D85" t="n">
         <v>159.9</v>
       </c>
       <c r="E85" t="n">
-        <v>158</v>
+        <v>156.8</v>
       </c>
       <c r="F85" t="n">
-        <v>23643.5916</v>
+        <v>40106.3274</v>
       </c>
       <c r="G85" t="n">
-        <v>157.22</v>
+        <v>156.9866666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>159.8</v>
+        <v>159</v>
       </c>
       <c r="C86" t="n">
-        <v>159.9</v>
+        <v>159</v>
       </c>
       <c r="D86" t="n">
         <v>159.9</v>
       </c>
       <c r="E86" t="n">
-        <v>159.8</v>
+        <v>158</v>
       </c>
       <c r="F86" t="n">
-        <v>3971.0503</v>
+        <v>23643.5916</v>
       </c>
       <c r="G86" t="n">
-        <v>157.46</v>
+        <v>157.22</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>159.1</v>
+        <v>159.8</v>
       </c>
       <c r="C87" t="n">
-        <v>158</v>
+        <v>159.9</v>
       </c>
       <c r="D87" t="n">
-        <v>159.1</v>
+        <v>159.9</v>
       </c>
       <c r="E87" t="n">
-        <v>158</v>
+        <v>159.8</v>
       </c>
       <c r="F87" t="n">
-        <v>2575.9086</v>
+        <v>3971.0503</v>
       </c>
       <c r="G87" t="n">
-        <v>157.65</v>
+        <v>157.46</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>158</v>
+        <v>159.1</v>
       </c>
       <c r="C88" t="n">
         <v>158</v>
       </c>
       <c r="D88" t="n">
-        <v>158</v>
+        <v>159.1</v>
       </c>
       <c r="E88" t="n">
         <v>158</v>
       </c>
       <c r="F88" t="n">
-        <v>9365.8537</v>
+        <v>2575.9086</v>
       </c>
       <c r="G88" t="n">
-        <v>157.8316666666666</v>
+        <v>157.65</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>158</v>
       </c>
       <c r="C89" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D89" t="n">
         <v>158</v>
       </c>
       <c r="E89" t="n">
-        <v>156.4</v>
+        <v>158</v>
       </c>
       <c r="F89" t="n">
-        <v>17939.56706962</v>
+        <v>9365.8537</v>
       </c>
       <c r="G89" t="n">
-        <v>157.9816666666667</v>
+        <v>157.8316666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C90" t="n">
         <v>157</v>
       </c>
       <c r="D90" t="n">
-        <v>157.1</v>
+        <v>158</v>
       </c>
       <c r="E90" t="n">
-        <v>157</v>
+        <v>156.4</v>
       </c>
       <c r="F90" t="n">
-        <v>1385.2077</v>
+        <v>17939.56706962</v>
       </c>
       <c r="G90" t="n">
-        <v>158.1316666666667</v>
+        <v>157.9816666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>157</v>
       </c>
       <c r="C91" t="n">
-        <v>159.4</v>
+        <v>157</v>
       </c>
       <c r="D91" t="n">
-        <v>159.6</v>
+        <v>157.1</v>
       </c>
       <c r="E91" t="n">
         <v>157</v>
       </c>
       <c r="F91" t="n">
-        <v>9367.973900000001</v>
+        <v>1385.2077</v>
       </c>
       <c r="G91" t="n">
-        <v>158.3216666666667</v>
+        <v>158.1316666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>157</v>
+      </c>
+      <c r="C92" t="n">
         <v>159.4</v>
       </c>
-      <c r="C92" t="n">
-        <v>159.7</v>
-      </c>
       <c r="D92" t="n">
-        <v>159.7</v>
+        <v>159.6</v>
       </c>
       <c r="E92" t="n">
-        <v>159.1</v>
+        <v>157</v>
       </c>
       <c r="F92" t="n">
-        <v>3700.7819</v>
+        <v>9367.973900000001</v>
       </c>
       <c r="G92" t="n">
-        <v>158.5333333333333</v>
+        <v>158.3216666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>159.5</v>
+        <v>159.4</v>
       </c>
       <c r="C93" t="n">
-        <v>159.5</v>
+        <v>159.7</v>
       </c>
       <c r="D93" t="n">
-        <v>159.5</v>
+        <v>159.7</v>
       </c>
       <c r="E93" t="n">
-        <v>159.5</v>
+        <v>159.1</v>
       </c>
       <c r="F93" t="n">
-        <v>79.77379999999999</v>
+        <v>3700.7819</v>
       </c>
       <c r="G93" t="n">
-        <v>158.7133333333333</v>
+        <v>158.5333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>159.5</v>
       </c>
       <c r="F94" t="n">
-        <v>5837.774</v>
+        <v>79.77379999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>158.8933333333333</v>
+        <v>158.7133333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3691,19 @@
         <v>159.5</v>
       </c>
       <c r="C95" t="n">
-        <v>158.3</v>
+        <v>159.5</v>
       </c>
       <c r="D95" t="n">
         <v>159.5</v>
       </c>
       <c r="E95" t="n">
-        <v>158.3</v>
+        <v>159.5</v>
       </c>
       <c r="F95" t="n">
-        <v>2293.7694</v>
+        <v>5837.774</v>
       </c>
       <c r="G95" t="n">
-        <v>159.0533333333333</v>
+        <v>158.8933333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>157.1</v>
+        <v>159.5</v>
       </c>
       <c r="C96" t="n">
-        <v>156</v>
+        <v>158.3</v>
       </c>
       <c r="D96" t="n">
-        <v>157.1</v>
+        <v>159.5</v>
       </c>
       <c r="E96" t="n">
-        <v>154.8</v>
+        <v>158.3</v>
       </c>
       <c r="F96" t="n">
-        <v>6903.4123</v>
+        <v>2293.7694</v>
       </c>
       <c r="G96" t="n">
-        <v>159.1749999999999</v>
+        <v>159.0533333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>158</v>
+        <v>157.1</v>
       </c>
       <c r="C97" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D97" t="n">
-        <v>158</v>
+        <v>157.1</v>
       </c>
       <c r="E97" t="n">
         <v>154.8</v>
       </c>
       <c r="F97" t="n">
-        <v>17881.1168</v>
+        <v>6903.4123</v>
       </c>
       <c r="G97" t="n">
-        <v>159.3083333333333</v>
+        <v>159.1749999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>158</v>
+      </c>
+      <c r="C98" t="n">
         <v>157</v>
       </c>
-      <c r="C98" t="n">
-        <v>154.2</v>
-      </c>
       <c r="D98" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E98" t="n">
-        <v>154.2</v>
+        <v>154.8</v>
       </c>
       <c r="F98" t="n">
-        <v>13435.4594</v>
+        <v>17881.1168</v>
       </c>
       <c r="G98" t="n">
-        <v>159.3666666666666</v>
+        <v>159.3083333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,32 +3828,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>154.2</v>
+        <v>157</v>
       </c>
       <c r="C99" t="n">
         <v>154.2</v>
       </c>
       <c r="D99" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E99" t="n">
-        <v>154</v>
+        <v>154.2</v>
       </c>
       <c r="F99" t="n">
-        <v>15842.9046</v>
+        <v>13435.4594</v>
       </c>
       <c r="G99" t="n">
-        <v>159.4249999999999</v>
+        <v>159.3666666666666</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>157</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,32 +3869,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>155.6</v>
+        <v>154.2</v>
       </c>
       <c r="C100" t="n">
-        <v>155.1</v>
+        <v>154.2</v>
       </c>
       <c r="D100" t="n">
-        <v>155.6</v>
+        <v>156</v>
       </c>
       <c r="E100" t="n">
-        <v>155.1</v>
+        <v>154</v>
       </c>
       <c r="F100" t="n">
-        <v>2028.643</v>
+        <v>15842.9046</v>
       </c>
       <c r="G100" t="n">
-        <v>159.4916666666666</v>
+        <v>159.4249999999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>154.2</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3898,32 +3910,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="C101" t="n">
         <v>155.1</v>
       </c>
-      <c r="C101" t="n">
-        <v>156</v>
-      </c>
       <c r="D101" t="n">
-        <v>156</v>
+        <v>155.6</v>
       </c>
       <c r="E101" t="n">
         <v>155.1</v>
       </c>
       <c r="F101" t="n">
-        <v>9725.616</v>
+        <v>2028.643</v>
       </c>
       <c r="G101" t="n">
-        <v>159.5583333333333</v>
+        <v>159.4916666666666</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>154.2</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,32 +3951,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="C102" t="n">
         <v>156</v>
       </c>
-      <c r="C102" t="n">
-        <v>156.6</v>
-      </c>
       <c r="D102" t="n">
-        <v>156.8</v>
+        <v>156</v>
       </c>
       <c r="E102" t="n">
-        <v>154.2</v>
+        <v>155.1</v>
       </c>
       <c r="F102" t="n">
-        <v>15107.1371</v>
+        <v>9725.616</v>
       </c>
       <c r="G102" t="n">
-        <v>159.6183333333333</v>
+        <v>159.5583333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>155.1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +3992,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>155.6</v>
+        <v>156</v>
       </c>
       <c r="C103" t="n">
-        <v>155.6</v>
+        <v>156.6</v>
       </c>
       <c r="D103" t="n">
-        <v>155.6</v>
+        <v>156.8</v>
       </c>
       <c r="E103" t="n">
-        <v>154.4</v>
+        <v>154.2</v>
       </c>
       <c r="F103" t="n">
-        <v>309.1785</v>
+        <v>15107.1371</v>
       </c>
       <c r="G103" t="n">
-        <v>159.6633333333333</v>
+        <v>159.6183333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4017,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4031,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>155.4</v>
+        <v>155.6</v>
       </c>
       <c r="C104" t="n">
-        <v>154.4</v>
+        <v>155.6</v>
       </c>
       <c r="D104" t="n">
-        <v>155.4</v>
+        <v>155.6</v>
       </c>
       <c r="E104" t="n">
         <v>154.4</v>
       </c>
       <c r="F104" t="n">
-        <v>5868.867</v>
+        <v>309.1785</v>
       </c>
       <c r="G104" t="n">
-        <v>159.6866666666666</v>
+        <v>159.6633333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4056,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,19 +4070,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="C105" t="n">
         <v>154.4</v>
       </c>
-      <c r="C105" t="n">
-        <v>154</v>
-      </c>
       <c r="D105" t="n">
-        <v>156.3</v>
+        <v>155.4</v>
       </c>
       <c r="E105" t="n">
-        <v>154</v>
+        <v>154.4</v>
       </c>
       <c r="F105" t="n">
-        <v>25369.58</v>
+        <v>5868.867</v>
       </c>
       <c r="G105" t="n">
         <v>159.6866666666666</v>
@@ -4063,7 +4095,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4109,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>155</v>
+        <v>154.4</v>
       </c>
       <c r="C106" t="n">
-        <v>156.7</v>
+        <v>154</v>
       </c>
       <c r="D106" t="n">
-        <v>156.7</v>
+        <v>156.3</v>
       </c>
       <c r="E106" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F106" t="n">
-        <v>950.602</v>
+        <v>25369.58</v>
       </c>
       <c r="G106" t="n">
-        <v>159.6783333333333</v>
+        <v>159.6866666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4134,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,7 +4148,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C107" t="n">
         <v>156.7</v>
@@ -4117,13 +4157,13 @@
         <v>156.7</v>
       </c>
       <c r="E107" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F107" t="n">
-        <v>2086.7716</v>
+        <v>950.602</v>
       </c>
       <c r="G107" t="n">
-        <v>159.6416666666666</v>
+        <v>159.6783333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4173,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,7 +4187,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>156.7</v>
+        <v>156</v>
       </c>
       <c r="C108" t="n">
         <v>156.7</v>
@@ -4152,13 +4196,13 @@
         <v>156.7</v>
       </c>
       <c r="E108" t="n">
-        <v>156.6</v>
+        <v>156</v>
       </c>
       <c r="F108" t="n">
-        <v>4572.843</v>
+        <v>2086.7716</v>
       </c>
       <c r="G108" t="n">
-        <v>159.635</v>
+        <v>159.6416666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4212,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4226,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>155.1</v>
+        <v>156.7</v>
       </c>
       <c r="C109" t="n">
-        <v>157.8</v>
+        <v>156.7</v>
       </c>
       <c r="D109" t="n">
-        <v>157.8</v>
+        <v>156.7</v>
       </c>
       <c r="E109" t="n">
-        <v>155.1</v>
+        <v>156.6</v>
       </c>
       <c r="F109" t="n">
-        <v>3497.9386</v>
+        <v>4572.843</v>
       </c>
       <c r="G109" t="n">
-        <v>159.6183333333333</v>
+        <v>159.635</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4251,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,36 +4265,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>157.7</v>
+        <v>155.1</v>
       </c>
       <c r="C110" t="n">
-        <v>158</v>
+        <v>157.8</v>
       </c>
       <c r="D110" t="n">
-        <v>158</v>
+        <v>157.8</v>
       </c>
       <c r="E110" t="n">
-        <v>157.7</v>
+        <v>155.1</v>
       </c>
       <c r="F110" t="n">
-        <v>4812.876</v>
+        <v>3497.9386</v>
       </c>
       <c r="G110" t="n">
-        <v>159.605</v>
+        <v>159.6183333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>157.8</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -4254,32 +4304,30 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>158.8</v>
+        <v>157.7</v>
       </c>
       <c r="C111" t="n">
-        <v>158.8</v>
+        <v>158</v>
       </c>
       <c r="D111" t="n">
-        <v>158.9</v>
+        <v>158</v>
       </c>
       <c r="E111" t="n">
-        <v>158.8</v>
+        <v>157.7</v>
       </c>
       <c r="F111" t="n">
-        <v>4813.4187</v>
+        <v>4812.876</v>
       </c>
       <c r="G111" t="n">
         <v>159.605</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>158</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4298,29 +4346,27 @@
         <v>158.8</v>
       </c>
       <c r="C112" t="n">
-        <v>158.9</v>
+        <v>158.8</v>
       </c>
       <c r="D112" t="n">
         <v>158.9</v>
       </c>
       <c r="E112" t="n">
-        <v>156</v>
+        <v>158.8</v>
       </c>
       <c r="F112" t="n">
-        <v>5527.84086847</v>
+        <v>4813.4187</v>
       </c>
       <c r="G112" t="n">
-        <v>159.6066666666667</v>
+        <v>159.605</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>158.8</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -4336,22 +4382,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>157.1</v>
+        <v>158.8</v>
       </c>
       <c r="C113" t="n">
-        <v>157.1</v>
+        <v>158.9</v>
       </c>
       <c r="D113" t="n">
-        <v>157.1</v>
+        <v>158.9</v>
       </c>
       <c r="E113" t="n">
-        <v>157.1</v>
+        <v>156</v>
       </c>
       <c r="F113" t="n">
-        <v>3386.492</v>
+        <v>5527.84086847</v>
       </c>
       <c r="G113" t="n">
-        <v>159.575</v>
+        <v>159.6066666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4375,22 +4421,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>156.3</v>
+        <v>157.1</v>
       </c>
       <c r="C114" t="n">
-        <v>156</v>
+        <v>157.1</v>
       </c>
       <c r="D114" t="n">
-        <v>156.3</v>
+        <v>157.1</v>
       </c>
       <c r="E114" t="n">
-        <v>156</v>
+        <v>157.1</v>
       </c>
       <c r="F114" t="n">
-        <v>4750.9207</v>
+        <v>3386.492</v>
       </c>
       <c r="G114" t="n">
-        <v>159.4933333333333</v>
+        <v>159.575</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4414,22 +4460,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>155.2</v>
+        <v>156.3</v>
       </c>
       <c r="C115" t="n">
-        <v>156.6</v>
+        <v>156</v>
       </c>
       <c r="D115" t="n">
-        <v>156.6</v>
+        <v>156.3</v>
       </c>
       <c r="E115" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F115" t="n">
-        <v>4773.1758</v>
+        <v>4750.9207</v>
       </c>
       <c r="G115" t="n">
-        <v>159.42</v>
+        <v>159.4933333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4453,22 +4499,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>156</v>
+        <v>155.2</v>
       </c>
       <c r="C116" t="n">
-        <v>156</v>
+        <v>156.6</v>
       </c>
       <c r="D116" t="n">
-        <v>156.5</v>
+        <v>156.6</v>
       </c>
       <c r="E116" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F116" t="n">
-        <v>1668.2291</v>
+        <v>4773.1758</v>
       </c>
       <c r="G116" t="n">
-        <v>159.5183333333333</v>
+        <v>159.42</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4495,19 +4541,19 @@
         <v>156</v>
       </c>
       <c r="C117" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D117" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E117" t="n">
         <v>156</v>
       </c>
-      <c r="E117" t="n">
-        <v>154.1</v>
-      </c>
       <c r="F117" t="n">
-        <v>3834.9836</v>
+        <v>1668.2291</v>
       </c>
       <c r="G117" t="n">
-        <v>159.4366666666667</v>
+        <v>159.5183333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4534,19 +4580,19 @@
         <v>156</v>
       </c>
       <c r="C118" t="n">
-        <v>155.1</v>
+        <v>155</v>
       </c>
       <c r="D118" t="n">
-        <v>156.9</v>
+        <v>156</v>
       </c>
       <c r="E118" t="n">
-        <v>155</v>
+        <v>154.1</v>
       </c>
       <c r="F118" t="n">
-        <v>4147.9426</v>
+        <v>3834.9836</v>
       </c>
       <c r="G118" t="n">
-        <v>159.305</v>
+        <v>159.4366666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4570,22 +4616,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C119" t="n">
         <v>155.1</v>
       </c>
       <c r="D119" t="n">
-        <v>155.1</v>
+        <v>156.9</v>
       </c>
       <c r="E119" t="n">
         <v>155</v>
       </c>
       <c r="F119" t="n">
-        <v>2239.4675</v>
+        <v>4147.9426</v>
       </c>
       <c r="G119" t="n">
-        <v>159.2066666666667</v>
+        <v>159.305</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4609,22 +4655,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>155</v>
+      </c>
+      <c r="C120" t="n">
         <v>155.1</v>
       </c>
-      <c r="C120" t="n">
-        <v>156.5</v>
-      </c>
       <c r="D120" t="n">
-        <v>156.5</v>
+        <v>155.1</v>
       </c>
       <c r="E120" t="n">
-        <v>155.1</v>
+        <v>155</v>
       </c>
       <c r="F120" t="n">
-        <v>2125</v>
+        <v>2239.4675</v>
       </c>
       <c r="G120" t="n">
-        <v>159.1233333333334</v>
+        <v>159.2066666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4648,22 +4694,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="C121" t="n">
         <v>156.5</v>
-      </c>
-      <c r="C121" t="n">
-        <v>155</v>
       </c>
       <c r="D121" t="n">
         <v>156.5</v>
       </c>
       <c r="E121" t="n">
-        <v>155</v>
+        <v>155.1</v>
       </c>
       <c r="F121" t="n">
-        <v>4870.4991</v>
+        <v>2125</v>
       </c>
       <c r="G121" t="n">
-        <v>158.9983333333334</v>
+        <v>159.1233333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4687,22 +4733,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>155</v>
+        <v>156.5</v>
       </c>
       <c r="C122" t="n">
         <v>155</v>
       </c>
       <c r="D122" t="n">
-        <v>155</v>
+        <v>156.5</v>
       </c>
       <c r="E122" t="n">
         <v>155</v>
       </c>
       <c r="F122" t="n">
-        <v>1269.4269</v>
+        <v>4870.4991</v>
       </c>
       <c r="G122" t="n">
-        <v>158.8816666666667</v>
+        <v>158.9983333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4726,22 +4772,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C123" t="n">
-        <v>153.5</v>
+        <v>155</v>
       </c>
       <c r="D123" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E123" t="n">
-        <v>153.5</v>
+        <v>155</v>
       </c>
       <c r="F123" t="n">
-        <v>7730.1161</v>
+        <v>1269.4269</v>
       </c>
       <c r="G123" t="n">
-        <v>158.7483333333334</v>
+        <v>158.8816666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4768,19 +4814,19 @@
         <v>156</v>
       </c>
       <c r="C124" t="n">
-        <v>154</v>
+        <v>153.5</v>
       </c>
       <c r="D124" t="n">
         <v>156</v>
       </c>
       <c r="E124" t="n">
-        <v>154</v>
+        <v>153.5</v>
       </c>
       <c r="F124" t="n">
-        <v>4593.4382</v>
+        <v>7730.1161</v>
       </c>
       <c r="G124" t="n">
-        <v>158.615</v>
+        <v>158.7483333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4804,22 +4850,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>153.7</v>
+        <v>156</v>
       </c>
       <c r="C125" t="n">
-        <v>153.7</v>
+        <v>154</v>
       </c>
       <c r="D125" t="n">
-        <v>153.7</v>
+        <v>156</v>
       </c>
       <c r="E125" t="n">
-        <v>153.7</v>
+        <v>154</v>
       </c>
       <c r="F125" t="n">
-        <v>3092.4035</v>
+        <v>4593.4382</v>
       </c>
       <c r="G125" t="n">
-        <v>158.4616666666667</v>
+        <v>158.615</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4843,32 +4889,30 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>155.5</v>
+        <v>153.7</v>
       </c>
       <c r="C126" t="n">
-        <v>153.4</v>
+        <v>153.7</v>
       </c>
       <c r="D126" t="n">
-        <v>155.5</v>
+        <v>153.7</v>
       </c>
       <c r="E126" t="n">
-        <v>153.4</v>
+        <v>153.7</v>
       </c>
       <c r="F126" t="n">
-        <v>11292.0152</v>
+        <v>3092.4035</v>
       </c>
       <c r="G126" t="n">
-        <v>158.3083333333334</v>
+        <v>158.4616666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>153.7</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -4884,32 +4928,30 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>153.9</v>
+        <v>155.5</v>
       </c>
       <c r="C127" t="n">
         <v>153.4</v>
       </c>
       <c r="D127" t="n">
-        <v>155.4</v>
+        <v>155.5</v>
       </c>
       <c r="E127" t="n">
         <v>153.4</v>
       </c>
       <c r="F127" t="n">
-        <v>5537.3201</v>
+        <v>11292.0152</v>
       </c>
       <c r="G127" t="n">
-        <v>158.1583333333334</v>
+        <v>158.3083333333334</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>153.4</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -4920,6 +4962,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5537.3201</v>
+      </c>
+      <c r="G128" t="n">
+        <v>158.1583333333334</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3188.9541</v>
       </c>
       <c r="G2" t="n">
+        <v>141.8266666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>140.9616666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>125</v>
       </c>
       <c r="G3" t="n">
+        <v>142.0133333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>141.025</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>144</v>
+      </c>
+      <c r="L3" t="n">
+        <v>144</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>13930.85465105</v>
       </c>
       <c r="G4" t="n">
+        <v>142.2733333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>141.0916666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>144</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>9419.5844</v>
       </c>
       <c r="G5" t="n">
+        <v>142.42</v>
+      </c>
+      <c r="H5" t="n">
         <v>141.0966666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>144</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>236</v>
       </c>
       <c r="G6" t="n">
+        <v>142.6733333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>141.1666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>144</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,29 @@
         <v>380.48888243</v>
       </c>
       <c r="G7" t="n">
+        <v>142.9533333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>141.2533333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>144</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +717,29 @@
         <v>3174.83036163</v>
       </c>
       <c r="G8" t="n">
+        <v>143.1333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>141.3316666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>144</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +763,29 @@
         <v>603.80689655</v>
       </c>
       <c r="G9" t="n">
+        <v>143.4533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>141.415</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>144</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +809,29 @@
         <v>92.5215</v>
       </c>
       <c r="G10" t="n">
+        <v>143.7733333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>141.4816666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>145</v>
+      </c>
+      <c r="L10" t="n">
+        <v>144</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +855,29 @@
         <v>774</v>
       </c>
       <c r="G11" t="n">
+        <v>144.0266666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>141.5483333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>145</v>
+      </c>
+      <c r="L11" t="n">
+        <v>144</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +901,29 @@
         <v>5078.006854</v>
       </c>
       <c r="G12" t="n">
+        <v>144.1933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>141.635</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>144</v>
+      </c>
+      <c r="L12" t="n">
+        <v>144</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +947,29 @@
         <v>2395</v>
       </c>
       <c r="G13" t="n">
+        <v>144.3866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>141.7166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>145</v>
+      </c>
+      <c r="L13" t="n">
+        <v>144</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +993,29 @@
         <v>1406.0938</v>
       </c>
       <c r="G14" t="n">
+        <v>144.56</v>
+      </c>
+      <c r="H14" t="n">
         <v>141.8266666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>144</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1039,29 @@
         <v>957.3547</v>
       </c>
       <c r="G15" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="H15" t="n">
         <v>141.925</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>146</v>
+      </c>
+      <c r="L15" t="n">
+        <v>144</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1085,29 @@
         <v>637</v>
       </c>
       <c r="G16" t="n">
+        <v>144.84</v>
+      </c>
+      <c r="H16" t="n">
         <v>142.0233333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>144</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1131,29 @@
         <v>6544.751</v>
       </c>
       <c r="G17" t="n">
+        <v>144.7666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>142.055</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>144</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1177,29 @@
         <v>454.3695</v>
       </c>
       <c r="G18" t="n">
+        <v>144.7799999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>142.135</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>144</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1223,29 @@
         <v>454.3696</v>
       </c>
       <c r="G19" t="n">
+        <v>144.6533333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>142.185</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>144</v>
+      </c>
+      <c r="L19" t="n">
+        <v>144</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1269,29 @@
         <v>619.528</v>
       </c>
       <c r="G20" t="n">
+        <v>144.7066666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>142.265</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>144</v>
+      </c>
+      <c r="L20" t="n">
+        <v>144</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1315,29 @@
         <v>302.913</v>
       </c>
       <c r="G21" t="n">
+        <v>144.6933333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>142.2816666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>144</v>
+      </c>
+      <c r="L21" t="n">
+        <v>144</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1361,29 @@
         <v>717</v>
       </c>
       <c r="G22" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="H22" t="n">
         <v>142.3283333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>144</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1407,29 @@
         <v>50</v>
       </c>
       <c r="G23" t="n">
+        <v>144.6733333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>142.3916666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>144</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1453,29 @@
         <v>12.5</v>
       </c>
       <c r="G24" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>142.455</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>144</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1499,29 @@
         <v>325.668</v>
       </c>
       <c r="G25" t="n">
+        <v>144.5866666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>142.5183333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>144</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1545,29 @@
         <v>2696.6748</v>
       </c>
       <c r="G26" t="n">
+        <v>144.6533333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>142.6016666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>144</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1591,29 @@
         <v>85.73883161000001</v>
       </c>
       <c r="G27" t="n">
+        <v>144.6866666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>142.6933333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>145</v>
+      </c>
+      <c r="L27" t="n">
+        <v>144</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1637,29 @@
         <v>4409.093</v>
       </c>
       <c r="G28" t="n">
+        <v>144.7333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>142.8033333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>144</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1683,27 @@
         <v>3102.425</v>
       </c>
       <c r="G29" t="n">
+        <v>144.8066666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>142.9216666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>144</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1727,27 @@
         <v>7170.8693</v>
       </c>
       <c r="G30" t="n">
+        <v>144.9466666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>143.0616666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>144</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1771,27 @@
         <v>2380.423</v>
       </c>
       <c r="G31" t="n">
+        <v>145.0866666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>143.2116666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>144</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1815,27 @@
         <v>7870.5291</v>
       </c>
       <c r="G32" t="n">
+        <v>145.4266666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>143.33</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>144</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1859,27 @@
         <v>7262.318</v>
       </c>
       <c r="G33" t="n">
+        <v>145.6266666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>143.4316666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>144</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1903,27 @@
         <v>5206.302</v>
       </c>
       <c r="G34" t="n">
+        <v>145.94</v>
+      </c>
+      <c r="H34" t="n">
         <v>143.595</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>144</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1947,27 @@
         <v>21958.8208</v>
       </c>
       <c r="G35" t="n">
+        <v>146.2533333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>143.74</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>144</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1991,27 @@
         <v>6740</v>
       </c>
       <c r="G36" t="n">
+        <v>146.5733333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>143.8683333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>144</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2035,27 @@
         <v>3371</v>
       </c>
       <c r="G37" t="n">
+        <v>146.8999999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>143.9966666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>144</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2079,27 @@
         <v>13979.4299</v>
       </c>
       <c r="G38" t="n">
+        <v>147.1799999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>144.1183333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>144</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2123,27 @@
         <v>43091.09051891</v>
       </c>
       <c r="G39" t="n">
+        <v>147.6333333333332</v>
+      </c>
+      <c r="H39" t="n">
         <v>144.28</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>144</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2167,27 @@
         <v>10635.5283</v>
       </c>
       <c r="G40" t="n">
+        <v>148.0266666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>144.425</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>144</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2211,27 @@
         <v>2386.2496</v>
       </c>
       <c r="G41" t="n">
+        <v>148.4333333333332</v>
+      </c>
+      <c r="H41" t="n">
         <v>144.5933333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>144</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2255,27 @@
         <v>1488.137</v>
       </c>
       <c r="G42" t="n">
+        <v>148.8666666666665</v>
+      </c>
+      <c r="H42" t="n">
         <v>144.7766666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>144</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2299,27 @@
         <v>16315.22018109</v>
       </c>
       <c r="G43" t="n">
+        <v>149.2933333333332</v>
+      </c>
+      <c r="H43" t="n">
         <v>144.9533333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>144</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2343,27 @@
         <v>4042.998</v>
       </c>
       <c r="G44" t="n">
+        <v>149.6799999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>145.1283333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>144</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2387,27 @@
         <v>20399.5393</v>
       </c>
       <c r="G45" t="n">
+        <v>150.0133333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>145.3083333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>144</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2431,27 @@
         <v>21038.9127</v>
       </c>
       <c r="G46" t="n">
+        <v>150.4133333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>145.5083333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>144</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2475,27 @@
         <v>128251.96046107</v>
       </c>
       <c r="G47" t="n">
+        <v>151.0266666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>145.7616666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>144</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2519,27 @@
         <v>54086.56392075</v>
       </c>
       <c r="G48" t="n">
+        <v>151.8199999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>146.06</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>144</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2563,27 @@
         <v>14791.8087</v>
       </c>
       <c r="G49" t="n">
+        <v>152.3799999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>146.3116666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>144</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2607,27 @@
         <v>38024.35444949</v>
       </c>
       <c r="G50" t="n">
+        <v>153.0533333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>146.6083333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>144</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2651,27 @@
         <v>70481.5931</v>
       </c>
       <c r="G51" t="n">
+        <v>153.7266666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>146.9166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>144</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2695,27 @@
         <v>13703.2664</v>
       </c>
       <c r="G52" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="H52" t="n">
         <v>147.2133333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>144</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2739,27 @@
         <v>12644.0951</v>
       </c>
       <c r="G53" t="n">
+        <v>155.0533333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>147.51</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>144</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2783,27 @@
         <v>49294.26145051</v>
       </c>
       <c r="G54" t="n">
+        <v>155.6066666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>147.8233333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>144</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2827,27 @@
         <v>36645.5027</v>
       </c>
       <c r="G55" t="n">
+        <v>156.2866666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>148.1683333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>144</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2871,27 @@
         <v>43295.71950623</v>
       </c>
       <c r="G56" t="n">
+        <v>156.9466666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>148.515</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>144</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2915,27 @@
         <v>82137.76549999999</v>
       </c>
       <c r="G57" t="n">
+        <v>156.82</v>
+      </c>
+      <c r="H57" t="n">
         <v>148.6416666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>144</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2959,27 @@
         <v>13328.6697</v>
       </c>
       <c r="G58" t="n">
+        <v>157.28</v>
+      </c>
+      <c r="H58" t="n">
         <v>148.9233333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>144</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +3003,27 @@
         <v>22444.5502</v>
       </c>
       <c r="G59" t="n">
+        <v>157.9533333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>149.25</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>144</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +3047,27 @@
         <v>26708.7952</v>
       </c>
       <c r="G60" t="n">
+        <v>158.4866666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>149.5366666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>144</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +3091,27 @@
         <v>29304.57683395</v>
       </c>
       <c r="G61" t="n">
+        <v>158.9866666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>149.8316666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>144</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3135,27 @@
         <v>872.8684660500001</v>
       </c>
       <c r="G62" t="n">
+        <v>159.34</v>
+      </c>
+      <c r="H62" t="n">
         <v>150.14</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>144</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3179,27 @@
         <v>12141.2206</v>
       </c>
       <c r="G63" t="n">
+        <v>159.5466666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>150.4433333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>144</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3223,27 @@
         <v>5678.15193395</v>
       </c>
       <c r="G64" t="n">
+        <v>159.84</v>
+      </c>
+      <c r="H64" t="n">
         <v>150.7033333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>144</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,19 +3267,28 @@
         <v>13221.64556605</v>
       </c>
       <c r="G65" t="n">
+        <v>160.0533333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>151.0166666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
+      <c r="L65" t="n">
+        <v>144</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="66">
@@ -2688,18 +3311,21 @@
         <v>12900.4625</v>
       </c>
       <c r="G66" t="n">
+        <v>160.3266666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>151.33</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3349,21 @@
         <v>10931.0224</v>
       </c>
       <c r="G67" t="n">
+        <v>160.58</v>
+      </c>
+      <c r="H67" t="n">
         <v>151.62</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3387,21 @@
         <v>1608.0268</v>
       </c>
       <c r="G68" t="n">
+        <v>160.82</v>
+      </c>
+      <c r="H68" t="n">
         <v>151.9316666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3425,21 @@
         <v>23933.19204615</v>
       </c>
       <c r="G69" t="n">
+        <v>161.08</v>
+      </c>
+      <c r="H69" t="n">
         <v>152.23</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3463,21 @@
         <v>95564.14295384999</v>
       </c>
       <c r="G70" t="n">
+        <v>161.3533333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>152.5633333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3501,21 @@
         <v>83328.61537236</v>
       </c>
       <c r="G71" t="n">
+        <v>161.7933333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>152.9566666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3539,21 @@
         <v>12584.3826</v>
       </c>
       <c r="G72" t="n">
+        <v>162.8866666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>153.315</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3577,21 @@
         <v>14379.6877</v>
       </c>
       <c r="G73" t="n">
+        <v>163.16</v>
+      </c>
+      <c r="H73" t="n">
         <v>153.6166666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3615,21 @@
         <v>12410.2733</v>
       </c>
       <c r="G74" t="n">
+        <v>162.9733333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>153.8533333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3653,21 @@
         <v>37811.6394</v>
       </c>
       <c r="G75" t="n">
+        <v>162.92</v>
+      </c>
+      <c r="H75" t="n">
         <v>154.0916666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3691,21 @@
         <v>25819.5341</v>
       </c>
       <c r="G76" t="n">
+        <v>162.8866666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>154.3433333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3729,21 @@
         <v>701.9915</v>
       </c>
       <c r="G77" t="n">
+        <v>162.8066666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>154.65</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3767,21 @@
         <v>18094.5346</v>
       </c>
       <c r="G78" t="n">
+        <v>162.8333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>154.9566666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3805,21 @@
         <v>21606.1963</v>
       </c>
       <c r="G79" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="H79" t="n">
         <v>155.265</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3843,21 @@
         <v>848.9008</v>
       </c>
       <c r="G80" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>155.5733333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3881,21 @@
         <v>5890.2754</v>
       </c>
       <c r="G81" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="H81" t="n">
         <v>155.8816666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3919,21 @@
         <v>214.2783</v>
       </c>
       <c r="G82" t="n">
+        <v>162.86</v>
+      </c>
+      <c r="H82" t="n">
         <v>156.185</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3957,21 @@
         <v>11415.2325</v>
       </c>
       <c r="G83" t="n">
+        <v>162.82</v>
+      </c>
+      <c r="H83" t="n">
         <v>156.4683333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3995,21 @@
         <v>26143.5871</v>
       </c>
       <c r="G84" t="n">
+        <v>162.6266666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>156.7366666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +4033,21 @@
         <v>40106.3274</v>
       </c>
       <c r="G85" t="n">
+        <v>162.28</v>
+      </c>
+      <c r="H85" t="n">
         <v>156.9866666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +4071,21 @@
         <v>23643.5916</v>
       </c>
       <c r="G86" t="n">
+        <v>161.7066666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>157.22</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4109,21 @@
         <v>3971.0503</v>
       </c>
       <c r="G87" t="n">
+        <v>161.2666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>157.46</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4147,21 @@
         <v>2575.9086</v>
       </c>
       <c r="G88" t="n">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>157.65</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4185,21 @@
         <v>9365.8537</v>
       </c>
       <c r="G89" t="n">
+        <v>160.72</v>
+      </c>
+      <c r="H89" t="n">
         <v>157.8316666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4223,21 @@
         <v>17939.56706962</v>
       </c>
       <c r="G90" t="n">
+        <v>160.5066666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>157.9816666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4261,21 @@
         <v>1385.2077</v>
       </c>
       <c r="G91" t="n">
+        <v>160.24</v>
+      </c>
+      <c r="H91" t="n">
         <v>158.1316666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4299,21 @@
         <v>9367.973900000001</v>
       </c>
       <c r="G92" t="n">
+        <v>160.1133333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>158.3216666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4337,21 @@
         <v>3700.7819</v>
       </c>
       <c r="G93" t="n">
+        <v>159.9333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>158.5333333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4375,21 @@
         <v>79.77379999999999</v>
       </c>
       <c r="G94" t="n">
+        <v>159.7333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>158.7133333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4413,21 @@
         <v>5837.774</v>
       </c>
       <c r="G95" t="n">
+        <v>159.5333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>158.8933333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4451,21 @@
         <v>2293.7694</v>
       </c>
       <c r="G96" t="n">
+        <v>159.26</v>
+      </c>
+      <c r="H96" t="n">
         <v>159.0533333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4489,21 @@
         <v>6903.4123</v>
       </c>
       <c r="G97" t="n">
+        <v>158.86</v>
+      </c>
+      <c r="H97" t="n">
         <v>159.1749999999999</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4527,21 @@
         <v>17881.1168</v>
       </c>
       <c r="G98" t="n">
+        <v>158.54</v>
+      </c>
+      <c r="H98" t="n">
         <v>159.3083333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,24 +4565,21 @@
         <v>13435.4594</v>
       </c>
       <c r="G99" t="n">
+        <v>158.1533333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>159.3666666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,24 +4603,21 @@
         <v>15842.9046</v>
       </c>
       <c r="G100" t="n">
+        <v>157.7799999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>159.4249999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>154.2</v>
+        <v>0</v>
       </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3925,24 +4641,21 @@
         <v>2028.643</v>
       </c>
       <c r="G101" t="n">
+        <v>157.52</v>
+      </c>
+      <c r="H101" t="n">
         <v>159.4916666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>154.2</v>
+        <v>0</v>
       </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,24 +4679,21 @@
         <v>9725.616</v>
       </c>
       <c r="G102" t="n">
+        <v>157.2599999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>159.5583333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>155.1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4007,22 +4717,21 @@
         <v>15107.1371</v>
       </c>
       <c r="G103" t="n">
+        <v>157.1666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>159.6183333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,22 +4755,21 @@
         <v>309.1785</v>
       </c>
       <c r="G104" t="n">
+        <v>157.0066666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>159.6633333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4085,22 +4793,21 @@
         <v>5868.867</v>
       </c>
       <c r="G105" t="n">
+        <v>156.8333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>159.6866666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,22 +4831,21 @@
         <v>25369.58</v>
       </c>
       <c r="G106" t="n">
+        <v>156.6333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>159.6866666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4163,22 +4869,21 @@
         <v>950.602</v>
       </c>
       <c r="G107" t="n">
+        <v>156.4533333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>159.6783333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,22 +4907,21 @@
         <v>2086.7716</v>
       </c>
       <c r="G108" t="n">
+        <v>156.2533333333332</v>
+      </c>
+      <c r="H108" t="n">
         <v>159.6416666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4241,22 +4945,21 @@
         <v>4572.843</v>
       </c>
       <c r="G109" t="n">
+        <v>156.0666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>159.635</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,22 +4983,21 @@
         <v>3497.9386</v>
       </c>
       <c r="G110" t="n">
+        <v>155.9533333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>159.6183333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4319,22 +5021,21 @@
         <v>4812.876</v>
       </c>
       <c r="G111" t="n">
+        <v>155.9333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>159.605</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4358,22 +5059,21 @@
         <v>4813.4187</v>
       </c>
       <c r="G112" t="n">
+        <v>156.1199999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>159.605</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,22 +5097,21 @@
         <v>5527.84086847</v>
       </c>
       <c r="G113" t="n">
+        <v>156.2466666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>159.6066666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,22 +5135,21 @@
         <v>3386.492</v>
       </c>
       <c r="G114" t="n">
+        <v>156.4399999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>159.575</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4475,22 +5173,21 @@
         <v>4750.9207</v>
       </c>
       <c r="G115" t="n">
+        <v>156.5599999999999</v>
+      </c>
+      <c r="H115" t="n">
         <v>159.4933333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,22 +5211,21 @@
         <v>4773.1758</v>
       </c>
       <c r="G116" t="n">
+        <v>156.6599999999999</v>
+      </c>
+      <c r="H116" t="n">
         <v>159.42</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,22 +5249,21 @@
         <v>1668.2291</v>
       </c>
       <c r="G117" t="n">
+        <v>156.6599999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>159.5183333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4592,22 +5287,21 @@
         <v>3834.9836</v>
       </c>
       <c r="G118" t="n">
+        <v>156.5533333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>159.4366666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,22 +5325,21 @@
         <v>4147.9426</v>
       </c>
       <c r="G119" t="n">
+        <v>156.52</v>
+      </c>
+      <c r="H119" t="n">
         <v>159.305</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4670,22 +5363,21 @@
         <v>2239.4675</v>
       </c>
       <c r="G120" t="n">
+        <v>156.5666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>159.2066666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4709,22 +5401,21 @@
         <v>2125</v>
       </c>
       <c r="G121" t="n">
+        <v>156.7333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>159.1233333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,22 +5439,21 @@
         <v>4870.4991</v>
       </c>
       <c r="G122" t="n">
+        <v>156.6199999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>158.9983333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,22 +5477,21 @@
         <v>1269.4269</v>
       </c>
       <c r="G123" t="n">
+        <v>156.5066666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>158.8816666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,22 +5515,21 @@
         <v>7730.1161</v>
       </c>
       <c r="G124" t="n">
+        <v>156.2933333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>158.7483333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4865,22 +5553,21 @@
         <v>4593.4382</v>
       </c>
       <c r="G125" t="n">
+        <v>156.04</v>
+      </c>
+      <c r="H125" t="n">
         <v>158.615</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,22 +5591,21 @@
         <v>3092.4035</v>
       </c>
       <c r="G126" t="n">
+        <v>155.7533333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>158.4616666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4943,22 +5629,21 @@
         <v>11292.0152</v>
       </c>
       <c r="G127" t="n">
+        <v>155.3933333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>158.3083333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,22 +5667,401 @@
         <v>5537.3201</v>
       </c>
       <c r="G128" t="n">
+        <v>155.0266666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>158.1583333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>264.2799</v>
+      </c>
+      <c r="G129" t="n">
+        <v>154.7933333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>158.0033333333334</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1700.394</v>
+      </c>
+      <c r="G130" t="n">
+        <v>154.6333333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>157.8133333333334</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>888.322</v>
+      </c>
+      <c r="G131" t="n">
+        <v>154.4333333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>157.58</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D132" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E132" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1183.6383</v>
+      </c>
+      <c r="G132" t="n">
+        <v>154.2599999999999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>157.3616666666667</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>120.162</v>
+      </c>
+      <c r="G133" t="n">
+        <v>154.1599999999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>157.1866666666667</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14556.9328</v>
+      </c>
+      <c r="G134" t="n">
+        <v>153.9866666666666</v>
+      </c>
+      <c r="H134" t="n">
+        <v>157.0583333333334</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14441.8835</v>
+      </c>
+      <c r="G135" t="n">
+        <v>153.8733333333333</v>
+      </c>
+      <c r="H135" t="n">
+        <v>156.945</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>760.149</v>
+      </c>
+      <c r="G136" t="n">
+        <v>153.58</v>
+      </c>
+      <c r="H136" t="n">
+        <v>156.7966666666667</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>26.809</v>
+      </c>
+      <c r="G137" t="n">
+        <v>153.3866666666666</v>
+      </c>
+      <c r="H137" t="n">
+        <v>156.6433333333334</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>152</v>
+      </c>
+      <c r="C138" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>152</v>
+      </c>
+      <c r="F138" t="n">
+        <v>230.89</v>
+      </c>
+      <c r="G138" t="n">
+        <v>153.2466666666666</v>
+      </c>
+      <c r="H138" t="n">
+        <v>156.485</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>143.2</v>
+        <v>140.9</v>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>140.9</v>
       </c>
       <c r="E2" t="n">
-        <v>143.2</v>
+        <v>140.9</v>
       </c>
       <c r="F2" t="n">
-        <v>3188.9541</v>
+        <v>0.83</v>
       </c>
       <c r="G2" t="n">
-        <v>141.8266666666667</v>
+        <v>46794.97898824001</v>
       </c>
       <c r="H2" t="n">
-        <v>140.9616666666666</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>143.8</v>
+        <v>139</v>
       </c>
       <c r="C3" t="n">
-        <v>143.8</v>
+        <v>138.9</v>
       </c>
       <c r="D3" t="n">
-        <v>143.8</v>
+        <v>139</v>
       </c>
       <c r="E3" t="n">
-        <v>143.8</v>
+        <v>138.9</v>
       </c>
       <c r="F3" t="n">
-        <v>125</v>
+        <v>239.7838</v>
       </c>
       <c r="G3" t="n">
-        <v>142.0133333333333</v>
+        <v>46555.19518824001</v>
       </c>
       <c r="H3" t="n">
-        <v>141.025</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>144</v>
-      </c>
-      <c r="L3" t="n">
-        <v>144</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +509,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>145.9</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>145.9</v>
+        <v>140</v>
       </c>
       <c r="E4" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" t="n">
-        <v>13930.85465105</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>142.2733333333333</v>
+        <v>46558.79518824001</v>
       </c>
       <c r="H4" t="n">
-        <v>141.0916666666666</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>144</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +550,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>145.8</v>
+        <v>140</v>
       </c>
       <c r="C5" t="n">
-        <v>143.2</v>
+        <v>141</v>
       </c>
       <c r="D5" t="n">
-        <v>145.8</v>
+        <v>141</v>
       </c>
       <c r="E5" t="n">
-        <v>142.2</v>
+        <v>140</v>
       </c>
       <c r="F5" t="n">
-        <v>9419.5844</v>
+        <v>1052</v>
       </c>
       <c r="G5" t="n">
-        <v>142.42</v>
+        <v>47610.79518824001</v>
       </c>
       <c r="H5" t="n">
-        <v>141.0966666666667</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>144</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>140</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,44 +591,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>144.1</v>
+        <v>141</v>
       </c>
       <c r="C6" t="n">
-        <v>144.1</v>
+        <v>141</v>
       </c>
       <c r="D6" t="n">
-        <v>144.1</v>
+        <v>141</v>
       </c>
       <c r="E6" t="n">
-        <v>144.1</v>
+        <v>141</v>
       </c>
       <c r="F6" t="n">
-        <v>236</v>
+        <v>5997.7756</v>
       </c>
       <c r="G6" t="n">
-        <v>142.6733333333333</v>
+        <v>47610.79518824001</v>
       </c>
       <c r="H6" t="n">
-        <v>141.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>144</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>141</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,44 +632,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>144.1</v>
+        <v>141</v>
       </c>
       <c r="C7" t="n">
-        <v>145.2</v>
+        <v>141.7</v>
       </c>
       <c r="D7" t="n">
-        <v>145.2</v>
+        <v>141.7</v>
       </c>
       <c r="E7" t="n">
-        <v>144.1</v>
+        <v>141</v>
       </c>
       <c r="F7" t="n">
-        <v>380.48888243</v>
+        <v>1845.5565</v>
       </c>
       <c r="G7" t="n">
-        <v>142.9533333333333</v>
+        <v>49456.35168824001</v>
       </c>
       <c r="H7" t="n">
-        <v>141.2533333333334</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>144</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>141</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -702,44 +673,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>145.2</v>
+        <v>141.7</v>
       </c>
       <c r="C8" t="n">
-        <v>143.7</v>
+        <v>141</v>
       </c>
       <c r="D8" t="n">
-        <v>146.1</v>
+        <v>141.7</v>
       </c>
       <c r="E8" t="n">
-        <v>142.4</v>
+        <v>141</v>
       </c>
       <c r="F8" t="n">
-        <v>3174.83036163</v>
+        <v>1239.6245</v>
       </c>
       <c r="G8" t="n">
-        <v>143.1333333333333</v>
+        <v>48216.72718824001</v>
       </c>
       <c r="H8" t="n">
-        <v>141.3316666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>145.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>144</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,44 +714,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F9" t="n">
-        <v>603.80689655</v>
+        <v>741</v>
       </c>
       <c r="G9" t="n">
-        <v>143.4533333333333</v>
+        <v>48957.72718824001</v>
       </c>
       <c r="H9" t="n">
-        <v>141.415</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>144</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>141</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -794,44 +755,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E10" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F10" t="n">
-        <v>92.5215</v>
+        <v>3990</v>
       </c>
       <c r="G10" t="n">
-        <v>143.7733333333333</v>
+        <v>44967.72718824001</v>
       </c>
       <c r="H10" t="n">
-        <v>141.4816666666667</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>145</v>
-      </c>
-      <c r="L10" t="n">
-        <v>144</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>142</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -840,44 +796,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D11" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E11" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F11" t="n">
-        <v>774</v>
+        <v>167.3268</v>
       </c>
       <c r="G11" t="n">
-        <v>144.0266666666666</v>
+        <v>44967.72718824001</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5483333333333</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>145</v>
-      </c>
-      <c r="L11" t="n">
-        <v>144</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>141</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -886,44 +837,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="C12" t="n">
-        <v>145</v>
+        <v>142.4</v>
       </c>
       <c r="D12" t="n">
-        <v>145.9</v>
+        <v>142.4</v>
       </c>
       <c r="E12" t="n">
-        <v>144.9</v>
+        <v>142</v>
       </c>
       <c r="F12" t="n">
-        <v>5078.006854</v>
+        <v>2829</v>
       </c>
       <c r="G12" t="n">
-        <v>144.1933333333333</v>
+        <v>47796.72718824001</v>
       </c>
       <c r="H12" t="n">
-        <v>141.635</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>144</v>
-      </c>
-      <c r="L12" t="n">
-        <v>144</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>141</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,44 +878,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>145</v>
+        <v>142.4</v>
       </c>
       <c r="C13" t="n">
-        <v>145.9</v>
+        <v>142.4</v>
       </c>
       <c r="D13" t="n">
-        <v>145.9</v>
+        <v>142.4</v>
       </c>
       <c r="E13" t="n">
-        <v>145</v>
+        <v>142.4</v>
       </c>
       <c r="F13" t="n">
-        <v>2395</v>
+        <v>473.11</v>
       </c>
       <c r="G13" t="n">
-        <v>144.3866666666667</v>
+        <v>47796.72718824001</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7166666666667</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>145</v>
-      </c>
-      <c r="L13" t="n">
-        <v>144</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -978,44 +919,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145.9</v>
+        <v>142.2</v>
       </c>
       <c r="C14" t="n">
-        <v>146</v>
+        <v>142.2</v>
       </c>
       <c r="D14" t="n">
-        <v>146</v>
+        <v>142.2</v>
       </c>
       <c r="E14" t="n">
-        <v>145.9</v>
+        <v>142.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1406.0938</v>
+        <v>79</v>
       </c>
       <c r="G14" t="n">
-        <v>144.56</v>
+        <v>47717.72718824001</v>
       </c>
       <c r="H14" t="n">
-        <v>141.8266666666667</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>144</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,44 +960,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="C15" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="D15" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="E15" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="F15" t="n">
-        <v>957.3547</v>
+        <v>1045.97</v>
       </c>
       <c r="G15" t="n">
-        <v>144.7</v>
+        <v>46671.75718824001</v>
       </c>
       <c r="H15" t="n">
-        <v>141.925</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>146</v>
-      </c>
-      <c r="L15" t="n">
-        <v>144</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,44 +1001,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="C16" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="D16" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="E16" t="n">
-        <v>145.9</v>
+        <v>142</v>
       </c>
       <c r="F16" t="n">
-        <v>637</v>
+        <v>238.999</v>
       </c>
       <c r="G16" t="n">
-        <v>144.84</v>
+        <v>46671.75718824001</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0233333333334</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>144</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>142</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1116,44 +1042,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>145.7</v>
+        <v>141</v>
       </c>
       <c r="C17" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="D17" t="n">
-        <v>145.7</v>
+        <v>141</v>
       </c>
       <c r="E17" t="n">
-        <v>142.9</v>
+        <v>141</v>
       </c>
       <c r="F17" t="n">
-        <v>6544.751</v>
+        <v>3300</v>
       </c>
       <c r="G17" t="n">
-        <v>144.7666666666666</v>
+        <v>43371.75718824001</v>
       </c>
       <c r="H17" t="n">
-        <v>142.055</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>144</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>142</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,44 +1083,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E18" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F18" t="n">
-        <v>454.3695</v>
+        <v>378</v>
       </c>
       <c r="G18" t="n">
-        <v>144.7799999999999</v>
+        <v>43749.75718824001</v>
       </c>
       <c r="H18" t="n">
-        <v>142.135</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>144</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>141</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1208,44 +1124,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C19" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D19" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E19" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3696</v>
+        <v>264.1427</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6533333333333</v>
+        <v>43485.61448824001</v>
       </c>
       <c r="H19" t="n">
-        <v>142.185</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>144</v>
-      </c>
-      <c r="L19" t="n">
-        <v>144</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>142</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,44 +1165,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>144</v>
+        <v>141.9</v>
       </c>
       <c r="C20" t="n">
-        <v>144</v>
+        <v>140.3</v>
       </c>
       <c r="D20" t="n">
-        <v>144</v>
+        <v>141.9</v>
       </c>
       <c r="E20" t="n">
-        <v>144</v>
+        <v>140.3</v>
       </c>
       <c r="F20" t="n">
-        <v>619.528</v>
+        <v>556</v>
       </c>
       <c r="G20" t="n">
-        <v>144.7066666666666</v>
+        <v>42929.61448824001</v>
       </c>
       <c r="H20" t="n">
-        <v>142.265</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>144</v>
-      </c>
-      <c r="L20" t="n">
-        <v>144</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>141</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,44 +1206,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="C21" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="D21" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="E21" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="F21" t="n">
-        <v>302.913</v>
+        <v>2074.5409</v>
       </c>
       <c r="G21" t="n">
-        <v>144.6933333333333</v>
+        <v>45004.15538824001</v>
       </c>
       <c r="H21" t="n">
-        <v>142.2816666666667</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>144</v>
-      </c>
-      <c r="L21" t="n">
-        <v>144</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1346,44 +1247,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>143.8</v>
+        <v>141</v>
       </c>
       <c r="C22" t="n">
-        <v>143.8</v>
+        <v>141</v>
       </c>
       <c r="D22" t="n">
-        <v>143.8</v>
+        <v>141</v>
       </c>
       <c r="E22" t="n">
-        <v>143.8</v>
+        <v>141</v>
       </c>
       <c r="F22" t="n">
-        <v>717</v>
+        <v>544</v>
       </c>
       <c r="G22" t="n">
-        <v>144.6</v>
+        <v>45004.15538824001</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3283333333333</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>144</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>141</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1392,44 +1288,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>144.8</v>
+        <v>140.2</v>
       </c>
       <c r="C23" t="n">
-        <v>144.8</v>
+        <v>140.2</v>
       </c>
       <c r="D23" t="n">
-        <v>144.8</v>
+        <v>140.2</v>
       </c>
       <c r="E23" t="n">
-        <v>144.8</v>
+        <v>140.2</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>511.2101</v>
       </c>
       <c r="G23" t="n">
-        <v>144.6733333333333</v>
+        <v>44492.94528824001</v>
       </c>
       <c r="H23" t="n">
-        <v>142.3916666666666</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="L23" t="n">
-        <v>144</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>141</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1438,44 +1329,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>143.9</v>
+        <v>140.2</v>
       </c>
       <c r="C24" t="n">
-        <v>143.9</v>
+        <v>140.2</v>
       </c>
       <c r="D24" t="n">
-        <v>143.9</v>
+        <v>140.2</v>
       </c>
       <c r="E24" t="n">
-        <v>143.9</v>
+        <v>140.2</v>
       </c>
       <c r="F24" t="n">
-        <v>12.5</v>
+        <v>319.2077</v>
       </c>
       <c r="G24" t="n">
-        <v>144.6</v>
+        <v>44492.94528824001</v>
       </c>
       <c r="H24" t="n">
-        <v>142.455</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="L24" t="n">
-        <v>144</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,44 +1370,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>144.8</v>
+        <v>140.2</v>
       </c>
       <c r="C25" t="n">
-        <v>144.8</v>
+        <v>140.2</v>
       </c>
       <c r="D25" t="n">
-        <v>144.8</v>
+        <v>140.2</v>
       </c>
       <c r="E25" t="n">
-        <v>144.8</v>
+        <v>140.2</v>
       </c>
       <c r="F25" t="n">
-        <v>325.668</v>
+        <v>625</v>
       </c>
       <c r="G25" t="n">
-        <v>144.5866666666667</v>
+        <v>44492.94528824001</v>
       </c>
       <c r="H25" t="n">
-        <v>142.5183333333333</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>144</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1530,44 +1411,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>144.8</v>
+        <v>142.3</v>
       </c>
       <c r="C26" t="n">
-        <v>145</v>
+        <v>142.5</v>
       </c>
       <c r="D26" t="n">
-        <v>145</v>
+        <v>142.5</v>
       </c>
       <c r="E26" t="n">
-        <v>144</v>
+        <v>142.3</v>
       </c>
       <c r="F26" t="n">
-        <v>2696.6748</v>
+        <v>463.999</v>
       </c>
       <c r="G26" t="n">
-        <v>144.6533333333334</v>
+        <v>44956.94428824002</v>
       </c>
       <c r="H26" t="n">
-        <v>142.6016666666666</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>144</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,44 +1452,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>145.5</v>
+        <v>142.8</v>
       </c>
       <c r="C27" t="n">
-        <v>145.5</v>
+        <v>143</v>
       </c>
       <c r="D27" t="n">
-        <v>145.5</v>
+        <v>143</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5</v>
+        <v>142.8</v>
       </c>
       <c r="F27" t="n">
-        <v>85.73883161000001</v>
+        <v>688.696</v>
       </c>
       <c r="G27" t="n">
-        <v>144.6866666666667</v>
+        <v>45645.64028824002</v>
       </c>
       <c r="H27" t="n">
-        <v>142.6933333333333</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>145</v>
-      </c>
-      <c r="L27" t="n">
-        <v>144</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1622,44 +1493,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" t="n">
-        <v>146.6</v>
+        <v>143.4</v>
       </c>
       <c r="D28" t="n">
-        <v>146.6</v>
+        <v>143.4</v>
       </c>
       <c r="E28" t="n">
-        <v>145.5</v>
+        <v>143</v>
       </c>
       <c r="F28" t="n">
-        <v>4409.093</v>
+        <v>5745.4861</v>
       </c>
       <c r="G28" t="n">
-        <v>144.7333333333334</v>
+        <v>51391.12638824002</v>
       </c>
       <c r="H28" t="n">
-        <v>142.8033333333333</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>144</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>143</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,42 +1534,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>146.6</v>
+        <v>143.4</v>
       </c>
       <c r="C29" t="n">
-        <v>147.1</v>
+        <v>143.8</v>
       </c>
       <c r="D29" t="n">
-        <v>147.1</v>
+        <v>143.8</v>
       </c>
       <c r="E29" t="n">
-        <v>146.6</v>
+        <v>143.4</v>
       </c>
       <c r="F29" t="n">
-        <v>3102.425</v>
+        <v>7027.1471</v>
       </c>
       <c r="G29" t="n">
-        <v>144.8066666666667</v>
+        <v>58418.27348824003</v>
       </c>
       <c r="H29" t="n">
-        <v>142.9216666666666</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>143.4</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>144</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,42 +1575,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>147.1</v>
+        <v>143.8</v>
       </c>
       <c r="C30" t="n">
-        <v>148</v>
+        <v>143.8</v>
       </c>
       <c r="D30" t="n">
-        <v>148.7</v>
+        <v>143.8</v>
       </c>
       <c r="E30" t="n">
-        <v>145.1</v>
+        <v>143.2</v>
       </c>
       <c r="F30" t="n">
-        <v>7170.8693</v>
+        <v>3254</v>
       </c>
       <c r="G30" t="n">
-        <v>144.9466666666667</v>
+        <v>58418.27348824003</v>
       </c>
       <c r="H30" t="n">
-        <v>143.0616666666666</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>143.8</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>144</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,42 +1616,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>148</v>
+        <v>143.2</v>
       </c>
       <c r="C31" t="n">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D31" t="n">
-        <v>148.7</v>
+        <v>144</v>
       </c>
       <c r="E31" t="n">
-        <v>148</v>
+        <v>143.2</v>
       </c>
       <c r="F31" t="n">
-        <v>2380.423</v>
+        <v>3188.9541</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0866666666667</v>
+        <v>61607.22758824003</v>
       </c>
       <c r="H31" t="n">
-        <v>143.2116666666666</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>143.8</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>144</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1800,42 +1657,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>147.1</v>
+        <v>143.8</v>
       </c>
       <c r="C32" t="n">
-        <v>148</v>
+        <v>143.8</v>
       </c>
       <c r="D32" t="n">
-        <v>148.7</v>
+        <v>143.8</v>
       </c>
       <c r="E32" t="n">
-        <v>147</v>
+        <v>143.8</v>
       </c>
       <c r="F32" t="n">
-        <v>7870.5291</v>
+        <v>125</v>
       </c>
       <c r="G32" t="n">
-        <v>145.4266666666667</v>
+        <v>61482.22758824003</v>
       </c>
       <c r="H32" t="n">
-        <v>143.33</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>144</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,42 +1698,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>148.1</v>
+        <v>144</v>
       </c>
       <c r="C33" t="n">
-        <v>147</v>
+        <v>145.9</v>
       </c>
       <c r="D33" t="n">
-        <v>148.7</v>
+        <v>145.9</v>
       </c>
       <c r="E33" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F33" t="n">
-        <v>7262.318</v>
+        <v>13930.85465105</v>
       </c>
       <c r="G33" t="n">
-        <v>145.6266666666667</v>
+        <v>75413.08223929003</v>
       </c>
       <c r="H33" t="n">
-        <v>143.4316666666666</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>143.8</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>144</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1888,42 +1739,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>148</v>
+        <v>145.8</v>
       </c>
       <c r="C34" t="n">
-        <v>148.7</v>
+        <v>143.2</v>
       </c>
       <c r="D34" t="n">
-        <v>148.7</v>
+        <v>145.8</v>
       </c>
       <c r="E34" t="n">
-        <v>148</v>
+        <v>142.2</v>
       </c>
       <c r="F34" t="n">
-        <v>5206.302</v>
+        <v>9419.5844</v>
       </c>
       <c r="G34" t="n">
-        <v>145.94</v>
+        <v>65993.49783929004</v>
       </c>
       <c r="H34" t="n">
-        <v>143.595</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>144</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1932,42 +1780,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>148.7</v>
+        <v>144.1</v>
       </c>
       <c r="C35" t="n">
-        <v>148.7</v>
+        <v>144.1</v>
       </c>
       <c r="D35" t="n">
-        <v>148.8</v>
+        <v>144.1</v>
       </c>
       <c r="E35" t="n">
-        <v>148.5</v>
+        <v>144.1</v>
       </c>
       <c r="F35" t="n">
-        <v>21958.8208</v>
+        <v>236</v>
       </c>
       <c r="G35" t="n">
-        <v>146.2533333333333</v>
+        <v>66229.49783929004</v>
       </c>
       <c r="H35" t="n">
-        <v>143.74</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>143.2</v>
       </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>144</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,42 +1821,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>148.7</v>
+        <v>144.1</v>
       </c>
       <c r="C36" t="n">
-        <v>148.7</v>
+        <v>145.2</v>
       </c>
       <c r="D36" t="n">
-        <v>148.7</v>
+        <v>145.2</v>
       </c>
       <c r="E36" t="n">
-        <v>148.7</v>
+        <v>144.1</v>
       </c>
       <c r="F36" t="n">
-        <v>6740</v>
+        <v>380.48888243</v>
       </c>
       <c r="G36" t="n">
-        <v>146.5733333333333</v>
+        <v>66609.98672172004</v>
       </c>
       <c r="H36" t="n">
-        <v>143.8683333333333</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.1</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>144</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2020,42 +1862,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>148.7</v>
+        <v>145.2</v>
       </c>
       <c r="C37" t="n">
-        <v>148.7</v>
+        <v>143.7</v>
       </c>
       <c r="D37" t="n">
-        <v>148.7</v>
+        <v>146.1</v>
       </c>
       <c r="E37" t="n">
-        <v>148.7</v>
+        <v>142.4</v>
       </c>
       <c r="F37" t="n">
-        <v>3371</v>
+        <v>3174.83036163</v>
       </c>
       <c r="G37" t="n">
-        <v>146.8999999999999</v>
+        <v>63435.15636009004</v>
       </c>
       <c r="H37" t="n">
-        <v>143.9966666666667</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>145.2</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>144</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2064,42 +1903,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>148.7</v>
+        <v>145</v>
       </c>
       <c r="C38" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D38" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E38" t="n">
-        <v>148.7</v>
+        <v>145</v>
       </c>
       <c r="F38" t="n">
-        <v>13979.4299</v>
+        <v>603.80689655</v>
       </c>
       <c r="G38" t="n">
-        <v>147.1799999999999</v>
+        <v>64038.96325664004</v>
       </c>
       <c r="H38" t="n">
-        <v>144.1183333333333</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>143.7</v>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>144</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,42 +1944,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>149.3</v>
+        <v>145</v>
       </c>
       <c r="C39" t="n">
-        <v>150.7</v>
+        <v>145</v>
       </c>
       <c r="D39" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E39" t="n">
-        <v>149.3</v>
+        <v>145</v>
       </c>
       <c r="F39" t="n">
-        <v>43091.09051891</v>
+        <v>92.5215</v>
       </c>
       <c r="G39" t="n">
-        <v>147.6333333333332</v>
+        <v>64038.96325664004</v>
       </c>
       <c r="H39" t="n">
-        <v>144.28</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>144</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2152,42 +1985,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>150.7</v>
+        <v>144</v>
       </c>
       <c r="C40" t="n">
-        <v>150.7</v>
+        <v>144</v>
       </c>
       <c r="D40" t="n">
-        <v>150.7</v>
+        <v>145</v>
       </c>
       <c r="E40" t="n">
-        <v>149.8</v>
+        <v>144</v>
       </c>
       <c r="F40" t="n">
-        <v>10635.5283</v>
+        <v>774</v>
       </c>
       <c r="G40" t="n">
-        <v>148.0266666666666</v>
+        <v>63264.96325664004</v>
       </c>
       <c r="H40" t="n">
-        <v>144.425</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>144</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2196,42 +2026,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>150.7</v>
+        <v>145.9</v>
       </c>
       <c r="C41" t="n">
-        <v>151.1</v>
+        <v>145</v>
       </c>
       <c r="D41" t="n">
-        <v>151.1</v>
+        <v>145.9</v>
       </c>
       <c r="E41" t="n">
-        <v>150.7</v>
+        <v>144.9</v>
       </c>
       <c r="F41" t="n">
-        <v>2386.2496</v>
+        <v>5078.006854</v>
       </c>
       <c r="G41" t="n">
-        <v>148.4333333333332</v>
+        <v>68342.97011064005</v>
       </c>
       <c r="H41" t="n">
-        <v>144.5933333333334</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>144</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,42 +2067,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>151.1</v>
+        <v>145</v>
       </c>
       <c r="C42" t="n">
-        <v>152</v>
+        <v>145.9</v>
       </c>
       <c r="D42" t="n">
-        <v>152.9</v>
+        <v>145.9</v>
       </c>
       <c r="E42" t="n">
-        <v>151.1</v>
+        <v>145</v>
       </c>
       <c r="F42" t="n">
-        <v>1488.137</v>
+        <v>2395</v>
       </c>
       <c r="G42" t="n">
-        <v>148.8666666666665</v>
+        <v>70737.97011064005</v>
       </c>
       <c r="H42" t="n">
-        <v>144.7766666666667</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>144</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,42 +2108,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>152</v>
+        <v>145.9</v>
       </c>
       <c r="C43" t="n">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D43" t="n">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E43" t="n">
-        <v>151.3</v>
+        <v>145.9</v>
       </c>
       <c r="F43" t="n">
-        <v>16315.22018109</v>
+        <v>1406.0938</v>
       </c>
       <c r="G43" t="n">
-        <v>149.2933333333332</v>
+        <v>72144.06391064005</v>
       </c>
       <c r="H43" t="n">
-        <v>144.9533333333334</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>144</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2328,42 +2149,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>152</v>
+        <v>145.9</v>
       </c>
       <c r="C44" t="n">
-        <v>152.9</v>
+        <v>145.9</v>
       </c>
       <c r="D44" t="n">
-        <v>153</v>
+        <v>145.9</v>
       </c>
       <c r="E44" t="n">
-        <v>152</v>
+        <v>145.9</v>
       </c>
       <c r="F44" t="n">
-        <v>4042.998</v>
+        <v>957.3547</v>
       </c>
       <c r="G44" t="n">
-        <v>149.6799999999999</v>
+        <v>71186.70921064005</v>
       </c>
       <c r="H44" t="n">
-        <v>145.1283333333334</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>144</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,42 +2190,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>152.9</v>
+        <v>145.9</v>
       </c>
       <c r="C45" t="n">
-        <v>153</v>
+        <v>145.9</v>
       </c>
       <c r="D45" t="n">
-        <v>153.7</v>
+        <v>145.9</v>
       </c>
       <c r="E45" t="n">
-        <v>152.9</v>
+        <v>145.9</v>
       </c>
       <c r="F45" t="n">
-        <v>20399.5393</v>
+        <v>637</v>
       </c>
       <c r="G45" t="n">
-        <v>150.0133333333332</v>
+        <v>71186.70921064005</v>
       </c>
       <c r="H45" t="n">
-        <v>145.3083333333334</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>144</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,42 +2231,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>153</v>
+        <v>145.7</v>
       </c>
       <c r="C46" t="n">
-        <v>154</v>
+        <v>142.9</v>
       </c>
       <c r="D46" t="n">
-        <v>154.9</v>
+        <v>145.7</v>
       </c>
       <c r="E46" t="n">
-        <v>153</v>
+        <v>142.9</v>
       </c>
       <c r="F46" t="n">
-        <v>21038.9127</v>
+        <v>6544.751</v>
       </c>
       <c r="G46" t="n">
-        <v>150.4133333333332</v>
+        <v>64641.95821064005</v>
       </c>
       <c r="H46" t="n">
-        <v>145.5083333333334</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>144</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,42 +2272,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C47" t="n">
-        <v>157.2</v>
+        <v>144</v>
       </c>
       <c r="D47" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E47" t="n">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F47" t="n">
-        <v>128251.96046107</v>
+        <v>454.3695</v>
       </c>
       <c r="G47" t="n">
-        <v>151.0266666666666</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H47" t="n">
-        <v>145.7616666666667</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>142.9</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>144</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,42 +2313,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>159.6</v>
+        <v>144</v>
       </c>
       <c r="C48" t="n">
-        <v>158.9</v>
+        <v>144</v>
       </c>
       <c r="D48" t="n">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E48" t="n">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F48" t="n">
-        <v>54086.56392075</v>
+        <v>454.3696</v>
       </c>
       <c r="G48" t="n">
-        <v>151.8199999999999</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H48" t="n">
-        <v>146.06</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>144</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,42 +2354,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>157.7</v>
+        <v>144</v>
       </c>
       <c r="C49" t="n">
-        <v>157.1</v>
+        <v>144</v>
       </c>
       <c r="D49" t="n">
-        <v>159.8</v>
+        <v>144</v>
       </c>
       <c r="E49" t="n">
-        <v>157.1</v>
+        <v>144</v>
       </c>
       <c r="F49" t="n">
-        <v>14791.8087</v>
+        <v>619.528</v>
       </c>
       <c r="G49" t="n">
-        <v>152.3799999999999</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H49" t="n">
-        <v>146.3116666666667</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>144</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,42 +2395,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>157.1</v>
+        <v>143.9</v>
       </c>
       <c r="C50" t="n">
-        <v>158.8</v>
+        <v>143.9</v>
       </c>
       <c r="D50" t="n">
-        <v>159.8</v>
+        <v>143.9</v>
       </c>
       <c r="E50" t="n">
-        <v>156.1</v>
+        <v>143.9</v>
       </c>
       <c r="F50" t="n">
-        <v>38024.35444949</v>
+        <v>302.913</v>
       </c>
       <c r="G50" t="n">
-        <v>153.0533333333333</v>
+        <v>64793.41471064005</v>
       </c>
       <c r="H50" t="n">
-        <v>146.6083333333334</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>144</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,42 +2436,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>158.8</v>
+        <v>143.8</v>
       </c>
       <c r="C51" t="n">
-        <v>158.8</v>
+        <v>143.8</v>
       </c>
       <c r="D51" t="n">
-        <v>159.8</v>
+        <v>143.8</v>
       </c>
       <c r="E51" t="n">
-        <v>157.2</v>
+        <v>143.8</v>
       </c>
       <c r="F51" t="n">
-        <v>70481.5931</v>
+        <v>717</v>
       </c>
       <c r="G51" t="n">
-        <v>153.7266666666666</v>
+        <v>64076.41471064005</v>
       </c>
       <c r="H51" t="n">
-        <v>146.9166666666667</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>143.9</v>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>144</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,42 +2477,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>158.8</v>
+        <v>144.8</v>
       </c>
       <c r="C52" t="n">
-        <v>158.8</v>
+        <v>144.8</v>
       </c>
       <c r="D52" t="n">
-        <v>158.8</v>
+        <v>144.8</v>
       </c>
       <c r="E52" t="n">
-        <v>158</v>
+        <v>144.8</v>
       </c>
       <c r="F52" t="n">
-        <v>13703.2664</v>
+        <v>50</v>
       </c>
       <c r="G52" t="n">
-        <v>154.4</v>
+        <v>64126.41471064005</v>
       </c>
       <c r="H52" t="n">
-        <v>147.2133333333333</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>143.8</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>144</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,42 +2518,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>158.5</v>
+        <v>143.9</v>
       </c>
       <c r="C53" t="n">
-        <v>158.8</v>
+        <v>143.9</v>
       </c>
       <c r="D53" t="n">
-        <v>158.8</v>
+        <v>143.9</v>
       </c>
       <c r="E53" t="n">
-        <v>158.5</v>
+        <v>143.9</v>
       </c>
       <c r="F53" t="n">
-        <v>12644.0951</v>
+        <v>12.5</v>
       </c>
       <c r="G53" t="n">
-        <v>155.0533333333333</v>
+        <v>64113.91471064005</v>
       </c>
       <c r="H53" t="n">
-        <v>147.51</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>144.8</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>144</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,42 +2559,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>158.8</v>
+        <v>144.8</v>
       </c>
       <c r="C54" t="n">
-        <v>159</v>
+        <v>144.8</v>
       </c>
       <c r="D54" t="n">
-        <v>160</v>
+        <v>144.8</v>
       </c>
       <c r="E54" t="n">
-        <v>158.8</v>
+        <v>144.8</v>
       </c>
       <c r="F54" t="n">
-        <v>49294.26145051</v>
+        <v>325.668</v>
       </c>
       <c r="G54" t="n">
-        <v>155.6066666666667</v>
+        <v>64439.58271064005</v>
       </c>
       <c r="H54" t="n">
-        <v>147.8233333333333</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>143.9</v>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>144</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,42 +2600,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>160</v>
+        <v>144.8</v>
       </c>
       <c r="C55" t="n">
-        <v>160.9</v>
+        <v>145</v>
       </c>
       <c r="D55" t="n">
-        <v>160.9</v>
+        <v>145</v>
       </c>
       <c r="E55" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F55" t="n">
-        <v>36645.5027</v>
+        <v>2696.6748</v>
       </c>
       <c r="G55" t="n">
-        <v>156.2866666666667</v>
+        <v>67136.25751064005</v>
       </c>
       <c r="H55" t="n">
-        <v>148.1683333333333</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>144.8</v>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>144</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,42 +2641,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>161</v>
+        <v>145.5</v>
       </c>
       <c r="C56" t="n">
-        <v>161</v>
+        <v>145.5</v>
       </c>
       <c r="D56" t="n">
-        <v>162.1</v>
+        <v>145.5</v>
       </c>
       <c r="E56" t="n">
-        <v>160.9</v>
+        <v>145.5</v>
       </c>
       <c r="F56" t="n">
-        <v>43295.71950623</v>
+        <v>85.73883161000001</v>
       </c>
       <c r="G56" t="n">
-        <v>156.9466666666667</v>
+        <v>67221.99634225004</v>
       </c>
       <c r="H56" t="n">
-        <v>148.515</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>144</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,42 +2682,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C57" t="n">
-        <v>150.1</v>
+        <v>146.6</v>
       </c>
       <c r="D57" t="n">
-        <v>163.3</v>
+        <v>146.6</v>
       </c>
       <c r="E57" t="n">
-        <v>150.1</v>
+        <v>145.5</v>
       </c>
       <c r="F57" t="n">
-        <v>82137.76549999999</v>
+        <v>4409.093</v>
       </c>
       <c r="G57" t="n">
-        <v>156.82</v>
+        <v>71631.08934225004</v>
       </c>
       <c r="H57" t="n">
-        <v>148.6416666666666</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>145.5</v>
       </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>144</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,42 +2723,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>162</v>
+        <v>146.6</v>
       </c>
       <c r="C58" t="n">
-        <v>159.9</v>
+        <v>147.1</v>
       </c>
       <c r="D58" t="n">
-        <v>162</v>
+        <v>147.1</v>
       </c>
       <c r="E58" t="n">
-        <v>159</v>
+        <v>146.6</v>
       </c>
       <c r="F58" t="n">
-        <v>13328.6697</v>
+        <v>3102.425</v>
       </c>
       <c r="G58" t="n">
-        <v>157.28</v>
+        <v>74733.51434225004</v>
       </c>
       <c r="H58" t="n">
-        <v>148.9233333333333</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>146.6</v>
       </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>144</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,42 +2764,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>159.9</v>
+        <v>147.1</v>
       </c>
       <c r="C59" t="n">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D59" t="n">
-        <v>163</v>
+        <v>148.7</v>
       </c>
       <c r="E59" t="n">
-        <v>159.9</v>
+        <v>145.1</v>
       </c>
       <c r="F59" t="n">
-        <v>22444.5502</v>
+        <v>7170.8693</v>
       </c>
       <c r="G59" t="n">
-        <v>157.9533333333333</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H59" t="n">
-        <v>149.25</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>147.1</v>
       </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>144</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3032,42 +2805,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>162.8</v>
+        <v>148</v>
       </c>
       <c r="C60" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D60" t="n">
-        <v>162.8</v>
+        <v>148.7</v>
       </c>
       <c r="E60" t="n">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F60" t="n">
-        <v>26708.7952</v>
+        <v>2380.423</v>
       </c>
       <c r="G60" t="n">
-        <v>158.4866666666667</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H60" t="n">
-        <v>149.5366666666667</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>144</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,42 +2846,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>160.2</v>
+        <v>147.1</v>
       </c>
       <c r="C61" t="n">
-        <v>161.5</v>
+        <v>148</v>
       </c>
       <c r="D61" t="n">
-        <v>162</v>
+        <v>148.7</v>
       </c>
       <c r="E61" t="n">
-        <v>159.2</v>
+        <v>147</v>
       </c>
       <c r="F61" t="n">
-        <v>29304.57683395</v>
+        <v>7870.5291</v>
       </c>
       <c r="G61" t="n">
-        <v>158.9866666666667</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H61" t="n">
-        <v>149.8316666666666</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>144</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,42 +2887,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>161.5</v>
+        <v>148.1</v>
       </c>
       <c r="C62" t="n">
-        <v>162.5</v>
+        <v>147</v>
       </c>
       <c r="D62" t="n">
-        <v>162.5</v>
+        <v>148.7</v>
       </c>
       <c r="E62" t="n">
-        <v>161.5</v>
+        <v>147</v>
       </c>
       <c r="F62" t="n">
-        <v>872.8684660500001</v>
+        <v>7262.318</v>
       </c>
       <c r="G62" t="n">
-        <v>159.34</v>
+        <v>74642.06564225005</v>
       </c>
       <c r="H62" t="n">
-        <v>150.14</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>144</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3164,42 +2928,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>162.5</v>
+        <v>148</v>
       </c>
       <c r="C63" t="n">
-        <v>162</v>
+        <v>148.7</v>
       </c>
       <c r="D63" t="n">
-        <v>163</v>
+        <v>148.7</v>
       </c>
       <c r="E63" t="n">
-        <v>161.5</v>
+        <v>148</v>
       </c>
       <c r="F63" t="n">
-        <v>12141.2206</v>
+        <v>5206.302</v>
       </c>
       <c r="G63" t="n">
-        <v>159.5466666666667</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H63" t="n">
-        <v>150.4433333333333</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>144</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3208,42 +2969,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>161.5</v>
+        <v>148.7</v>
       </c>
       <c r="C64" t="n">
-        <v>161.5</v>
+        <v>148.7</v>
       </c>
       <c r="D64" t="n">
-        <v>161.5</v>
+        <v>148.8</v>
       </c>
       <c r="E64" t="n">
-        <v>160.4</v>
+        <v>148.5</v>
       </c>
       <c r="F64" t="n">
-        <v>5678.15193395</v>
+        <v>21958.8208</v>
       </c>
       <c r="G64" t="n">
-        <v>159.84</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H64" t="n">
-        <v>150.7033333333333</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>148.7</v>
       </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>144</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3252,43 +3010,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>161.5</v>
+        <v>148.7</v>
       </c>
       <c r="C65" t="n">
-        <v>162</v>
+        <v>148.7</v>
       </c>
       <c r="D65" t="n">
-        <v>162</v>
+        <v>148.7</v>
       </c>
       <c r="E65" t="n">
-        <v>161.5</v>
+        <v>148.7</v>
       </c>
       <c r="F65" t="n">
-        <v>13221.64556605</v>
+        <v>6740</v>
       </c>
       <c r="G65" t="n">
-        <v>160.0533333333333</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H65" t="n">
-        <v>151.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>148.7</v>
       </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>144</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>1.12</v>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3296,36 +3051,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>161.9</v>
+        <v>148.7</v>
       </c>
       <c r="C66" t="n">
-        <v>162.9</v>
+        <v>148.7</v>
       </c>
       <c r="D66" t="n">
-        <v>162.9</v>
+        <v>148.7</v>
       </c>
       <c r="E66" t="n">
-        <v>160</v>
+        <v>148.7</v>
       </c>
       <c r="F66" t="n">
-        <v>12900.4625</v>
+        <v>3371</v>
       </c>
       <c r="G66" t="n">
-        <v>160.3266666666667</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H66" t="n">
-        <v>151.33</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,36 +3090,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>160.4</v>
+        <v>148.7</v>
       </c>
       <c r="C67" t="n">
-        <v>162.6</v>
+        <v>149</v>
       </c>
       <c r="D67" t="n">
-        <v>162.6</v>
+        <v>149</v>
       </c>
       <c r="E67" t="n">
-        <v>160</v>
+        <v>148.7</v>
       </c>
       <c r="F67" t="n">
-        <v>10931.0224</v>
+        <v>13979.4299</v>
       </c>
       <c r="G67" t="n">
-        <v>160.58</v>
+        <v>93827.79754225005</v>
       </c>
       <c r="H67" t="n">
-        <v>151.62</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,36 +3129,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>162.4</v>
+        <v>149.3</v>
       </c>
       <c r="C68" t="n">
-        <v>162.4</v>
+        <v>150.7</v>
       </c>
       <c r="D68" t="n">
-        <v>162.4</v>
+        <v>151</v>
       </c>
       <c r="E68" t="n">
-        <v>162.4</v>
+        <v>149.3</v>
       </c>
       <c r="F68" t="n">
-        <v>1608.0268</v>
+        <v>43091.09051891</v>
       </c>
       <c r="G68" t="n">
-        <v>160.82</v>
+        <v>136918.88806116</v>
       </c>
       <c r="H68" t="n">
-        <v>151.9316666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,36 +3168,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>162.4</v>
+        <v>150.7</v>
       </c>
       <c r="C69" t="n">
-        <v>162.9</v>
+        <v>150.7</v>
       </c>
       <c r="D69" t="n">
-        <v>162.9</v>
+        <v>150.7</v>
       </c>
       <c r="E69" t="n">
-        <v>162.4</v>
+        <v>149.8</v>
       </c>
       <c r="F69" t="n">
-        <v>23933.19204615</v>
+        <v>10635.5283</v>
       </c>
       <c r="G69" t="n">
-        <v>161.08</v>
+        <v>136918.88806116</v>
       </c>
       <c r="H69" t="n">
-        <v>152.23</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3448,36 +3207,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>162.9</v>
+        <v>150.7</v>
       </c>
       <c r="C70" t="n">
-        <v>165</v>
+        <v>151.1</v>
       </c>
       <c r="D70" t="n">
-        <v>165</v>
+        <v>151.1</v>
       </c>
       <c r="E70" t="n">
-        <v>162.8</v>
+        <v>150.7</v>
       </c>
       <c r="F70" t="n">
-        <v>95564.14295384999</v>
+        <v>2386.2496</v>
       </c>
       <c r="G70" t="n">
-        <v>161.3533333333333</v>
+        <v>139305.1376611601</v>
       </c>
       <c r="H70" t="n">
-        <v>152.5633333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3486,36 +3246,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>165</v>
+        <v>151.1</v>
       </c>
       <c r="C71" t="n">
-        <v>167.6</v>
+        <v>152</v>
       </c>
       <c r="D71" t="n">
-        <v>168</v>
+        <v>152.9</v>
       </c>
       <c r="E71" t="n">
-        <v>164.9</v>
+        <v>151.1</v>
       </c>
       <c r="F71" t="n">
-        <v>83328.61537236</v>
+        <v>1488.137</v>
       </c>
       <c r="G71" t="n">
-        <v>161.7933333333333</v>
+        <v>140793.27466116</v>
       </c>
       <c r="H71" t="n">
-        <v>152.9566666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,36 +3285,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>167.5</v>
+        <v>152</v>
       </c>
       <c r="C72" t="n">
-        <v>166.5</v>
+        <v>153</v>
       </c>
       <c r="D72" t="n">
-        <v>167.6</v>
+        <v>153</v>
       </c>
       <c r="E72" t="n">
-        <v>166</v>
+        <v>151.3</v>
       </c>
       <c r="F72" t="n">
-        <v>12584.3826</v>
+        <v>16315.22018109</v>
       </c>
       <c r="G72" t="n">
-        <v>162.8866666666667</v>
+        <v>157108.49484225</v>
       </c>
       <c r="H72" t="n">
-        <v>153.315</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,36 +3324,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C73" t="n">
-        <v>164</v>
+        <v>152.9</v>
       </c>
       <c r="D73" t="n">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E73" t="n">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F73" t="n">
-        <v>14379.6877</v>
+        <v>4042.998</v>
       </c>
       <c r="G73" t="n">
-        <v>163.16</v>
+        <v>153065.4968422501</v>
       </c>
       <c r="H73" t="n">
-        <v>153.6166666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,36 +3363,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>164</v>
+        <v>152.9</v>
       </c>
       <c r="C74" t="n">
-        <v>160.2</v>
+        <v>153</v>
       </c>
       <c r="D74" t="n">
-        <v>164</v>
+        <v>153.7</v>
       </c>
       <c r="E74" t="n">
-        <v>160.2</v>
+        <v>152.9</v>
       </c>
       <c r="F74" t="n">
-        <v>12410.2733</v>
+        <v>20399.5393</v>
       </c>
       <c r="G74" t="n">
-        <v>162.9733333333333</v>
+        <v>173465.0361422501</v>
       </c>
       <c r="H74" t="n">
-        <v>153.8533333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,36 +3402,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>160.1</v>
+        <v>153</v>
       </c>
       <c r="C75" t="n">
-        <v>160.2</v>
+        <v>154</v>
       </c>
       <c r="D75" t="n">
-        <v>161.3</v>
+        <v>154.9</v>
       </c>
       <c r="E75" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F75" t="n">
-        <v>37811.6394</v>
+        <v>21038.9127</v>
       </c>
       <c r="G75" t="n">
-        <v>162.92</v>
+        <v>194503.94884225</v>
       </c>
       <c r="H75" t="n">
-        <v>154.0916666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,36 +3441,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>160.2</v>
+        <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>161</v>
+        <v>157.2</v>
       </c>
       <c r="D76" t="n">
-        <v>161.3</v>
+        <v>160</v>
       </c>
       <c r="E76" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F76" t="n">
-        <v>25819.5341</v>
+        <v>128251.96046107</v>
       </c>
       <c r="G76" t="n">
-        <v>162.8866666666666</v>
+        <v>322755.90930332</v>
       </c>
       <c r="H76" t="n">
-        <v>154.3433333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,36 +3480,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>161.3</v>
+        <v>159.6</v>
       </c>
       <c r="C77" t="n">
-        <v>161.3</v>
+        <v>158.9</v>
       </c>
       <c r="D77" t="n">
-        <v>161.3</v>
+        <v>162</v>
       </c>
       <c r="E77" t="n">
-        <v>161.3</v>
+        <v>155</v>
       </c>
       <c r="F77" t="n">
-        <v>701.9915</v>
+        <v>54086.56392075</v>
       </c>
       <c r="G77" t="n">
-        <v>162.8066666666666</v>
+        <v>376842.47322407</v>
       </c>
       <c r="H77" t="n">
-        <v>154.65</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,36 +3519,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>161.1</v>
+        <v>157.7</v>
       </c>
       <c r="C78" t="n">
-        <v>162.4</v>
+        <v>157.1</v>
       </c>
       <c r="D78" t="n">
-        <v>162.4</v>
+        <v>159.8</v>
       </c>
       <c r="E78" t="n">
-        <v>161</v>
+        <v>157.1</v>
       </c>
       <c r="F78" t="n">
-        <v>18094.5346</v>
+        <v>14791.8087</v>
       </c>
       <c r="G78" t="n">
-        <v>162.8333333333333</v>
+        <v>362050.66452407</v>
       </c>
       <c r="H78" t="n">
-        <v>154.9566666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,36 +3558,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>162.4</v>
+        <v>157.1</v>
       </c>
       <c r="C79" t="n">
-        <v>162.5</v>
+        <v>158.8</v>
       </c>
       <c r="D79" t="n">
-        <v>162.5</v>
+        <v>159.8</v>
       </c>
       <c r="E79" t="n">
-        <v>161.1</v>
+        <v>156.1</v>
       </c>
       <c r="F79" t="n">
-        <v>21606.1963</v>
+        <v>38024.35444949</v>
       </c>
       <c r="G79" t="n">
-        <v>162.9</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H79" t="n">
-        <v>155.265</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,36 +3597,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>162.5</v>
+        <v>158.8</v>
       </c>
       <c r="C80" t="n">
-        <v>162.5</v>
+        <v>158.8</v>
       </c>
       <c r="D80" t="n">
-        <v>162.5</v>
+        <v>159.8</v>
       </c>
       <c r="E80" t="n">
-        <v>162.5</v>
+        <v>157.2</v>
       </c>
       <c r="F80" t="n">
-        <v>848.9008</v>
+        <v>70481.5931</v>
       </c>
       <c r="G80" t="n">
-        <v>162.9333333333333</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H80" t="n">
-        <v>155.5733333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,36 +3636,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>162.4</v>
+        <v>158.8</v>
       </c>
       <c r="C81" t="n">
-        <v>162.4</v>
+        <v>158.8</v>
       </c>
       <c r="D81" t="n">
-        <v>162.4</v>
+        <v>158.8</v>
       </c>
       <c r="E81" t="n">
-        <v>162.4</v>
+        <v>158</v>
       </c>
       <c r="F81" t="n">
-        <v>5890.2754</v>
+        <v>13703.2664</v>
       </c>
       <c r="G81" t="n">
-        <v>162.9</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H81" t="n">
-        <v>155.8816666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,36 +3675,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>162</v>
+        <v>158.5</v>
       </c>
       <c r="C82" t="n">
-        <v>162</v>
+        <v>158.8</v>
       </c>
       <c r="D82" t="n">
-        <v>162</v>
+        <v>158.8</v>
       </c>
       <c r="E82" t="n">
-        <v>162</v>
+        <v>158.5</v>
       </c>
       <c r="F82" t="n">
-        <v>214.2783</v>
+        <v>12644.0951</v>
       </c>
       <c r="G82" t="n">
-        <v>162.86</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H82" t="n">
-        <v>156.185</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,36 +3714,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>161</v>
+        <v>158.8</v>
       </c>
       <c r="C83" t="n">
-        <v>161.8</v>
+        <v>159</v>
       </c>
       <c r="D83" t="n">
-        <v>161.8</v>
+        <v>160</v>
       </c>
       <c r="E83" t="n">
-        <v>160.1</v>
+        <v>158.8</v>
       </c>
       <c r="F83" t="n">
-        <v>11415.2325</v>
+        <v>49294.26145051</v>
       </c>
       <c r="G83" t="n">
-        <v>162.82</v>
+        <v>449369.2804240701</v>
       </c>
       <c r="H83" t="n">
-        <v>156.4683333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,33 +3756,34 @@
         <v>160</v>
       </c>
       <c r="C84" t="n">
-        <v>160</v>
+        <v>160.9</v>
       </c>
       <c r="D84" t="n">
-        <v>160</v>
+        <v>160.9</v>
       </c>
       <c r="E84" t="n">
         <v>160</v>
       </c>
       <c r="F84" t="n">
-        <v>26143.5871</v>
+        <v>36645.5027</v>
       </c>
       <c r="G84" t="n">
-        <v>162.6266666666666</v>
+        <v>486014.7831240701</v>
       </c>
       <c r="H84" t="n">
-        <v>156.7366666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,36 +3792,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>159.4</v>
+        <v>161</v>
       </c>
       <c r="C85" t="n">
-        <v>159.8</v>
+        <v>161</v>
       </c>
       <c r="D85" t="n">
-        <v>159.9</v>
+        <v>162.1</v>
       </c>
       <c r="E85" t="n">
-        <v>156.8</v>
+        <v>160.9</v>
       </c>
       <c r="F85" t="n">
-        <v>40106.3274</v>
+        <v>43295.71950623</v>
       </c>
       <c r="G85" t="n">
-        <v>162.28</v>
+        <v>529310.5026303001</v>
       </c>
       <c r="H85" t="n">
-        <v>156.9866666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,36 +3831,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C86" t="n">
-        <v>159</v>
+        <v>150.1</v>
       </c>
       <c r="D86" t="n">
-        <v>159.9</v>
+        <v>163.3</v>
       </c>
       <c r="E86" t="n">
-        <v>158</v>
+        <v>150.1</v>
       </c>
       <c r="F86" t="n">
-        <v>23643.5916</v>
+        <v>82137.76549999999</v>
       </c>
       <c r="G86" t="n">
-        <v>161.7066666666666</v>
+        <v>447172.7371303001</v>
       </c>
       <c r="H86" t="n">
-        <v>157.22</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,36 +3870,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>159.8</v>
+        <v>162</v>
       </c>
       <c r="C87" t="n">
         <v>159.9</v>
       </c>
       <c r="D87" t="n">
-        <v>159.9</v>
+        <v>162</v>
       </c>
       <c r="E87" t="n">
-        <v>159.8</v>
+        <v>159</v>
       </c>
       <c r="F87" t="n">
-        <v>3971.0503</v>
+        <v>13328.6697</v>
       </c>
       <c r="G87" t="n">
-        <v>161.2666666666667</v>
+        <v>460501.4068303002</v>
       </c>
       <c r="H87" t="n">
-        <v>157.46</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,36 +3909,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>159.1</v>
+        <v>159.9</v>
       </c>
       <c r="C88" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D88" t="n">
-        <v>159.1</v>
+        <v>163</v>
       </c>
       <c r="E88" t="n">
-        <v>158</v>
+        <v>159.9</v>
       </c>
       <c r="F88" t="n">
-        <v>2575.9086</v>
+        <v>22444.5502</v>
       </c>
       <c r="G88" t="n">
-        <v>160.8666666666667</v>
+        <v>482945.9570303002</v>
       </c>
       <c r="H88" t="n">
-        <v>157.65</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,36 +3948,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>158</v>
+        <v>162.8</v>
       </c>
       <c r="C89" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D89" t="n">
-        <v>158</v>
+        <v>162.8</v>
       </c>
       <c r="E89" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F89" t="n">
-        <v>9365.8537</v>
+        <v>26708.7952</v>
       </c>
       <c r="G89" t="n">
-        <v>160.72</v>
+        <v>456237.1618303002</v>
       </c>
       <c r="H89" t="n">
-        <v>157.8316666666666</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,36 +3987,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>158</v>
+        <v>160.2</v>
       </c>
       <c r="C90" t="n">
-        <v>157</v>
+        <v>161.5</v>
       </c>
       <c r="D90" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E90" t="n">
-        <v>156.4</v>
+        <v>159.2</v>
       </c>
       <c r="F90" t="n">
-        <v>17939.56706962</v>
+        <v>29304.57683395</v>
       </c>
       <c r="G90" t="n">
-        <v>160.5066666666667</v>
+        <v>485541.7386642502</v>
       </c>
       <c r="H90" t="n">
-        <v>157.9816666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,36 +4026,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>157</v>
+        <v>161.5</v>
       </c>
       <c r="C91" t="n">
-        <v>157</v>
+        <v>162.5</v>
       </c>
       <c r="D91" t="n">
-        <v>157.1</v>
+        <v>162.5</v>
       </c>
       <c r="E91" t="n">
-        <v>157</v>
+        <v>161.5</v>
       </c>
       <c r="F91" t="n">
-        <v>1385.2077</v>
+        <v>872.8684660500001</v>
       </c>
       <c r="G91" t="n">
-        <v>160.24</v>
+        <v>486414.6071303002</v>
       </c>
       <c r="H91" t="n">
-        <v>158.1316666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,36 +4065,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>157</v>
+        <v>162.5</v>
       </c>
       <c r="C92" t="n">
-        <v>159.4</v>
+        <v>162</v>
       </c>
       <c r="D92" t="n">
-        <v>159.6</v>
+        <v>163</v>
       </c>
       <c r="E92" t="n">
-        <v>157</v>
+        <v>161.5</v>
       </c>
       <c r="F92" t="n">
-        <v>9367.973900000001</v>
+        <v>12141.2206</v>
       </c>
       <c r="G92" t="n">
-        <v>160.1133333333333</v>
+        <v>474273.3865303002</v>
       </c>
       <c r="H92" t="n">
-        <v>158.3216666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,36 +4104,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>159.4</v>
+        <v>161.5</v>
       </c>
       <c r="C93" t="n">
-        <v>159.7</v>
+        <v>161.5</v>
       </c>
       <c r="D93" t="n">
-        <v>159.7</v>
+        <v>161.5</v>
       </c>
       <c r="E93" t="n">
-        <v>159.1</v>
+        <v>160.4</v>
       </c>
       <c r="F93" t="n">
-        <v>3700.7819</v>
+        <v>5678.15193395</v>
       </c>
       <c r="G93" t="n">
-        <v>159.9333333333333</v>
+        <v>468595.2345963502</v>
       </c>
       <c r="H93" t="n">
-        <v>158.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4360,36 +4143,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>159.5</v>
+        <v>161.5</v>
       </c>
       <c r="C94" t="n">
-        <v>159.5</v>
+        <v>162</v>
       </c>
       <c r="D94" t="n">
-        <v>159.5</v>
+        <v>162</v>
       </c>
       <c r="E94" t="n">
-        <v>159.5</v>
+        <v>161.5</v>
       </c>
       <c r="F94" t="n">
-        <v>79.77379999999999</v>
+        <v>13221.64556605</v>
       </c>
       <c r="G94" t="n">
-        <v>159.7333333333333</v>
+        <v>481816.8801624002</v>
       </c>
       <c r="H94" t="n">
-        <v>158.7133333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,36 +4182,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>159.5</v>
+        <v>161.9</v>
       </c>
       <c r="C95" t="n">
-        <v>159.5</v>
+        <v>162.9</v>
       </c>
       <c r="D95" t="n">
-        <v>159.5</v>
+        <v>162.9</v>
       </c>
       <c r="E95" t="n">
-        <v>159.5</v>
+        <v>160</v>
       </c>
       <c r="F95" t="n">
-        <v>5837.774</v>
+        <v>12900.4625</v>
       </c>
       <c r="G95" t="n">
-        <v>159.5333333333333</v>
+        <v>494717.3426624002</v>
       </c>
       <c r="H95" t="n">
-        <v>158.8933333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,36 +4221,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>159.5</v>
+        <v>160.4</v>
       </c>
       <c r="C96" t="n">
-        <v>158.3</v>
+        <v>162.6</v>
       </c>
       <c r="D96" t="n">
-        <v>159.5</v>
+        <v>162.6</v>
       </c>
       <c r="E96" t="n">
-        <v>158.3</v>
+        <v>160</v>
       </c>
       <c r="F96" t="n">
-        <v>2293.7694</v>
+        <v>10931.0224</v>
       </c>
       <c r="G96" t="n">
-        <v>159.26</v>
+        <v>483786.3202624002</v>
       </c>
       <c r="H96" t="n">
-        <v>159.0533333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,36 +4260,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>157.1</v>
+        <v>162.4</v>
       </c>
       <c r="C97" t="n">
-        <v>156</v>
+        <v>162.4</v>
       </c>
       <c r="D97" t="n">
-        <v>157.1</v>
+        <v>162.4</v>
       </c>
       <c r="E97" t="n">
-        <v>154.8</v>
+        <v>162.4</v>
       </c>
       <c r="F97" t="n">
-        <v>6903.4123</v>
+        <v>1608.0268</v>
       </c>
       <c r="G97" t="n">
-        <v>158.86</v>
+        <v>482178.2934624002</v>
       </c>
       <c r="H97" t="n">
-        <v>159.1749999999999</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,36 +4299,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>158</v>
+        <v>162.4</v>
       </c>
       <c r="C98" t="n">
-        <v>157</v>
+        <v>162.9</v>
       </c>
       <c r="D98" t="n">
-        <v>158</v>
+        <v>162.9</v>
       </c>
       <c r="E98" t="n">
-        <v>154.8</v>
+        <v>162.4</v>
       </c>
       <c r="F98" t="n">
-        <v>17881.1168</v>
+        <v>23933.19204615</v>
       </c>
       <c r="G98" t="n">
-        <v>158.54</v>
+        <v>506111.4855085502</v>
       </c>
       <c r="H98" t="n">
-        <v>159.3083333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,36 +4338,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>157</v>
+        <v>162.9</v>
       </c>
       <c r="C99" t="n">
-        <v>154.2</v>
+        <v>165</v>
       </c>
       <c r="D99" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E99" t="n">
-        <v>154.2</v>
+        <v>162.8</v>
       </c>
       <c r="F99" t="n">
-        <v>13435.4594</v>
+        <v>95564.14295384999</v>
       </c>
       <c r="G99" t="n">
-        <v>158.1533333333333</v>
+        <v>601675.6284624002</v>
       </c>
       <c r="H99" t="n">
-        <v>159.3666666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,74 +4377,70 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>154.2</v>
+        <v>165</v>
       </c>
       <c r="C100" t="n">
-        <v>154.2</v>
+        <v>167.6</v>
       </c>
       <c r="D100" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E100" t="n">
-        <v>154</v>
+        <v>164.9</v>
       </c>
       <c r="F100" t="n">
-        <v>15842.9046</v>
+        <v>83328.61537236</v>
       </c>
       <c r="G100" t="n">
-        <v>157.7799999999999</v>
+        <v>685004.2438347602</v>
       </c>
       <c r="H100" t="n">
-        <v>159.4249999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>155.6</v>
+        <v>167.5</v>
       </c>
       <c r="C101" t="n">
-        <v>155.1</v>
+        <v>166.5</v>
       </c>
       <c r="D101" t="n">
-        <v>155.6</v>
+        <v>167.6</v>
       </c>
       <c r="E101" t="n">
-        <v>155.1</v>
+        <v>166</v>
       </c>
       <c r="F101" t="n">
-        <v>2028.643</v>
+        <v>12584.3826</v>
       </c>
       <c r="G101" t="n">
-        <v>157.52</v>
+        <v>672419.8612347601</v>
       </c>
       <c r="H101" t="n">
-        <v>159.4916666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,36 +4449,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>155.1</v>
+        <v>166</v>
       </c>
       <c r="C102" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D102" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E102" t="n">
-        <v>155.1</v>
+        <v>164</v>
       </c>
       <c r="F102" t="n">
-        <v>9725.616</v>
+        <v>14379.6877</v>
       </c>
       <c r="G102" t="n">
-        <v>157.2599999999999</v>
+        <v>658040.1735347601</v>
       </c>
       <c r="H102" t="n">
-        <v>159.5583333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,36 +4484,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C103" t="n">
-        <v>156.6</v>
+        <v>160.2</v>
       </c>
       <c r="D103" t="n">
-        <v>156.8</v>
+        <v>164</v>
       </c>
       <c r="E103" t="n">
-        <v>154.2</v>
+        <v>160.2</v>
       </c>
       <c r="F103" t="n">
-        <v>15107.1371</v>
+        <v>12410.2733</v>
       </c>
       <c r="G103" t="n">
-        <v>157.1666666666666</v>
+        <v>645629.9002347601</v>
       </c>
       <c r="H103" t="n">
-        <v>159.6183333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4740,36 +4519,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>155.6</v>
+        <v>160.1</v>
       </c>
       <c r="C104" t="n">
-        <v>155.6</v>
+        <v>160.2</v>
       </c>
       <c r="D104" t="n">
-        <v>155.6</v>
+        <v>161.3</v>
       </c>
       <c r="E104" t="n">
-        <v>154.4</v>
+        <v>160</v>
       </c>
       <c r="F104" t="n">
-        <v>309.1785</v>
+        <v>37811.6394</v>
       </c>
       <c r="G104" t="n">
-        <v>157.0066666666666</v>
+        <v>645629.9002347601</v>
       </c>
       <c r="H104" t="n">
-        <v>159.6633333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,36 +4554,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>155.4</v>
+        <v>160.2</v>
       </c>
       <c r="C105" t="n">
-        <v>154.4</v>
+        <v>161</v>
       </c>
       <c r="D105" t="n">
-        <v>155.4</v>
+        <v>161.3</v>
       </c>
       <c r="E105" t="n">
-        <v>154.4</v>
+        <v>160</v>
       </c>
       <c r="F105" t="n">
-        <v>5868.867</v>
+        <v>25819.5341</v>
       </c>
       <c r="G105" t="n">
-        <v>156.8333333333333</v>
+        <v>671449.4343347602</v>
       </c>
       <c r="H105" t="n">
-        <v>159.6866666666666</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4816,36 +4589,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>154.4</v>
+        <v>161.3</v>
       </c>
       <c r="C106" t="n">
-        <v>154</v>
+        <v>161.3</v>
       </c>
       <c r="D106" t="n">
-        <v>156.3</v>
+        <v>161.3</v>
       </c>
       <c r="E106" t="n">
-        <v>154</v>
+        <v>161.3</v>
       </c>
       <c r="F106" t="n">
-        <v>25369.58</v>
+        <v>701.9915</v>
       </c>
       <c r="G106" t="n">
-        <v>156.6333333333333</v>
+        <v>672151.4258347602</v>
       </c>
       <c r="H106" t="n">
-        <v>159.6866666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4854,36 +4624,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>155</v>
+        <v>161.1</v>
       </c>
       <c r="C107" t="n">
-        <v>156.7</v>
+        <v>162.4</v>
       </c>
       <c r="D107" t="n">
-        <v>156.7</v>
+        <v>162.4</v>
       </c>
       <c r="E107" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F107" t="n">
-        <v>950.602</v>
+        <v>18094.5346</v>
       </c>
       <c r="G107" t="n">
-        <v>156.4533333333333</v>
+        <v>690245.9604347602</v>
       </c>
       <c r="H107" t="n">
-        <v>159.6783333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,36 +4659,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>156</v>
+        <v>162.4</v>
       </c>
       <c r="C108" t="n">
-        <v>156.7</v>
+        <v>162.5</v>
       </c>
       <c r="D108" t="n">
-        <v>156.7</v>
+        <v>162.5</v>
       </c>
       <c r="E108" t="n">
-        <v>156</v>
+        <v>161.1</v>
       </c>
       <c r="F108" t="n">
-        <v>2086.7716</v>
+        <v>21606.1963</v>
       </c>
       <c r="G108" t="n">
-        <v>156.2533333333332</v>
+        <v>711852.1567347602</v>
       </c>
       <c r="H108" t="n">
-        <v>159.6416666666666</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,36 +4694,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>156.7</v>
+        <v>162.5</v>
       </c>
       <c r="C109" t="n">
-        <v>156.7</v>
+        <v>162.5</v>
       </c>
       <c r="D109" t="n">
-        <v>156.7</v>
+        <v>162.5</v>
       </c>
       <c r="E109" t="n">
-        <v>156.6</v>
+        <v>162.5</v>
       </c>
       <c r="F109" t="n">
-        <v>4572.843</v>
+        <v>848.9008</v>
       </c>
       <c r="G109" t="n">
-        <v>156.0666666666666</v>
+        <v>711852.1567347602</v>
       </c>
       <c r="H109" t="n">
-        <v>159.635</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,36 +4729,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>155.1</v>
+        <v>162.4</v>
       </c>
       <c r="C110" t="n">
-        <v>157.8</v>
+        <v>162.4</v>
       </c>
       <c r="D110" t="n">
-        <v>157.8</v>
+        <v>162.4</v>
       </c>
       <c r="E110" t="n">
-        <v>155.1</v>
+        <v>162.4</v>
       </c>
       <c r="F110" t="n">
-        <v>3497.9386</v>
+        <v>5890.2754</v>
       </c>
       <c r="G110" t="n">
-        <v>155.9533333333333</v>
+        <v>705961.8813347601</v>
       </c>
       <c r="H110" t="n">
-        <v>159.6183333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,36 +4764,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>157.7</v>
+        <v>162</v>
       </c>
       <c r="C111" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D111" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E111" t="n">
-        <v>157.7</v>
+        <v>162</v>
       </c>
       <c r="F111" t="n">
-        <v>4812.876</v>
+        <v>214.2783</v>
       </c>
       <c r="G111" t="n">
-        <v>155.9333333333333</v>
+        <v>705747.6030347601</v>
       </c>
       <c r="H111" t="n">
-        <v>159.605</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5044,36 +4799,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>158.8</v>
+        <v>161</v>
       </c>
       <c r="C112" t="n">
-        <v>158.8</v>
+        <v>161.8</v>
       </c>
       <c r="D112" t="n">
-        <v>158.9</v>
+        <v>161.8</v>
       </c>
       <c r="E112" t="n">
-        <v>158.8</v>
+        <v>160.1</v>
       </c>
       <c r="F112" t="n">
-        <v>4813.4187</v>
+        <v>11415.2325</v>
       </c>
       <c r="G112" t="n">
-        <v>156.1199999999999</v>
+        <v>694332.3705347601</v>
       </c>
       <c r="H112" t="n">
-        <v>159.605</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5082,36 +4834,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>158.8</v>
+        <v>160</v>
       </c>
       <c r="C113" t="n">
-        <v>158.9</v>
+        <v>160</v>
       </c>
       <c r="D113" t="n">
-        <v>158.9</v>
+        <v>160</v>
       </c>
       <c r="E113" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F113" t="n">
-        <v>5527.84086847</v>
+        <v>26143.5871</v>
       </c>
       <c r="G113" t="n">
-        <v>156.2466666666666</v>
+        <v>668188.7834347601</v>
       </c>
       <c r="H113" t="n">
-        <v>159.6066666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,36 +4869,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>157.1</v>
+        <v>159.4</v>
       </c>
       <c r="C114" t="n">
-        <v>157.1</v>
+        <v>159.8</v>
       </c>
       <c r="D114" t="n">
-        <v>157.1</v>
+        <v>159.9</v>
       </c>
       <c r="E114" t="n">
-        <v>157.1</v>
+        <v>156.8</v>
       </c>
       <c r="F114" t="n">
-        <v>3386.492</v>
+        <v>40106.3274</v>
       </c>
       <c r="G114" t="n">
-        <v>156.4399999999999</v>
+        <v>628082.4560347601</v>
       </c>
       <c r="H114" t="n">
-        <v>159.575</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,36 +4904,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>156.3</v>
+        <v>159</v>
       </c>
       <c r="C115" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D115" t="n">
-        <v>156.3</v>
+        <v>159.9</v>
       </c>
       <c r="E115" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F115" t="n">
-        <v>4750.9207</v>
+        <v>23643.5916</v>
       </c>
       <c r="G115" t="n">
-        <v>156.5599999999999</v>
+        <v>604438.8644347601</v>
       </c>
       <c r="H115" t="n">
-        <v>159.4933333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5196,36 +4939,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>155.2</v>
+        <v>159.8</v>
       </c>
       <c r="C116" t="n">
-        <v>156.6</v>
+        <v>159.9</v>
       </c>
       <c r="D116" t="n">
-        <v>156.6</v>
+        <v>159.9</v>
       </c>
       <c r="E116" t="n">
-        <v>155</v>
+        <v>159.8</v>
       </c>
       <c r="F116" t="n">
-        <v>4773.1758</v>
+        <v>3971.0503</v>
       </c>
       <c r="G116" t="n">
-        <v>156.6599999999999</v>
+        <v>608409.9147347601</v>
       </c>
       <c r="H116" t="n">
-        <v>159.42</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,36 +4974,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>156</v>
+        <v>159.1</v>
       </c>
       <c r="C117" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D117" t="n">
-        <v>156.5</v>
+        <v>159.1</v>
       </c>
       <c r="E117" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F117" t="n">
-        <v>1668.2291</v>
+        <v>2575.9086</v>
       </c>
       <c r="G117" t="n">
-        <v>156.6599999999999</v>
+        <v>605834.0061347601</v>
       </c>
       <c r="H117" t="n">
-        <v>159.5183333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5272,36 +5009,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C118" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D118" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E118" t="n">
-        <v>154.1</v>
+        <v>158</v>
       </c>
       <c r="F118" t="n">
-        <v>3834.9836</v>
+        <v>9365.8537</v>
       </c>
       <c r="G118" t="n">
-        <v>156.5533333333333</v>
+        <v>605834.0061347601</v>
       </c>
       <c r="H118" t="n">
-        <v>159.4366666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5310,36 +5044,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C119" t="n">
-        <v>155.1</v>
+        <v>157</v>
       </c>
       <c r="D119" t="n">
-        <v>156.9</v>
+        <v>158</v>
       </c>
       <c r="E119" t="n">
-        <v>155</v>
+        <v>156.4</v>
       </c>
       <c r="F119" t="n">
-        <v>4147.9426</v>
+        <v>17939.56706962</v>
       </c>
       <c r="G119" t="n">
-        <v>156.52</v>
+        <v>587894.4390651401</v>
       </c>
       <c r="H119" t="n">
-        <v>159.305</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,36 +5079,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C120" t="n">
-        <v>155.1</v>
+        <v>157</v>
       </c>
       <c r="D120" t="n">
-        <v>155.1</v>
+        <v>157.1</v>
       </c>
       <c r="E120" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F120" t="n">
-        <v>2239.4675</v>
+        <v>1385.2077</v>
       </c>
       <c r="G120" t="n">
-        <v>156.5666666666666</v>
+        <v>587894.4390651401</v>
       </c>
       <c r="H120" t="n">
-        <v>159.2066666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,36 +5114,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>155.1</v>
+        <v>157</v>
       </c>
       <c r="C121" t="n">
-        <v>156.5</v>
+        <v>159.4</v>
       </c>
       <c r="D121" t="n">
-        <v>156.5</v>
+        <v>159.6</v>
       </c>
       <c r="E121" t="n">
-        <v>155.1</v>
+        <v>157</v>
       </c>
       <c r="F121" t="n">
-        <v>2125</v>
+        <v>9367.973900000001</v>
       </c>
       <c r="G121" t="n">
-        <v>156.7333333333333</v>
+        <v>597262.4129651401</v>
       </c>
       <c r="H121" t="n">
-        <v>159.1233333333334</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5424,36 +5149,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>156.5</v>
+        <v>159.4</v>
       </c>
       <c r="C122" t="n">
-        <v>155</v>
+        <v>159.7</v>
       </c>
       <c r="D122" t="n">
-        <v>156.5</v>
+        <v>159.7</v>
       </c>
       <c r="E122" t="n">
-        <v>155</v>
+        <v>159.1</v>
       </c>
       <c r="F122" t="n">
-        <v>4870.4991</v>
+        <v>3700.7819</v>
       </c>
       <c r="G122" t="n">
-        <v>156.6199999999999</v>
+        <v>600963.19486514</v>
       </c>
       <c r="H122" t="n">
-        <v>158.9983333333334</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5462,36 +5184,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>155</v>
+        <v>159.5</v>
       </c>
       <c r="C123" t="n">
-        <v>155</v>
+        <v>159.5</v>
       </c>
       <c r="D123" t="n">
-        <v>155</v>
+        <v>159.5</v>
       </c>
       <c r="E123" t="n">
-        <v>155</v>
+        <v>159.5</v>
       </c>
       <c r="F123" t="n">
-        <v>1269.4269</v>
+        <v>79.77379999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>156.5066666666666</v>
+        <v>600883.42106514</v>
       </c>
       <c r="H123" t="n">
-        <v>158.8816666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5500,36 +5219,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>156</v>
+        <v>159.5</v>
       </c>
       <c r="C124" t="n">
-        <v>153.5</v>
+        <v>159.5</v>
       </c>
       <c r="D124" t="n">
-        <v>156</v>
+        <v>159.5</v>
       </c>
       <c r="E124" t="n">
-        <v>153.5</v>
+        <v>159.5</v>
       </c>
       <c r="F124" t="n">
-        <v>7730.1161</v>
+        <v>5837.774</v>
       </c>
       <c r="G124" t="n">
-        <v>156.2933333333333</v>
+        <v>600883.42106514</v>
       </c>
       <c r="H124" t="n">
-        <v>158.7483333333334</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5538,36 +5254,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>156</v>
+        <v>159.5</v>
       </c>
       <c r="C125" t="n">
-        <v>154</v>
+        <v>158.3</v>
       </c>
       <c r="D125" t="n">
-        <v>156</v>
+        <v>159.5</v>
       </c>
       <c r="E125" t="n">
-        <v>154</v>
+        <v>158.3</v>
       </c>
       <c r="F125" t="n">
-        <v>4593.4382</v>
+        <v>2293.7694</v>
       </c>
       <c r="G125" t="n">
-        <v>156.04</v>
+        <v>598589.6516651401</v>
       </c>
       <c r="H125" t="n">
-        <v>158.615</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,36 +5289,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>153.7</v>
+        <v>157.1</v>
       </c>
       <c r="C126" t="n">
-        <v>153.7</v>
+        <v>156</v>
       </c>
       <c r="D126" t="n">
-        <v>153.7</v>
+        <v>157.1</v>
       </c>
       <c r="E126" t="n">
-        <v>153.7</v>
+        <v>154.8</v>
       </c>
       <c r="F126" t="n">
-        <v>3092.4035</v>
+        <v>6903.4123</v>
       </c>
       <c r="G126" t="n">
-        <v>155.7533333333333</v>
+        <v>591686.2393651401</v>
       </c>
       <c r="H126" t="n">
-        <v>158.4616666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5614,36 +5324,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>155.5</v>
+        <v>158</v>
       </c>
       <c r="C127" t="n">
-        <v>153.4</v>
+        <v>157</v>
       </c>
       <c r="D127" t="n">
-        <v>155.5</v>
+        <v>158</v>
       </c>
       <c r="E127" t="n">
-        <v>153.4</v>
+        <v>154.8</v>
       </c>
       <c r="F127" t="n">
-        <v>11292.0152</v>
+        <v>17881.1168</v>
       </c>
       <c r="G127" t="n">
-        <v>155.3933333333333</v>
+        <v>609567.3561651401</v>
       </c>
       <c r="H127" t="n">
-        <v>158.3083333333334</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5652,36 +5359,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>153.9</v>
+        <v>157</v>
       </c>
       <c r="C128" t="n">
-        <v>153.4</v>
+        <v>154.2</v>
       </c>
       <c r="D128" t="n">
-        <v>155.4</v>
+        <v>157</v>
       </c>
       <c r="E128" t="n">
-        <v>153.4</v>
+        <v>154.2</v>
       </c>
       <c r="F128" t="n">
-        <v>5537.3201</v>
+        <v>13435.4594</v>
       </c>
       <c r="G128" t="n">
-        <v>155.0266666666666</v>
+        <v>596131.89676514</v>
       </c>
       <c r="H128" t="n">
-        <v>158.1583333333334</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5690,36 +5394,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>153.6</v>
+        <v>154.2</v>
       </c>
       <c r="C129" t="n">
-        <v>153.6</v>
+        <v>154.2</v>
       </c>
       <c r="D129" t="n">
-        <v>153.6</v>
+        <v>156</v>
       </c>
       <c r="E129" t="n">
-        <v>153.6</v>
+        <v>154</v>
       </c>
       <c r="F129" t="n">
-        <v>264.2799</v>
+        <v>15842.9046</v>
       </c>
       <c r="G129" t="n">
-        <v>154.7933333333333</v>
+        <v>596131.89676514</v>
       </c>
       <c r="H129" t="n">
-        <v>158.0033333333334</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5728,36 +5429,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>153.6</v>
+        <v>155.6</v>
       </c>
       <c r="C130" t="n">
-        <v>153.6</v>
+        <v>155.1</v>
       </c>
       <c r="D130" t="n">
-        <v>153.6</v>
+        <v>155.6</v>
       </c>
       <c r="E130" t="n">
-        <v>153.6</v>
+        <v>155.1</v>
       </c>
       <c r="F130" t="n">
-        <v>1700.394</v>
+        <v>2028.643</v>
       </c>
       <c r="G130" t="n">
-        <v>154.6333333333333</v>
+        <v>598160.53976514</v>
       </c>
       <c r="H130" t="n">
-        <v>157.8133333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,36 +5464,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>153.6</v>
+        <v>155.1</v>
       </c>
       <c r="C131" t="n">
-        <v>153.6</v>
+        <v>156</v>
       </c>
       <c r="D131" t="n">
-        <v>153.6</v>
+        <v>156</v>
       </c>
       <c r="E131" t="n">
-        <v>153.6</v>
+        <v>155.1</v>
       </c>
       <c r="F131" t="n">
-        <v>888.322</v>
+        <v>9725.616</v>
       </c>
       <c r="G131" t="n">
-        <v>154.4333333333333</v>
+        <v>607886.1557651401</v>
       </c>
       <c r="H131" t="n">
-        <v>157.58</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,36 +5499,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>153.4</v>
+        <v>156</v>
       </c>
       <c r="C132" t="n">
-        <v>153.4</v>
+        <v>156.6</v>
       </c>
       <c r="D132" t="n">
-        <v>153.4</v>
+        <v>156.8</v>
       </c>
       <c r="E132" t="n">
-        <v>153.4</v>
+        <v>154.2</v>
       </c>
       <c r="F132" t="n">
-        <v>1183.6383</v>
+        <v>15107.1371</v>
       </c>
       <c r="G132" t="n">
-        <v>154.2599999999999</v>
+        <v>622993.2928651401</v>
       </c>
       <c r="H132" t="n">
-        <v>157.3616666666667</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5842,36 +5534,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>153.5</v>
+        <v>155.6</v>
       </c>
       <c r="C133" t="n">
-        <v>153.5</v>
+        <v>155.6</v>
       </c>
       <c r="D133" t="n">
-        <v>153.5</v>
+        <v>155.6</v>
       </c>
       <c r="E133" t="n">
-        <v>153.5</v>
+        <v>154.4</v>
       </c>
       <c r="F133" t="n">
-        <v>120.162</v>
+        <v>309.1785</v>
       </c>
       <c r="G133" t="n">
-        <v>154.1599999999999</v>
+        <v>622684.1143651401</v>
       </c>
       <c r="H133" t="n">
-        <v>157.1866666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,36 +5569,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>153.4</v>
+        <v>155.4</v>
       </c>
       <c r="C134" t="n">
-        <v>152.5</v>
+        <v>154.4</v>
       </c>
       <c r="D134" t="n">
-        <v>153.4</v>
+        <v>155.4</v>
       </c>
       <c r="E134" t="n">
-        <v>152.5</v>
+        <v>154.4</v>
       </c>
       <c r="F134" t="n">
-        <v>14556.9328</v>
+        <v>5868.867</v>
       </c>
       <c r="G134" t="n">
-        <v>153.9866666666666</v>
+        <v>616815.2473651401</v>
       </c>
       <c r="H134" t="n">
-        <v>157.0583333333334</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5918,36 +5604,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>152.2</v>
+        <v>154.4</v>
       </c>
       <c r="C135" t="n">
-        <v>153.4</v>
+        <v>154</v>
       </c>
       <c r="D135" t="n">
-        <v>153.4</v>
+        <v>156.3</v>
       </c>
       <c r="E135" t="n">
-        <v>150.9</v>
+        <v>154</v>
       </c>
       <c r="F135" t="n">
-        <v>14441.8835</v>
+        <v>25369.58</v>
       </c>
       <c r="G135" t="n">
-        <v>153.8733333333333</v>
+        <v>591445.6673651402</v>
       </c>
       <c r="H135" t="n">
-        <v>156.945</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,36 +5639,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>153.4</v>
+        <v>155</v>
       </c>
       <c r="C136" t="n">
-        <v>152.1</v>
+        <v>156.7</v>
       </c>
       <c r="D136" t="n">
-        <v>153.4</v>
+        <v>156.7</v>
       </c>
       <c r="E136" t="n">
-        <v>152.1</v>
+        <v>155</v>
       </c>
       <c r="F136" t="n">
-        <v>760.149</v>
+        <v>950.602</v>
       </c>
       <c r="G136" t="n">
-        <v>153.58</v>
+        <v>592396.2693651401</v>
       </c>
       <c r="H136" t="n">
-        <v>156.7966666666667</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,36 +5674,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>152.1</v>
+        <v>156</v>
       </c>
       <c r="C137" t="n">
-        <v>152.1</v>
+        <v>156.7</v>
       </c>
       <c r="D137" t="n">
-        <v>152.1</v>
+        <v>156.7</v>
       </c>
       <c r="E137" t="n">
-        <v>152.1</v>
+        <v>156</v>
       </c>
       <c r="F137" t="n">
-        <v>26.809</v>
+        <v>2086.7716</v>
       </c>
       <c r="G137" t="n">
-        <v>153.3866666666666</v>
+        <v>592396.2693651401</v>
       </c>
       <c r="H137" t="n">
-        <v>156.6433333333334</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6032,36 +5709,1048 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>152</v>
+        <v>156.7</v>
       </c>
       <c r="C138" t="n">
-        <v>152.9</v>
+        <v>156.7</v>
       </c>
       <c r="D138" t="n">
-        <v>152.9</v>
+        <v>156.7</v>
       </c>
       <c r="E138" t="n">
-        <v>152</v>
+        <v>156.6</v>
       </c>
       <c r="F138" t="n">
-        <v>230.89</v>
+        <v>4572.843</v>
       </c>
       <c r="G138" t="n">
-        <v>153.2466666666666</v>
+        <v>592396.2693651401</v>
       </c>
       <c r="H138" t="n">
-        <v>156.485</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3497.9386</v>
+      </c>
+      <c r="G139" t="n">
+        <v>595894.2079651401</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>157.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>158</v>
+      </c>
+      <c r="D140" t="n">
+        <v>158</v>
+      </c>
+      <c r="E140" t="n">
+        <v>157.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4812.876</v>
+      </c>
+      <c r="G140" t="n">
+        <v>600707.0839651402</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4813.4187</v>
+      </c>
+      <c r="G141" t="n">
+        <v>605520.5026651402</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>156</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5527.84086847</v>
+      </c>
+      <c r="G142" t="n">
+        <v>611048.3435336102</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3386.492</v>
+      </c>
+      <c r="G143" t="n">
+        <v>607661.8515336103</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>156</v>
+      </c>
+      <c r="D144" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>156</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4750.9207</v>
+      </c>
+      <c r="G144" t="n">
+        <v>602910.9308336102</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>155</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4773.1758</v>
+      </c>
+      <c r="G145" t="n">
+        <v>607684.1066336102</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>156</v>
+      </c>
+      <c r="C146" t="n">
+        <v>156</v>
+      </c>
+      <c r="D146" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>156</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1668.2291</v>
+      </c>
+      <c r="G146" t="n">
+        <v>606015.8775336102</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>156</v>
+      </c>
+      <c r="C147" t="n">
+        <v>155</v>
+      </c>
+      <c r="D147" t="n">
+        <v>156</v>
+      </c>
+      <c r="E147" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3834.9836</v>
+      </c>
+      <c r="G147" t="n">
+        <v>602180.8939336102</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>156</v>
+      </c>
+      <c r="C148" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>155</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4147.9426</v>
+      </c>
+      <c r="G148" t="n">
+        <v>606328.8365336101</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>155</v>
+      </c>
+      <c r="C149" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>155</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2239.4675</v>
+      </c>
+      <c r="G149" t="n">
+        <v>606328.8365336101</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2125</v>
+      </c>
+      <c r="G150" t="n">
+        <v>608453.8365336101</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>155</v>
+      </c>
+      <c r="D151" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>155</v>
+      </c>
+      <c r="F151" t="n">
+        <v>4870.4991</v>
+      </c>
+      <c r="G151" t="n">
+        <v>603583.3374336101</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>155</v>
+      </c>
+      <c r="C152" t="n">
+        <v>155</v>
+      </c>
+      <c r="D152" t="n">
+        <v>155</v>
+      </c>
+      <c r="E152" t="n">
+        <v>155</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1269.4269</v>
+      </c>
+      <c r="G152" t="n">
+        <v>603583.3374336101</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>156</v>
+      </c>
+      <c r="C153" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>156</v>
+      </c>
+      <c r="E153" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7730.1161</v>
+      </c>
+      <c r="G153" t="n">
+        <v>595853.2213336101</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>156</v>
+      </c>
+      <c r="C154" t="n">
+        <v>154</v>
+      </c>
+      <c r="D154" t="n">
+        <v>156</v>
+      </c>
+      <c r="E154" t="n">
+        <v>154</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4593.4382</v>
+      </c>
+      <c r="G154" t="n">
+        <v>600446.6595336101</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3092.4035</v>
+      </c>
+      <c r="G155" t="n">
+        <v>597354.2560336101</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11292.0152</v>
+      </c>
+      <c r="G156" t="n">
+        <v>586062.2408336101</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5537.3201</v>
+      </c>
+      <c r="G157" t="n">
+        <v>586062.2408336101</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C158" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D158" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E158" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F158" t="n">
+        <v>264.2799</v>
+      </c>
+      <c r="G158" t="n">
+        <v>586326.52073361</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1700.394</v>
+      </c>
+      <c r="G159" t="n">
+        <v>586326.52073361</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F160" t="n">
+        <v>888.322</v>
+      </c>
+      <c r="G160" t="n">
+        <v>586326.52073361</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E161" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1183.6383</v>
+      </c>
+      <c r="G161" t="n">
+        <v>585142.88243361</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>120.162</v>
+      </c>
+      <c r="G162" t="n">
+        <v>585263.04443361</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>14556.9328</v>
+      </c>
+      <c r="G163" t="n">
+        <v>570706.1116336101</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E164" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>14441.8835</v>
+      </c>
+      <c r="G164" t="n">
+        <v>585147.9951336101</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>760.149</v>
+      </c>
+      <c r="G165" t="n">
+        <v>584387.8461336101</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>26.809</v>
+      </c>
+      <c r="G166" t="n">
+        <v>584387.8461336101</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>152</v>
+      </c>
+      <c r="C167" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>152</v>
+      </c>
+      <c r="F167" t="n">
+        <v>230.89</v>
+      </c>
+      <c r="G167" t="n">
+        <v>584618.7361336101</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>140.9</v>
+        <v>145.9</v>
       </c>
       <c r="C2" t="n">
-        <v>140.9</v>
+        <v>145.9</v>
       </c>
       <c r="D2" t="n">
-        <v>140.9</v>
+        <v>145.9</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9</v>
+        <v>145.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.83</v>
+        <v>957.3547</v>
       </c>
       <c r="G2" t="n">
-        <v>46794.97898824001</v>
+        <v>71186.70921064005</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>139</v>
+        <v>145.9</v>
       </c>
       <c r="C3" t="n">
-        <v>138.9</v>
+        <v>145.9</v>
       </c>
       <c r="D3" t="n">
-        <v>139</v>
+        <v>145.9</v>
       </c>
       <c r="E3" t="n">
-        <v>138.9</v>
+        <v>145.9</v>
       </c>
       <c r="F3" t="n">
-        <v>239.7838</v>
+        <v>637</v>
       </c>
       <c r="G3" t="n">
-        <v>46555.19518824001</v>
+        <v>71186.70921064005</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -492,39 +498,38 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>140.9</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>145.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>145.7</v>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>142.9</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>145.7</v>
       </c>
       <c r="E4" t="n">
-        <v>140</v>
+        <v>142.9</v>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>6544.751</v>
       </c>
       <c r="G4" t="n">
-        <v>46558.79518824001</v>
+        <v>64641.95821064005</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -533,39 +538,42 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>145.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C5" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D5" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E5" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F5" t="n">
-        <v>1052</v>
+        <v>454.3695</v>
       </c>
       <c r="G5" t="n">
-        <v>47610.79518824001</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -574,9 +582,11 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>140</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>142.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -585,28 +595,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D6" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E6" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F6" t="n">
-        <v>5997.7756</v>
+        <v>454.3696</v>
       </c>
       <c r="G6" t="n">
-        <v>47610.79518824001</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -615,9 +626,11 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>141</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="K6" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -626,28 +639,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C7" t="n">
-        <v>141.7</v>
+        <v>144</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7</v>
+        <v>144</v>
       </c>
       <c r="E7" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F7" t="n">
-        <v>1845.5565</v>
+        <v>619.528</v>
       </c>
       <c r="G7" t="n">
-        <v>49456.35168824001</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -656,9 +670,11 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>141</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="K7" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -667,28 +683,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>141.7</v>
+        <v>143.9</v>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="D8" t="n">
-        <v>141.7</v>
+        <v>143.9</v>
       </c>
       <c r="E8" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1239.6245</v>
+        <v>302.913</v>
       </c>
       <c r="G8" t="n">
-        <v>48216.72718824001</v>
+        <v>64793.41471064005</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -697,9 +714,11 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="K8" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -708,28 +727,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>142</v>
+        <v>143.8</v>
       </c>
       <c r="C9" t="n">
-        <v>142</v>
+        <v>143.8</v>
       </c>
       <c r="D9" t="n">
-        <v>142</v>
+        <v>143.8</v>
       </c>
       <c r="E9" t="n">
-        <v>142</v>
+        <v>143.8</v>
       </c>
       <c r="F9" t="n">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="G9" t="n">
-        <v>48957.72718824001</v>
+        <v>64076.41471064005</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -738,9 +758,11 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>141</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>143.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -749,28 +771,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141</v>
+        <v>144.8</v>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>144.8</v>
       </c>
       <c r="D10" t="n">
-        <v>141</v>
+        <v>144.8</v>
       </c>
       <c r="E10" t="n">
-        <v>141</v>
+        <v>144.8</v>
       </c>
       <c r="F10" t="n">
-        <v>3990</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>44967.72718824001</v>
+        <v>64126.41471064005</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -779,9 +802,11 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>142</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>143.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -790,28 +815,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="C11" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="D11" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="E11" t="n">
-        <v>141</v>
+        <v>143.9</v>
       </c>
       <c r="F11" t="n">
-        <v>167.3268</v>
+        <v>12.5</v>
       </c>
       <c r="G11" t="n">
-        <v>44967.72718824001</v>
+        <v>64113.91471064005</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -820,9 +846,11 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>141</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>144.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -831,28 +859,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>142</v>
+        <v>144.8</v>
       </c>
       <c r="C12" t="n">
-        <v>142.4</v>
+        <v>144.8</v>
       </c>
       <c r="D12" t="n">
-        <v>142.4</v>
+        <v>144.8</v>
       </c>
       <c r="E12" t="n">
-        <v>142</v>
+        <v>144.8</v>
       </c>
       <c r="F12" t="n">
-        <v>2829</v>
+        <v>325.668</v>
       </c>
       <c r="G12" t="n">
-        <v>47796.72718824001</v>
+        <v>64439.58271064005</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -861,9 +890,11 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>141</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>143.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -872,28 +903,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142.4</v>
+        <v>144.8</v>
       </c>
       <c r="C13" t="n">
-        <v>142.4</v>
+        <v>145</v>
       </c>
       <c r="D13" t="n">
-        <v>142.4</v>
+        <v>145</v>
       </c>
       <c r="E13" t="n">
-        <v>142.4</v>
+        <v>144</v>
       </c>
       <c r="F13" t="n">
-        <v>473.11</v>
+        <v>2696.6748</v>
       </c>
       <c r="G13" t="n">
-        <v>47796.72718824001</v>
+        <v>67136.25751064005</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -902,9 +934,11 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>144.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -913,28 +947,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>142.2</v>
+        <v>145.5</v>
       </c>
       <c r="C14" t="n">
-        <v>142.2</v>
+        <v>145.5</v>
       </c>
       <c r="D14" t="n">
-        <v>142.2</v>
+        <v>145.5</v>
       </c>
       <c r="E14" t="n">
-        <v>142.2</v>
+        <v>145.5</v>
       </c>
       <c r="F14" t="n">
-        <v>79</v>
+        <v>85.73883161000001</v>
       </c>
       <c r="G14" t="n">
-        <v>47717.72718824001</v>
+        <v>67221.99634225004</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -943,9 +978,11 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>145</v>
+      </c>
+      <c r="K14" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -954,28 +991,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C15" t="n">
-        <v>142</v>
+        <v>146.6</v>
       </c>
       <c r="D15" t="n">
-        <v>142</v>
+        <v>146.6</v>
       </c>
       <c r="E15" t="n">
-        <v>142</v>
+        <v>145.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1045.97</v>
+        <v>4409.093</v>
       </c>
       <c r="G15" t="n">
-        <v>46671.75718824001</v>
+        <v>71631.08934225004</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -984,9 +1022,11 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>145.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -995,28 +1035,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>142</v>
+        <v>146.6</v>
       </c>
       <c r="C16" t="n">
-        <v>142</v>
+        <v>147.1</v>
       </c>
       <c r="D16" t="n">
-        <v>142</v>
+        <v>147.1</v>
       </c>
       <c r="E16" t="n">
-        <v>142</v>
+        <v>146.6</v>
       </c>
       <c r="F16" t="n">
-        <v>238.999</v>
+        <v>3102.425</v>
       </c>
       <c r="G16" t="n">
-        <v>46671.75718824001</v>
+        <v>74733.51434225004</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1025,9 +1066,11 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>142</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>146.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1036,28 +1079,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>141</v>
+        <v>147.1</v>
       </c>
       <c r="C17" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D17" t="n">
-        <v>141</v>
+        <v>148.7</v>
       </c>
       <c r="E17" t="n">
-        <v>141</v>
+        <v>145.1</v>
       </c>
       <c r="F17" t="n">
-        <v>3300</v>
+        <v>7170.8693</v>
       </c>
       <c r="G17" t="n">
-        <v>43371.75718824001</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1066,9 +1110,11 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>142</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>147.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1077,28 +1123,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C18" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D18" t="n">
-        <v>142</v>
+        <v>148.7</v>
       </c>
       <c r="E18" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F18" t="n">
-        <v>378</v>
+        <v>2380.423</v>
       </c>
       <c r="G18" t="n">
-        <v>43749.75718824001</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1107,9 +1154,11 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>141</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K18" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1118,28 +1167,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>141</v>
+        <v>147.1</v>
       </c>
       <c r="C19" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D19" t="n">
-        <v>141</v>
+        <v>148.7</v>
       </c>
       <c r="E19" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1427</v>
+        <v>7870.5291</v>
       </c>
       <c r="G19" t="n">
-        <v>43485.61448824001</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1148,9 +1198,11 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>142</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K19" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1159,28 +1211,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>141.9</v>
+        <v>148.1</v>
       </c>
       <c r="C20" t="n">
-        <v>140.3</v>
+        <v>147</v>
       </c>
       <c r="D20" t="n">
-        <v>141.9</v>
+        <v>148.7</v>
       </c>
       <c r="E20" t="n">
-        <v>140.3</v>
+        <v>147</v>
       </c>
       <c r="F20" t="n">
-        <v>556</v>
+        <v>7262.318</v>
       </c>
       <c r="G20" t="n">
-        <v>42929.61448824001</v>
+        <v>74642.06564225005</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1189,9 +1242,11 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>141</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>148</v>
+      </c>
+      <c r="K20" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1200,28 +1255,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C21" t="n">
-        <v>141</v>
+        <v>148.7</v>
       </c>
       <c r="D21" t="n">
-        <v>141</v>
+        <v>148.7</v>
       </c>
       <c r="E21" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F21" t="n">
-        <v>2074.5409</v>
+        <v>5206.302</v>
       </c>
       <c r="G21" t="n">
-        <v>45004.15538824001</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1230,9 +1286,11 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>147</v>
+      </c>
+      <c r="K21" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1241,28 +1299,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>141</v>
+        <v>148.7</v>
       </c>
       <c r="C22" t="n">
-        <v>141</v>
+        <v>148.7</v>
       </c>
       <c r="D22" t="n">
-        <v>141</v>
+        <v>148.8</v>
       </c>
       <c r="E22" t="n">
-        <v>141</v>
+        <v>148.5</v>
       </c>
       <c r="F22" t="n">
-        <v>544</v>
+        <v>21958.8208</v>
       </c>
       <c r="G22" t="n">
-        <v>45004.15538824001</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1271,9 +1330,11 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>141</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>148.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1282,28 +1343,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="C23" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="D23" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="E23" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="F23" t="n">
-        <v>511.2101</v>
+        <v>6740</v>
       </c>
       <c r="G23" t="n">
-        <v>44492.94528824001</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1312,9 +1374,11 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>141</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>148.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1323,28 +1387,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="C24" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="D24" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="E24" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2077</v>
+        <v>3371</v>
       </c>
       <c r="G24" t="n">
-        <v>44492.94528824001</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1353,9 +1418,11 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>148.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1364,28 +1431,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="C25" t="n">
-        <v>140.2</v>
+        <v>149</v>
       </c>
       <c r="D25" t="n">
-        <v>140.2</v>
+        <v>149</v>
       </c>
       <c r="E25" t="n">
-        <v>140.2</v>
+        <v>148.7</v>
       </c>
       <c r="F25" t="n">
-        <v>625</v>
+        <v>13979.4299</v>
       </c>
       <c r="G25" t="n">
-        <v>44492.94528824001</v>
+        <v>93827.79754225005</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1394,9 +1462,11 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>148.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1405,28 +1475,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>142.3</v>
+        <v>149.3</v>
       </c>
       <c r="C26" t="n">
-        <v>142.5</v>
+        <v>150.7</v>
       </c>
       <c r="D26" t="n">
-        <v>142.5</v>
+        <v>151</v>
       </c>
       <c r="E26" t="n">
-        <v>142.3</v>
+        <v>149.3</v>
       </c>
       <c r="F26" t="n">
-        <v>463.999</v>
+        <v>43091.09051891</v>
       </c>
       <c r="G26" t="n">
-        <v>44956.94428824002</v>
+        <v>136918.88806116</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1435,9 +1506,11 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>149</v>
+      </c>
+      <c r="K26" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1446,28 +1519,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>142.8</v>
+        <v>150.7</v>
       </c>
       <c r="C27" t="n">
-        <v>143</v>
+        <v>150.7</v>
       </c>
       <c r="D27" t="n">
-        <v>143</v>
+        <v>150.7</v>
       </c>
       <c r="E27" t="n">
-        <v>142.8</v>
+        <v>149.8</v>
       </c>
       <c r="F27" t="n">
-        <v>688.696</v>
+        <v>10635.5283</v>
       </c>
       <c r="G27" t="n">
-        <v>45645.64028824002</v>
+        <v>136918.88806116</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1476,9 +1550,11 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>150.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1487,28 +1563,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>143</v>
+        <v>150.7</v>
       </c>
       <c r="C28" t="n">
-        <v>143.4</v>
+        <v>151.1</v>
       </c>
       <c r="D28" t="n">
-        <v>143.4</v>
+        <v>151.1</v>
       </c>
       <c r="E28" t="n">
-        <v>143</v>
+        <v>150.7</v>
       </c>
       <c r="F28" t="n">
-        <v>5745.4861</v>
+        <v>2386.2496</v>
       </c>
       <c r="G28" t="n">
-        <v>51391.12638824002</v>
+        <v>139305.1376611601</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1517,9 +1594,11 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>143</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>150.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1528,28 +1607,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>143.4</v>
+        <v>151.1</v>
       </c>
       <c r="C29" t="n">
-        <v>143.8</v>
+        <v>152</v>
       </c>
       <c r="D29" t="n">
-        <v>143.8</v>
+        <v>152.9</v>
       </c>
       <c r="E29" t="n">
-        <v>143.4</v>
+        <v>151.1</v>
       </c>
       <c r="F29" t="n">
-        <v>7027.1471</v>
+        <v>1488.137</v>
       </c>
       <c r="G29" t="n">
-        <v>58418.27348824003</v>
+        <v>140793.27466116</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1558,9 +1638,11 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>151.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1569,39 +1651,40 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>143.8</v>
+        <v>152</v>
       </c>
       <c r="C30" t="n">
-        <v>143.8</v>
+        <v>153</v>
       </c>
       <c r="D30" t="n">
-        <v>143.8</v>
+        <v>153</v>
       </c>
       <c r="E30" t="n">
-        <v>143.2</v>
+        <v>151.3</v>
       </c>
       <c r="F30" t="n">
-        <v>3254</v>
+        <v>16315.22018109</v>
       </c>
       <c r="G30" t="n">
-        <v>58418.27348824003</v>
+        <v>157108.49484225</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1610,39 +1693,40 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>143.2</v>
+        <v>152</v>
       </c>
       <c r="C31" t="n">
-        <v>144</v>
+        <v>152.9</v>
       </c>
       <c r="D31" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E31" t="n">
-        <v>143.2</v>
+        <v>152</v>
       </c>
       <c r="F31" t="n">
-        <v>3188.9541</v>
+        <v>4042.998</v>
       </c>
       <c r="G31" t="n">
-        <v>61607.22758824003</v>
+        <v>153065.4968422501</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,39 +1735,40 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>143.8</v>
+        <v>152.9</v>
       </c>
       <c r="C32" t="n">
-        <v>143.8</v>
+        <v>153</v>
       </c>
       <c r="D32" t="n">
-        <v>143.8</v>
+        <v>153.7</v>
       </c>
       <c r="E32" t="n">
-        <v>143.8</v>
+        <v>152.9</v>
       </c>
       <c r="F32" t="n">
-        <v>125</v>
+        <v>20399.5393</v>
       </c>
       <c r="G32" t="n">
-        <v>61482.22758824003</v>
+        <v>173465.0361422501</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>144</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1692,39 +1777,40 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C33" t="n">
-        <v>145.9</v>
+        <v>154</v>
       </c>
       <c r="D33" t="n">
-        <v>145.9</v>
+        <v>154.9</v>
       </c>
       <c r="E33" t="n">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F33" t="n">
-        <v>13930.85465105</v>
+        <v>21038.9127</v>
       </c>
       <c r="G33" t="n">
-        <v>75413.08223929003</v>
+        <v>194503.94884225</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1733,39 +1819,40 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>145.8</v>
+        <v>154</v>
       </c>
       <c r="C34" t="n">
-        <v>143.2</v>
+        <v>157.2</v>
       </c>
       <c r="D34" t="n">
-        <v>145.8</v>
+        <v>160</v>
       </c>
       <c r="E34" t="n">
-        <v>142.2</v>
+        <v>154</v>
       </c>
       <c r="F34" t="n">
-        <v>9419.5844</v>
+        <v>128251.96046107</v>
       </c>
       <c r="G34" t="n">
-        <v>65993.49783929004</v>
+        <v>322755.90930332</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1774,39 +1861,40 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>144.1</v>
+        <v>159.6</v>
       </c>
       <c r="C35" t="n">
-        <v>144.1</v>
+        <v>158.9</v>
       </c>
       <c r="D35" t="n">
-        <v>144.1</v>
+        <v>162</v>
       </c>
       <c r="E35" t="n">
-        <v>144.1</v>
+        <v>155</v>
       </c>
       <c r="F35" t="n">
-        <v>236</v>
+        <v>54086.56392075</v>
       </c>
       <c r="G35" t="n">
-        <v>66229.49783929004</v>
+        <v>376842.47322407</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1815,39 +1903,40 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>144.1</v>
+        <v>157.7</v>
       </c>
       <c r="C36" t="n">
-        <v>145.2</v>
+        <v>157.1</v>
       </c>
       <c r="D36" t="n">
-        <v>145.2</v>
+        <v>159.8</v>
       </c>
       <c r="E36" t="n">
-        <v>144.1</v>
+        <v>157.1</v>
       </c>
       <c r="F36" t="n">
-        <v>380.48888243</v>
+        <v>14791.8087</v>
       </c>
       <c r="G36" t="n">
-        <v>66609.98672172004</v>
+        <v>362050.66452407</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1856,39 +1945,40 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>145.2</v>
+        <v>157.1</v>
       </c>
       <c r="C37" t="n">
-        <v>143.7</v>
+        <v>158.8</v>
       </c>
       <c r="D37" t="n">
-        <v>146.1</v>
+        <v>159.8</v>
       </c>
       <c r="E37" t="n">
-        <v>142.4</v>
+        <v>156.1</v>
       </c>
       <c r="F37" t="n">
-        <v>3174.83036163</v>
+        <v>38024.35444949</v>
       </c>
       <c r="G37" t="n">
-        <v>63435.15636009004</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>145.2</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1897,39 +1987,40 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>145</v>
+        <v>158.8</v>
       </c>
       <c r="C38" t="n">
-        <v>145</v>
+        <v>158.8</v>
       </c>
       <c r="D38" t="n">
-        <v>145</v>
+        <v>159.8</v>
       </c>
       <c r="E38" t="n">
-        <v>145</v>
+        <v>157.2</v>
       </c>
       <c r="F38" t="n">
-        <v>603.80689655</v>
+        <v>70481.5931</v>
       </c>
       <c r="G38" t="n">
-        <v>64038.96325664004</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1938,39 +2029,40 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>145</v>
+        <v>158.8</v>
       </c>
       <c r="C39" t="n">
-        <v>145</v>
+        <v>158.8</v>
       </c>
       <c r="D39" t="n">
-        <v>145</v>
+        <v>158.8</v>
       </c>
       <c r="E39" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F39" t="n">
-        <v>92.5215</v>
+        <v>13703.2664</v>
       </c>
       <c r="G39" t="n">
-        <v>64038.96325664004</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>145</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1979,39 +2071,40 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>144</v>
+        <v>158.5</v>
       </c>
       <c r="C40" t="n">
-        <v>144</v>
+        <v>158.8</v>
       </c>
       <c r="D40" t="n">
-        <v>145</v>
+        <v>158.8</v>
       </c>
       <c r="E40" t="n">
-        <v>144</v>
+        <v>158.5</v>
       </c>
       <c r="F40" t="n">
-        <v>774</v>
+        <v>12644.0951</v>
       </c>
       <c r="G40" t="n">
-        <v>63264.96325664004</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>145</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,39 +2113,40 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>145.9</v>
+        <v>158.8</v>
       </c>
       <c r="C41" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D41" t="n">
-        <v>145.9</v>
+        <v>160</v>
       </c>
       <c r="E41" t="n">
-        <v>144.9</v>
+        <v>158.8</v>
       </c>
       <c r="F41" t="n">
-        <v>5078.006854</v>
+        <v>49294.26145051</v>
       </c>
       <c r="G41" t="n">
-        <v>68342.97011064005</v>
+        <v>449369.2804240701</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>144</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2061,39 +2155,40 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C42" t="n">
-        <v>145.9</v>
+        <v>160.9</v>
       </c>
       <c r="D42" t="n">
-        <v>145.9</v>
+        <v>160.9</v>
       </c>
       <c r="E42" t="n">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F42" t="n">
-        <v>2395</v>
+        <v>36645.5027</v>
       </c>
       <c r="G42" t="n">
-        <v>70737.97011064005</v>
+        <v>486014.7831240701</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>145</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2102,39 +2197,40 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>145.9</v>
+        <v>161</v>
       </c>
       <c r="C43" t="n">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D43" t="n">
-        <v>146</v>
+        <v>162.1</v>
       </c>
       <c r="E43" t="n">
-        <v>145.9</v>
+        <v>160.9</v>
       </c>
       <c r="F43" t="n">
-        <v>1406.0938</v>
+        <v>43295.71950623</v>
       </c>
       <c r="G43" t="n">
-        <v>72144.06391064005</v>
+        <v>529310.5026303001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2143,39 +2239,40 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>145.9</v>
+        <v>161</v>
       </c>
       <c r="C44" t="n">
-        <v>145.9</v>
+        <v>150.1</v>
       </c>
       <c r="D44" t="n">
-        <v>145.9</v>
+        <v>163.3</v>
       </c>
       <c r="E44" t="n">
-        <v>145.9</v>
+        <v>150.1</v>
       </c>
       <c r="F44" t="n">
-        <v>957.3547</v>
+        <v>82137.76549999999</v>
       </c>
       <c r="G44" t="n">
-        <v>71186.70921064005</v>
+        <v>447172.7371303001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>146</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2184,39 +2281,40 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>145.9</v>
+        <v>162</v>
       </c>
       <c r="C45" t="n">
-        <v>145.9</v>
+        <v>159.9</v>
       </c>
       <c r="D45" t="n">
-        <v>145.9</v>
+        <v>162</v>
       </c>
       <c r="E45" t="n">
-        <v>145.9</v>
+        <v>159</v>
       </c>
       <c r="F45" t="n">
-        <v>637</v>
+        <v>13328.6697</v>
       </c>
       <c r="G45" t="n">
-        <v>71186.70921064005</v>
+        <v>460501.4068303002</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2225,39 +2323,40 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>145.7</v>
+        <v>159.9</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9</v>
+        <v>163</v>
       </c>
       <c r="D46" t="n">
-        <v>145.7</v>
+        <v>163</v>
       </c>
       <c r="E46" t="n">
-        <v>142.9</v>
+        <v>159.9</v>
       </c>
       <c r="F46" t="n">
-        <v>6544.751</v>
+        <v>22444.5502</v>
       </c>
       <c r="G46" t="n">
-        <v>64641.95821064005</v>
+        <v>482945.9570303002</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,39 +2365,40 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>144</v>
+        <v>162.8</v>
       </c>
       <c r="C47" t="n">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D47" t="n">
-        <v>144</v>
+        <v>162.8</v>
       </c>
       <c r="E47" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F47" t="n">
-        <v>454.3695</v>
+        <v>26708.7952</v>
       </c>
       <c r="G47" t="n">
-        <v>65096.32771064005</v>
+        <v>456237.1618303002</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2307,39 +2407,40 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>144</v>
+        <v>160.2</v>
       </c>
       <c r="C48" t="n">
-        <v>144</v>
+        <v>161.5</v>
       </c>
       <c r="D48" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E48" t="n">
-        <v>144</v>
+        <v>159.2</v>
       </c>
       <c r="F48" t="n">
-        <v>454.3696</v>
+        <v>29304.57683395</v>
       </c>
       <c r="G48" t="n">
-        <v>65096.32771064005</v>
+        <v>485541.7386642502</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>144</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2348,39 +2449,40 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>144</v>
+        <v>161.5</v>
       </c>
       <c r="C49" t="n">
-        <v>144</v>
+        <v>162.5</v>
       </c>
       <c r="D49" t="n">
-        <v>144</v>
+        <v>162.5</v>
       </c>
       <c r="E49" t="n">
-        <v>144</v>
+        <v>161.5</v>
       </c>
       <c r="F49" t="n">
-        <v>619.528</v>
+        <v>872.8684660500001</v>
       </c>
       <c r="G49" t="n">
-        <v>65096.32771064005</v>
+        <v>486414.6071303002</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>144</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2389,39 +2491,40 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>143.9</v>
+        <v>162.5</v>
       </c>
       <c r="C50" t="n">
-        <v>143.9</v>
+        <v>162</v>
       </c>
       <c r="D50" t="n">
-        <v>143.9</v>
+        <v>163</v>
       </c>
       <c r="E50" t="n">
-        <v>143.9</v>
+        <v>161.5</v>
       </c>
       <c r="F50" t="n">
-        <v>302.913</v>
+        <v>12141.2206</v>
       </c>
       <c r="G50" t="n">
-        <v>64793.41471064005</v>
+        <v>474273.3865303002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>144</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2430,39 +2533,40 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>143.8</v>
+        <v>161.5</v>
       </c>
       <c r="C51" t="n">
-        <v>143.8</v>
+        <v>161.5</v>
       </c>
       <c r="D51" t="n">
-        <v>143.8</v>
+        <v>161.5</v>
       </c>
       <c r="E51" t="n">
-        <v>143.8</v>
+        <v>160.4</v>
       </c>
       <c r="F51" t="n">
-        <v>717</v>
+        <v>5678.15193395</v>
       </c>
       <c r="G51" t="n">
-        <v>64076.41471064005</v>
+        <v>468595.2345963502</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,39 +2575,40 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>144.8</v>
+        <v>161.5</v>
       </c>
       <c r="C52" t="n">
-        <v>144.8</v>
+        <v>162</v>
       </c>
       <c r="D52" t="n">
-        <v>144.8</v>
+        <v>162</v>
       </c>
       <c r="E52" t="n">
-        <v>144.8</v>
+        <v>161.5</v>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>13221.64556605</v>
       </c>
       <c r="G52" t="n">
-        <v>64126.41471064005</v>
+        <v>481816.8801624002</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,39 +2617,40 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>143.9</v>
+        <v>161.9</v>
       </c>
       <c r="C53" t="n">
-        <v>143.9</v>
+        <v>162.9</v>
       </c>
       <c r="D53" t="n">
-        <v>143.9</v>
+        <v>162.9</v>
       </c>
       <c r="E53" t="n">
-        <v>143.9</v>
+        <v>160</v>
       </c>
       <c r="F53" t="n">
-        <v>12.5</v>
+        <v>12900.4625</v>
       </c>
       <c r="G53" t="n">
-        <v>64113.91471064005</v>
+        <v>494717.3426624002</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2553,39 +2659,40 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>144.8</v>
+        <v>160.4</v>
       </c>
       <c r="C54" t="n">
-        <v>144.8</v>
+        <v>162.6</v>
       </c>
       <c r="D54" t="n">
-        <v>144.8</v>
+        <v>162.6</v>
       </c>
       <c r="E54" t="n">
-        <v>144.8</v>
+        <v>160</v>
       </c>
       <c r="F54" t="n">
-        <v>325.668</v>
+        <v>10931.0224</v>
       </c>
       <c r="G54" t="n">
-        <v>64439.58271064005</v>
+        <v>483786.3202624002</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2594,39 +2701,40 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>144.8</v>
+        <v>162.4</v>
       </c>
       <c r="C55" t="n">
-        <v>145</v>
+        <v>162.4</v>
       </c>
       <c r="D55" t="n">
-        <v>145</v>
+        <v>162.4</v>
       </c>
       <c r="E55" t="n">
-        <v>144</v>
+        <v>162.4</v>
       </c>
       <c r="F55" t="n">
-        <v>2696.6748</v>
+        <v>1608.0268</v>
       </c>
       <c r="G55" t="n">
-        <v>67136.25751064005</v>
+        <v>482178.2934624002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,39 +2743,40 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>145.5</v>
+        <v>162.4</v>
       </c>
       <c r="C56" t="n">
-        <v>145.5</v>
+        <v>162.9</v>
       </c>
       <c r="D56" t="n">
-        <v>145.5</v>
+        <v>162.9</v>
       </c>
       <c r="E56" t="n">
-        <v>145.5</v>
+        <v>162.4</v>
       </c>
       <c r="F56" t="n">
-        <v>85.73883161000001</v>
+        <v>23933.19204615</v>
       </c>
       <c r="G56" t="n">
-        <v>67221.99634225004</v>
+        <v>506111.4855085502</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>145</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2676,39 +2785,40 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>146</v>
+        <v>162.9</v>
       </c>
       <c r="C57" t="n">
-        <v>146.6</v>
+        <v>165</v>
       </c>
       <c r="D57" t="n">
-        <v>146.6</v>
+        <v>165</v>
       </c>
       <c r="E57" t="n">
-        <v>145.5</v>
+        <v>162.8</v>
       </c>
       <c r="F57" t="n">
-        <v>4409.093</v>
+        <v>95564.14295384999</v>
       </c>
       <c r="G57" t="n">
-        <v>71631.08934225004</v>
+        <v>601675.6284624002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,39 +2827,40 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>146.6</v>
+        <v>165</v>
       </c>
       <c r="C58" t="n">
-        <v>147.1</v>
+        <v>167.6</v>
       </c>
       <c r="D58" t="n">
-        <v>147.1</v>
+        <v>168</v>
       </c>
       <c r="E58" t="n">
-        <v>146.6</v>
+        <v>164.9</v>
       </c>
       <c r="F58" t="n">
-        <v>3102.425</v>
+        <v>83328.61537236</v>
       </c>
       <c r="G58" t="n">
-        <v>74733.51434225004</v>
+        <v>685004.2438347602</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,39 +2869,40 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>147.1</v>
+        <v>167.5</v>
       </c>
       <c r="C59" t="n">
-        <v>148</v>
+        <v>166.5</v>
       </c>
       <c r="D59" t="n">
-        <v>148.7</v>
+        <v>167.6</v>
       </c>
       <c r="E59" t="n">
-        <v>145.1</v>
+        <v>166</v>
       </c>
       <c r="F59" t="n">
-        <v>7170.8693</v>
+        <v>12584.3826</v>
       </c>
       <c r="G59" t="n">
-        <v>81904.38364225005</v>
+        <v>672419.8612347601</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2799,39 +2911,40 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C60" t="n">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D60" t="n">
-        <v>148.7</v>
+        <v>166</v>
       </c>
       <c r="E60" t="n">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F60" t="n">
-        <v>2380.423</v>
+        <v>14379.6877</v>
       </c>
       <c r="G60" t="n">
-        <v>81904.38364225005</v>
+        <v>658040.1735347601</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>148</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2840,39 +2953,40 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>147.1</v>
+        <v>164</v>
       </c>
       <c r="C61" t="n">
-        <v>148</v>
+        <v>160.2</v>
       </c>
       <c r="D61" t="n">
-        <v>148.7</v>
+        <v>164</v>
       </c>
       <c r="E61" t="n">
-        <v>147</v>
+        <v>160.2</v>
       </c>
       <c r="F61" t="n">
-        <v>7870.5291</v>
+        <v>12410.2733</v>
       </c>
       <c r="G61" t="n">
-        <v>81904.38364225005</v>
+        <v>645629.9002347601</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>148</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,39 +2995,40 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>148.1</v>
+        <v>160.1</v>
       </c>
       <c r="C62" t="n">
-        <v>147</v>
+        <v>160.2</v>
       </c>
       <c r="D62" t="n">
-        <v>148.7</v>
+        <v>161.3</v>
       </c>
       <c r="E62" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F62" t="n">
-        <v>7262.318</v>
+        <v>37811.6394</v>
       </c>
       <c r="G62" t="n">
-        <v>74642.06564225005</v>
+        <v>645629.9002347601</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>148</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,39 +3037,40 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>148</v>
+        <v>160.2</v>
       </c>
       <c r="C63" t="n">
-        <v>148.7</v>
+        <v>161</v>
       </c>
       <c r="D63" t="n">
-        <v>148.7</v>
+        <v>161.3</v>
       </c>
       <c r="E63" t="n">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F63" t="n">
-        <v>5206.302</v>
+        <v>25819.5341</v>
       </c>
       <c r="G63" t="n">
-        <v>79848.36764225004</v>
+        <v>671449.4343347602</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>147</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2963,39 +3079,40 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>148.7</v>
+        <v>161.3</v>
       </c>
       <c r="C64" t="n">
-        <v>148.7</v>
+        <v>161.3</v>
       </c>
       <c r="D64" t="n">
-        <v>148.8</v>
+        <v>161.3</v>
       </c>
       <c r="E64" t="n">
-        <v>148.5</v>
+        <v>161.3</v>
       </c>
       <c r="F64" t="n">
-        <v>21958.8208</v>
+        <v>701.9915</v>
       </c>
       <c r="G64" t="n">
-        <v>79848.36764225004</v>
+        <v>672151.4258347602</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,39 +3121,40 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>148.7</v>
+        <v>161.1</v>
       </c>
       <c r="C65" t="n">
-        <v>148.7</v>
+        <v>162.4</v>
       </c>
       <c r="D65" t="n">
-        <v>148.7</v>
+        <v>162.4</v>
       </c>
       <c r="E65" t="n">
-        <v>148.7</v>
+        <v>161</v>
       </c>
       <c r="F65" t="n">
-        <v>6740</v>
+        <v>18094.5346</v>
       </c>
       <c r="G65" t="n">
-        <v>79848.36764225004</v>
+        <v>690245.9604347602</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,28 +3163,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>148.7</v>
+        <v>162.4</v>
       </c>
       <c r="C66" t="n">
-        <v>148.7</v>
+        <v>162.5</v>
       </c>
       <c r="D66" t="n">
-        <v>148.7</v>
+        <v>162.5</v>
       </c>
       <c r="E66" t="n">
-        <v>148.7</v>
+        <v>161.1</v>
       </c>
       <c r="F66" t="n">
-        <v>3371</v>
+        <v>21606.1963</v>
       </c>
       <c r="G66" t="n">
-        <v>79848.36764225004</v>
+        <v>711852.1567347602</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3075,7 +3194,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,28 +3205,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>148.7</v>
+        <v>162.5</v>
       </c>
       <c r="C67" t="n">
-        <v>149</v>
+        <v>162.5</v>
       </c>
       <c r="D67" t="n">
-        <v>149</v>
+        <v>162.5</v>
       </c>
       <c r="E67" t="n">
-        <v>148.7</v>
+        <v>162.5</v>
       </c>
       <c r="F67" t="n">
-        <v>13979.4299</v>
+        <v>848.9008</v>
       </c>
       <c r="G67" t="n">
-        <v>93827.79754225005</v>
+        <v>711852.1567347602</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3114,7 +3236,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3123,28 +3247,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>149.3</v>
+        <v>162.4</v>
       </c>
       <c r="C68" t="n">
-        <v>150.7</v>
+        <v>162.4</v>
       </c>
       <c r="D68" t="n">
-        <v>151</v>
+        <v>162.4</v>
       </c>
       <c r="E68" t="n">
-        <v>149.3</v>
+        <v>162.4</v>
       </c>
       <c r="F68" t="n">
-        <v>43091.09051891</v>
+        <v>5890.2754</v>
       </c>
       <c r="G68" t="n">
-        <v>136918.88806116</v>
+        <v>705961.8813347601</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3153,7 +3278,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,28 +3289,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>150.7</v>
+        <v>162</v>
       </c>
       <c r="C69" t="n">
-        <v>150.7</v>
+        <v>162</v>
       </c>
       <c r="D69" t="n">
-        <v>150.7</v>
+        <v>162</v>
       </c>
       <c r="E69" t="n">
-        <v>149.8</v>
+        <v>162</v>
       </c>
       <c r="F69" t="n">
-        <v>10635.5283</v>
+        <v>214.2783</v>
       </c>
       <c r="G69" t="n">
-        <v>136918.88806116</v>
+        <v>705747.6030347601</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3192,7 +3320,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,28 +3331,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>150.7</v>
+        <v>161</v>
       </c>
       <c r="C70" t="n">
-        <v>151.1</v>
+        <v>161.8</v>
       </c>
       <c r="D70" t="n">
-        <v>151.1</v>
+        <v>161.8</v>
       </c>
       <c r="E70" t="n">
-        <v>150.7</v>
+        <v>160.1</v>
       </c>
       <c r="F70" t="n">
-        <v>2386.2496</v>
+        <v>11415.2325</v>
       </c>
       <c r="G70" t="n">
-        <v>139305.1376611601</v>
+        <v>694332.3705347601</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3231,7 +3362,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,28 +3373,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>151.1</v>
+        <v>160</v>
       </c>
       <c r="C71" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D71" t="n">
-        <v>152.9</v>
+        <v>160</v>
       </c>
       <c r="E71" t="n">
-        <v>151.1</v>
+        <v>160</v>
       </c>
       <c r="F71" t="n">
-        <v>1488.137</v>
+        <v>26143.5871</v>
       </c>
       <c r="G71" t="n">
-        <v>140793.27466116</v>
+        <v>668188.7834347601</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3270,7 +3404,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,28 +3415,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>152</v>
+        <v>159.4</v>
       </c>
       <c r="C72" t="n">
-        <v>153</v>
+        <v>159.8</v>
       </c>
       <c r="D72" t="n">
-        <v>153</v>
+        <v>159.9</v>
       </c>
       <c r="E72" t="n">
-        <v>151.3</v>
+        <v>156.8</v>
       </c>
       <c r="F72" t="n">
-        <v>16315.22018109</v>
+        <v>40106.3274</v>
       </c>
       <c r="G72" t="n">
-        <v>157108.49484225</v>
+        <v>628082.4560347601</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3309,7 +3446,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,28 +3457,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C73" t="n">
-        <v>152.9</v>
+        <v>159</v>
       </c>
       <c r="D73" t="n">
-        <v>153</v>
+        <v>159.9</v>
       </c>
       <c r="E73" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F73" t="n">
-        <v>4042.998</v>
+        <v>23643.5916</v>
       </c>
       <c r="G73" t="n">
-        <v>153065.4968422501</v>
+        <v>604438.8644347601</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3348,7 +3488,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3357,28 +3499,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>152.9</v>
+        <v>159.8</v>
       </c>
       <c r="C74" t="n">
-        <v>153</v>
+        <v>159.9</v>
       </c>
       <c r="D74" t="n">
-        <v>153.7</v>
+        <v>159.9</v>
       </c>
       <c r="E74" t="n">
-        <v>152.9</v>
+        <v>159.8</v>
       </c>
       <c r="F74" t="n">
-        <v>20399.5393</v>
+        <v>3971.0503</v>
       </c>
       <c r="G74" t="n">
-        <v>173465.0361422501</v>
+        <v>608409.9147347601</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3387,7 +3530,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,43 +3541,49 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>153</v>
+        <v>159.1</v>
       </c>
       <c r="C75" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D75" t="n">
-        <v>154.9</v>
+        <v>159.1</v>
       </c>
       <c r="E75" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F75" t="n">
-        <v>21038.9127</v>
+        <v>2575.9086</v>
       </c>
       <c r="G75" t="n">
-        <v>194503.94884225</v>
+        <v>605834.0061347601</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>145.9</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M75" t="n">
+        <v>1.077933516106923</v>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,61 +3592,58 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C76" t="n">
-        <v>157.2</v>
+        <v>158</v>
       </c>
       <c r="D76" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E76" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F76" t="n">
-        <v>128251.96046107</v>
+        <v>9365.8537</v>
       </c>
       <c r="G76" t="n">
-        <v>322755.90930332</v>
+        <v>605834.0061347601</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>159.6</v>
+        <v>158</v>
       </c>
       <c r="C77" t="n">
-        <v>158.9</v>
+        <v>157</v>
       </c>
       <c r="D77" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E77" t="n">
-        <v>155</v>
+        <v>156.4</v>
       </c>
       <c r="F77" t="n">
-        <v>54086.56392075</v>
+        <v>17939.56706962</v>
       </c>
       <c r="G77" t="n">
-        <v>376842.47322407</v>
+        <v>587894.4390651401</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3505,36 +3653,33 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>157.7</v>
+        <v>157</v>
       </c>
       <c r="C78" t="n">
+        <v>157</v>
+      </c>
+      <c r="D78" t="n">
         <v>157.1</v>
       </c>
-      <c r="D78" t="n">
-        <v>159.8</v>
-      </c>
       <c r="E78" t="n">
-        <v>157.1</v>
+        <v>157</v>
       </c>
       <c r="F78" t="n">
-        <v>14791.8087</v>
+        <v>1385.2077</v>
       </c>
       <c r="G78" t="n">
-        <v>362050.66452407</v>
+        <v>587894.4390651401</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3544,36 +3689,33 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>157.1</v>
+        <v>157</v>
       </c>
       <c r="C79" t="n">
-        <v>158.8</v>
+        <v>159.4</v>
       </c>
       <c r="D79" t="n">
-        <v>159.8</v>
+        <v>159.6</v>
       </c>
       <c r="E79" t="n">
-        <v>156.1</v>
+        <v>157</v>
       </c>
       <c r="F79" t="n">
-        <v>38024.35444949</v>
+        <v>9367.973900000001</v>
       </c>
       <c r="G79" t="n">
-        <v>400075.0189735601</v>
+        <v>597262.4129651401</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3583,36 +3725,33 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>158.8</v>
+        <v>159.4</v>
       </c>
       <c r="C80" t="n">
-        <v>158.8</v>
+        <v>159.7</v>
       </c>
       <c r="D80" t="n">
-        <v>159.8</v>
+        <v>159.7</v>
       </c>
       <c r="E80" t="n">
-        <v>157.2</v>
+        <v>159.1</v>
       </c>
       <c r="F80" t="n">
-        <v>70481.5931</v>
+        <v>3700.7819</v>
       </c>
       <c r="G80" t="n">
-        <v>400075.0189735601</v>
+        <v>600963.19486514</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3622,36 +3761,33 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>158.8</v>
+        <v>159.5</v>
       </c>
       <c r="C81" t="n">
-        <v>158.8</v>
+        <v>159.5</v>
       </c>
       <c r="D81" t="n">
-        <v>158.8</v>
+        <v>159.5</v>
       </c>
       <c r="E81" t="n">
-        <v>158</v>
+        <v>159.5</v>
       </c>
       <c r="F81" t="n">
-        <v>13703.2664</v>
+        <v>79.77379999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>400075.0189735601</v>
+        <v>600883.42106514</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3661,270 +3797,249 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>158.5</v>
+        <v>159.5</v>
       </c>
       <c r="C82" t="n">
-        <v>158.8</v>
+        <v>159.5</v>
       </c>
       <c r="D82" t="n">
-        <v>158.8</v>
+        <v>159.5</v>
       </c>
       <c r="E82" t="n">
-        <v>158.5</v>
+        <v>159.5</v>
       </c>
       <c r="F82" t="n">
-        <v>12644.0951</v>
+        <v>5837.774</v>
       </c>
       <c r="G82" t="n">
-        <v>400075.0189735601</v>
+        <v>600883.42106514</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>158.8</v>
+        <v>159.5</v>
       </c>
       <c r="C83" t="n">
-        <v>159</v>
+        <v>158.3</v>
       </c>
       <c r="D83" t="n">
-        <v>160</v>
+        <v>159.5</v>
       </c>
       <c r="E83" t="n">
-        <v>158.8</v>
+        <v>158.3</v>
       </c>
       <c r="F83" t="n">
-        <v>49294.26145051</v>
+        <v>2293.7694</v>
       </c>
       <c r="G83" t="n">
-        <v>449369.2804240701</v>
+        <v>598589.6516651401</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>160</v>
+        <v>157.1</v>
       </c>
       <c r="C84" t="n">
-        <v>160.9</v>
+        <v>156</v>
       </c>
       <c r="D84" t="n">
-        <v>160.9</v>
+        <v>157.1</v>
       </c>
       <c r="E84" t="n">
-        <v>160</v>
+        <v>154.8</v>
       </c>
       <c r="F84" t="n">
-        <v>36645.5027</v>
+        <v>6903.4123</v>
       </c>
       <c r="G84" t="n">
-        <v>486014.7831240701</v>
+        <v>591686.2393651401</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C85" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D85" t="n">
-        <v>162.1</v>
+        <v>158</v>
       </c>
       <c r="E85" t="n">
-        <v>160.9</v>
+        <v>154.8</v>
       </c>
       <c r="F85" t="n">
-        <v>43295.71950623</v>
+        <v>17881.1168</v>
       </c>
       <c r="G85" t="n">
-        <v>529310.5026303001</v>
+        <v>609567.3561651401</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C86" t="n">
-        <v>150.1</v>
+        <v>154.2</v>
       </c>
       <c r="D86" t="n">
-        <v>163.3</v>
+        <v>157</v>
       </c>
       <c r="E86" t="n">
-        <v>150.1</v>
+        <v>154.2</v>
       </c>
       <c r="F86" t="n">
-        <v>82137.76549999999</v>
+        <v>13435.4594</v>
       </c>
       <c r="G86" t="n">
-        <v>447172.7371303001</v>
+        <v>596131.89676514</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>162</v>
+        <v>154.2</v>
       </c>
       <c r="C87" t="n">
-        <v>159.9</v>
+        <v>154.2</v>
       </c>
       <c r="D87" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E87" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F87" t="n">
-        <v>13328.6697</v>
+        <v>15842.9046</v>
       </c>
       <c r="G87" t="n">
-        <v>460501.4068303002</v>
+        <v>596131.89676514</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>159.9</v>
+        <v>155.6</v>
       </c>
       <c r="C88" t="n">
-        <v>163</v>
+        <v>155.1</v>
       </c>
       <c r="D88" t="n">
-        <v>163</v>
+        <v>155.6</v>
       </c>
       <c r="E88" t="n">
-        <v>159.9</v>
+        <v>155.1</v>
       </c>
       <c r="F88" t="n">
-        <v>22444.5502</v>
+        <v>2028.643</v>
       </c>
       <c r="G88" t="n">
-        <v>482945.9570303002</v>
+        <v>598160.53976514</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3934,36 +4049,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>162.8</v>
+        <v>155.1</v>
       </c>
       <c r="C89" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D89" t="n">
-        <v>162.8</v>
+        <v>156</v>
       </c>
       <c r="E89" t="n">
-        <v>160</v>
+        <v>155.1</v>
       </c>
       <c r="F89" t="n">
-        <v>26708.7952</v>
+        <v>9725.616</v>
       </c>
       <c r="G89" t="n">
-        <v>456237.1618303002</v>
+        <v>607886.1557651401</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3973,36 +4085,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>160.2</v>
+        <v>156</v>
       </c>
       <c r="C90" t="n">
-        <v>161.5</v>
+        <v>156.6</v>
       </c>
       <c r="D90" t="n">
-        <v>162</v>
+        <v>156.8</v>
       </c>
       <c r="E90" t="n">
-        <v>159.2</v>
+        <v>154.2</v>
       </c>
       <c r="F90" t="n">
-        <v>29304.57683395</v>
+        <v>15107.1371</v>
       </c>
       <c r="G90" t="n">
-        <v>485541.7386642502</v>
+        <v>622993.2928651401</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4012,114 +4121,105 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>161.5</v>
+        <v>155.6</v>
       </c>
       <c r="C91" t="n">
-        <v>162.5</v>
+        <v>155.6</v>
       </c>
       <c r="D91" t="n">
-        <v>162.5</v>
+        <v>155.6</v>
       </c>
       <c r="E91" t="n">
-        <v>161.5</v>
+        <v>154.4</v>
       </c>
       <c r="F91" t="n">
-        <v>872.8684660500001</v>
+        <v>309.1785</v>
       </c>
       <c r="G91" t="n">
-        <v>486414.6071303002</v>
+        <v>622684.1143651401</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>162.5</v>
+        <v>155.4</v>
       </c>
       <c r="C92" t="n">
-        <v>162</v>
+        <v>154.4</v>
       </c>
       <c r="D92" t="n">
-        <v>163</v>
+        <v>155.4</v>
       </c>
       <c r="E92" t="n">
-        <v>161.5</v>
+        <v>154.4</v>
       </c>
       <c r="F92" t="n">
-        <v>12141.2206</v>
+        <v>5868.867</v>
       </c>
       <c r="G92" t="n">
-        <v>474273.3865303002</v>
+        <v>616815.2473651401</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>161.5</v>
+        <v>154.4</v>
       </c>
       <c r="C93" t="n">
-        <v>161.5</v>
+        <v>154</v>
       </c>
       <c r="D93" t="n">
-        <v>161.5</v>
+        <v>156.3</v>
       </c>
       <c r="E93" t="n">
-        <v>160.4</v>
+        <v>154</v>
       </c>
       <c r="F93" t="n">
-        <v>5678.15193395</v>
+        <v>25369.58</v>
       </c>
       <c r="G93" t="n">
-        <v>468595.2345963502</v>
+        <v>591445.6673651402</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4129,270 +4229,249 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>161.5</v>
+        <v>155</v>
       </c>
       <c r="C94" t="n">
-        <v>162</v>
+        <v>156.7</v>
       </c>
       <c r="D94" t="n">
-        <v>162</v>
+        <v>156.7</v>
       </c>
       <c r="E94" t="n">
-        <v>161.5</v>
+        <v>155</v>
       </c>
       <c r="F94" t="n">
-        <v>13221.64556605</v>
+        <v>950.602</v>
       </c>
       <c r="G94" t="n">
-        <v>481816.8801624002</v>
+        <v>592396.2693651401</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>161.9</v>
+        <v>156</v>
       </c>
       <c r="C95" t="n">
-        <v>162.9</v>
+        <v>156.7</v>
       </c>
       <c r="D95" t="n">
-        <v>162.9</v>
+        <v>156.7</v>
       </c>
       <c r="E95" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F95" t="n">
-        <v>12900.4625</v>
+        <v>2086.7716</v>
       </c>
       <c r="G95" t="n">
-        <v>494717.3426624002</v>
+        <v>592396.2693651401</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>160.4</v>
+        <v>156.7</v>
       </c>
       <c r="C96" t="n">
-        <v>162.6</v>
+        <v>156.7</v>
       </c>
       <c r="D96" t="n">
-        <v>162.6</v>
+        <v>156.7</v>
       </c>
       <c r="E96" t="n">
-        <v>160</v>
+        <v>156.6</v>
       </c>
       <c r="F96" t="n">
-        <v>10931.0224</v>
+        <v>4572.843</v>
       </c>
       <c r="G96" t="n">
-        <v>483786.3202624002</v>
+        <v>592396.2693651401</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>162.4</v>
+        <v>155.1</v>
       </c>
       <c r="C97" t="n">
-        <v>162.4</v>
+        <v>157.8</v>
       </c>
       <c r="D97" t="n">
-        <v>162.4</v>
+        <v>157.8</v>
       </c>
       <c r="E97" t="n">
-        <v>162.4</v>
+        <v>155.1</v>
       </c>
       <c r="F97" t="n">
-        <v>1608.0268</v>
+        <v>3497.9386</v>
       </c>
       <c r="G97" t="n">
-        <v>482178.2934624002</v>
+        <v>595894.2079651401</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>162.4</v>
+        <v>157.7</v>
       </c>
       <c r="C98" t="n">
-        <v>162.9</v>
+        <v>158</v>
       </c>
       <c r="D98" t="n">
-        <v>162.9</v>
+        <v>158</v>
       </c>
       <c r="E98" t="n">
-        <v>162.4</v>
+        <v>157.7</v>
       </c>
       <c r="F98" t="n">
-        <v>23933.19204615</v>
+        <v>4812.876</v>
       </c>
       <c r="G98" t="n">
-        <v>506111.4855085502</v>
+        <v>600707.0839651402</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>162.9</v>
+        <v>158.8</v>
       </c>
       <c r="C99" t="n">
-        <v>165</v>
+        <v>158.8</v>
       </c>
       <c r="D99" t="n">
-        <v>165</v>
+        <v>158.9</v>
       </c>
       <c r="E99" t="n">
-        <v>162.8</v>
+        <v>158.8</v>
       </c>
       <c r="F99" t="n">
-        <v>95564.14295384999</v>
+        <v>4813.4187</v>
       </c>
       <c r="G99" t="n">
-        <v>601675.6284624002</v>
+        <v>605520.5026651402</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>165</v>
+        <v>158.8</v>
       </c>
       <c r="C100" t="n">
-        <v>167.6</v>
+        <v>158.9</v>
       </c>
       <c r="D100" t="n">
-        <v>168</v>
+        <v>158.9</v>
       </c>
       <c r="E100" t="n">
-        <v>164.9</v>
+        <v>156</v>
       </c>
       <c r="F100" t="n">
-        <v>83328.61537236</v>
+        <v>5527.84086847</v>
       </c>
       <c r="G100" t="n">
-        <v>685004.2438347602</v>
+        <v>611048.3435336102</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4402,34 +4481,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>167.5</v>
+        <v>157.1</v>
       </c>
       <c r="C101" t="n">
-        <v>166.5</v>
+        <v>157.1</v>
       </c>
       <c r="D101" t="n">
-        <v>167.6</v>
+        <v>157.1</v>
       </c>
       <c r="E101" t="n">
-        <v>166</v>
+        <v>157.1</v>
       </c>
       <c r="F101" t="n">
-        <v>12584.3826</v>
+        <v>3386.492</v>
       </c>
       <c r="G101" t="n">
-        <v>672419.8612347601</v>
+        <v>607661.8515336103</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4443,34 +4521,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>166</v>
+        <v>156.3</v>
       </c>
       <c r="C102" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D102" t="n">
-        <v>166</v>
+        <v>156.3</v>
       </c>
       <c r="E102" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F102" t="n">
-        <v>14379.6877</v>
+        <v>4750.9207</v>
       </c>
       <c r="G102" t="n">
-        <v>658040.1735347601</v>
+        <v>602910.9308336102</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4478,34 +4557,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>164</v>
+        <v>155.2</v>
       </c>
       <c r="C103" t="n">
-        <v>160.2</v>
+        <v>156.6</v>
       </c>
       <c r="D103" t="n">
-        <v>164</v>
+        <v>156.6</v>
       </c>
       <c r="E103" t="n">
-        <v>160.2</v>
+        <v>155</v>
       </c>
       <c r="F103" t="n">
-        <v>12410.2733</v>
+        <v>4773.1758</v>
       </c>
       <c r="G103" t="n">
-        <v>645629.9002347601</v>
+        <v>607684.1066336102</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4513,34 +4593,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>160.1</v>
+        <v>156</v>
       </c>
       <c r="C104" t="n">
-        <v>160.2</v>
+        <v>156</v>
       </c>
       <c r="D104" t="n">
-        <v>161.3</v>
+        <v>156.5</v>
       </c>
       <c r="E104" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F104" t="n">
-        <v>37811.6394</v>
+        <v>1668.2291</v>
       </c>
       <c r="G104" t="n">
-        <v>645629.9002347601</v>
+        <v>606015.8775336102</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4548,28 +4629,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>160.2</v>
+        <v>156</v>
       </c>
       <c r="C105" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D105" t="n">
-        <v>161.3</v>
+        <v>156</v>
       </c>
       <c r="E105" t="n">
-        <v>160</v>
+        <v>154.1</v>
       </c>
       <c r="F105" t="n">
-        <v>25819.5341</v>
+        <v>3834.9836</v>
       </c>
       <c r="G105" t="n">
-        <v>671449.4343347602</v>
+        <v>602180.8939336102</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4583,34 +4665,35 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>161.3</v>
+        <v>156</v>
       </c>
       <c r="C106" t="n">
-        <v>161.3</v>
+        <v>155.1</v>
       </c>
       <c r="D106" t="n">
-        <v>161.3</v>
+        <v>156.9</v>
       </c>
       <c r="E106" t="n">
-        <v>161.3</v>
+        <v>155</v>
       </c>
       <c r="F106" t="n">
-        <v>701.9915</v>
+        <v>4147.9426</v>
       </c>
       <c r="G106" t="n">
-        <v>672151.4258347602</v>
+        <v>606328.8365336101</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4618,34 +4701,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>161.1</v>
+        <v>155</v>
       </c>
       <c r="C107" t="n">
-        <v>162.4</v>
+        <v>155.1</v>
       </c>
       <c r="D107" t="n">
-        <v>162.4</v>
+        <v>155.1</v>
       </c>
       <c r="E107" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F107" t="n">
-        <v>18094.5346</v>
+        <v>2239.4675</v>
       </c>
       <c r="G107" t="n">
-        <v>690245.9604347602</v>
+        <v>606328.8365336101</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4653,34 +4737,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>162.4</v>
+        <v>155.1</v>
       </c>
       <c r="C108" t="n">
-        <v>162.5</v>
+        <v>156.5</v>
       </c>
       <c r="D108" t="n">
-        <v>162.5</v>
+        <v>156.5</v>
       </c>
       <c r="E108" t="n">
-        <v>161.1</v>
+        <v>155.1</v>
       </c>
       <c r="F108" t="n">
-        <v>21606.1963</v>
+        <v>2125</v>
       </c>
       <c r="G108" t="n">
-        <v>711852.1567347602</v>
+        <v>608453.8365336101</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4688,34 +4773,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>162.5</v>
+        <v>156.5</v>
       </c>
       <c r="C109" t="n">
-        <v>162.5</v>
+        <v>155</v>
       </c>
       <c r="D109" t="n">
-        <v>162.5</v>
+        <v>156.5</v>
       </c>
       <c r="E109" t="n">
-        <v>162.5</v>
+        <v>155</v>
       </c>
       <c r="F109" t="n">
-        <v>848.9008</v>
+        <v>4870.4991</v>
       </c>
       <c r="G109" t="n">
-        <v>711852.1567347602</v>
+        <v>603583.3374336101</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4723,34 +4809,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>162.4</v>
+        <v>155</v>
       </c>
       <c r="C110" t="n">
-        <v>162.4</v>
+        <v>155</v>
       </c>
       <c r="D110" t="n">
-        <v>162.4</v>
+        <v>155</v>
       </c>
       <c r="E110" t="n">
-        <v>162.4</v>
+        <v>155</v>
       </c>
       <c r="F110" t="n">
-        <v>5890.2754</v>
+        <v>1269.4269</v>
       </c>
       <c r="G110" t="n">
-        <v>705961.8813347601</v>
+        <v>603583.3374336101</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4758,34 +4845,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C111" t="n">
-        <v>162</v>
+        <v>153.5</v>
       </c>
       <c r="D111" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E111" t="n">
-        <v>162</v>
+        <v>153.5</v>
       </c>
       <c r="F111" t="n">
-        <v>214.2783</v>
+        <v>7730.1161</v>
       </c>
       <c r="G111" t="n">
-        <v>705747.6030347601</v>
+        <v>595853.2213336101</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4793,28 +4881,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C112" t="n">
-        <v>161.8</v>
+        <v>154</v>
       </c>
       <c r="D112" t="n">
-        <v>161.8</v>
+        <v>156</v>
       </c>
       <c r="E112" t="n">
-        <v>160.1</v>
+        <v>154</v>
       </c>
       <c r="F112" t="n">
-        <v>11415.2325</v>
+        <v>4593.4382</v>
       </c>
       <c r="G112" t="n">
-        <v>694332.3705347601</v>
+        <v>600446.6595336101</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4828,34 +4917,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>160</v>
+        <v>153.7</v>
       </c>
       <c r="C113" t="n">
-        <v>160</v>
+        <v>153.7</v>
       </c>
       <c r="D113" t="n">
-        <v>160</v>
+        <v>153.7</v>
       </c>
       <c r="E113" t="n">
-        <v>160</v>
+        <v>153.7</v>
       </c>
       <c r="F113" t="n">
-        <v>26143.5871</v>
+        <v>3092.4035</v>
       </c>
       <c r="G113" t="n">
-        <v>668188.7834347601</v>
+        <v>597354.2560336101</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4863,28 +4953,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>159.4</v>
+        <v>155.5</v>
       </c>
       <c r="C114" t="n">
-        <v>159.8</v>
+        <v>153.4</v>
       </c>
       <c r="D114" t="n">
-        <v>159.9</v>
+        <v>155.5</v>
       </c>
       <c r="E114" t="n">
-        <v>156.8</v>
+        <v>153.4</v>
       </c>
       <c r="F114" t="n">
-        <v>40106.3274</v>
+        <v>11292.0152</v>
       </c>
       <c r="G114" t="n">
-        <v>628082.4560347601</v>
+        <v>586062.2408336101</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4898,28 +4989,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>159</v>
+        <v>153.9</v>
       </c>
       <c r="C115" t="n">
-        <v>159</v>
+        <v>153.4</v>
       </c>
       <c r="D115" t="n">
-        <v>159.9</v>
+        <v>155.4</v>
       </c>
       <c r="E115" t="n">
-        <v>158</v>
+        <v>153.4</v>
       </c>
       <c r="F115" t="n">
-        <v>23643.5916</v>
+        <v>5537.3201</v>
       </c>
       <c r="G115" t="n">
-        <v>604438.8644347601</v>
+        <v>586062.2408336101</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4933,28 +5025,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>159.8</v>
+        <v>153.6</v>
       </c>
       <c r="C116" t="n">
-        <v>159.9</v>
+        <v>153.6</v>
       </c>
       <c r="D116" t="n">
-        <v>159.9</v>
+        <v>153.6</v>
       </c>
       <c r="E116" t="n">
-        <v>159.8</v>
+        <v>153.6</v>
       </c>
       <c r="F116" t="n">
-        <v>3971.0503</v>
+        <v>264.2799</v>
       </c>
       <c r="G116" t="n">
-        <v>608409.9147347601</v>
+        <v>586326.52073361</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4968,28 +5061,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>159.1</v>
+        <v>153.6</v>
       </c>
       <c r="C117" t="n">
-        <v>158</v>
+        <v>153.6</v>
       </c>
       <c r="D117" t="n">
-        <v>159.1</v>
+        <v>153.6</v>
       </c>
       <c r="E117" t="n">
-        <v>158</v>
+        <v>153.6</v>
       </c>
       <c r="F117" t="n">
-        <v>2575.9086</v>
+        <v>1700.394</v>
       </c>
       <c r="G117" t="n">
-        <v>605834.0061347601</v>
+        <v>586326.52073361</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5003,28 +5097,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>158</v>
+        <v>153.6</v>
       </c>
       <c r="C118" t="n">
-        <v>158</v>
+        <v>153.6</v>
       </c>
       <c r="D118" t="n">
-        <v>158</v>
+        <v>153.6</v>
       </c>
       <c r="E118" t="n">
-        <v>158</v>
+        <v>153.6</v>
       </c>
       <c r="F118" t="n">
-        <v>9365.8537</v>
+        <v>888.322</v>
       </c>
       <c r="G118" t="n">
-        <v>605834.0061347601</v>
+        <v>586326.52073361</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5038,28 +5133,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>158</v>
+        <v>153.4</v>
       </c>
       <c r="C119" t="n">
-        <v>157</v>
+        <v>153.4</v>
       </c>
       <c r="D119" t="n">
-        <v>158</v>
+        <v>153.4</v>
       </c>
       <c r="E119" t="n">
-        <v>156.4</v>
+        <v>153.4</v>
       </c>
       <c r="F119" t="n">
-        <v>17939.56706962</v>
+        <v>1183.6383</v>
       </c>
       <c r="G119" t="n">
-        <v>587894.4390651401</v>
+        <v>585142.88243361</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5073,28 +5169,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>157</v>
+        <v>153.5</v>
       </c>
       <c r="C120" t="n">
-        <v>157</v>
+        <v>153.5</v>
       </c>
       <c r="D120" t="n">
-        <v>157.1</v>
+        <v>153.5</v>
       </c>
       <c r="E120" t="n">
-        <v>157</v>
+        <v>153.5</v>
       </c>
       <c r="F120" t="n">
-        <v>1385.2077</v>
+        <v>120.162</v>
       </c>
       <c r="G120" t="n">
-        <v>587894.4390651401</v>
+        <v>585263.04443361</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5108,28 +5205,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>157</v>
+        <v>153.4</v>
       </c>
       <c r="C121" t="n">
-        <v>159.4</v>
+        <v>152.5</v>
       </c>
       <c r="D121" t="n">
-        <v>159.6</v>
+        <v>153.4</v>
       </c>
       <c r="E121" t="n">
-        <v>157</v>
+        <v>152.5</v>
       </c>
       <c r="F121" t="n">
-        <v>9367.973900000001</v>
+        <v>14556.9328</v>
       </c>
       <c r="G121" t="n">
-        <v>597262.4129651401</v>
+        <v>570706.1116336101</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5143,28 +5241,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>159.4</v>
+        <v>152.2</v>
       </c>
       <c r="C122" t="n">
-        <v>159.7</v>
+        <v>153.4</v>
       </c>
       <c r="D122" t="n">
-        <v>159.7</v>
+        <v>153.4</v>
       </c>
       <c r="E122" t="n">
-        <v>159.1</v>
+        <v>150.9</v>
       </c>
       <c r="F122" t="n">
-        <v>3700.7819</v>
+        <v>14441.8835</v>
       </c>
       <c r="G122" t="n">
-        <v>600963.19486514</v>
+        <v>585147.9951336101</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5178,28 +5277,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>159.5</v>
+        <v>153.4</v>
       </c>
       <c r="C123" t="n">
-        <v>159.5</v>
+        <v>152.1</v>
       </c>
       <c r="D123" t="n">
-        <v>159.5</v>
+        <v>153.4</v>
       </c>
       <c r="E123" t="n">
-        <v>159.5</v>
+        <v>152.1</v>
       </c>
       <c r="F123" t="n">
-        <v>79.77379999999999</v>
+        <v>760.149</v>
       </c>
       <c r="G123" t="n">
-        <v>600883.42106514</v>
+        <v>584387.8461336101</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5213,28 +5313,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>159.5</v>
+        <v>152.1</v>
       </c>
       <c r="C124" t="n">
-        <v>159.5</v>
+        <v>152.1</v>
       </c>
       <c r="D124" t="n">
-        <v>159.5</v>
+        <v>152.1</v>
       </c>
       <c r="E124" t="n">
-        <v>159.5</v>
+        <v>152.1</v>
       </c>
       <c r="F124" t="n">
-        <v>5837.774</v>
+        <v>26.809</v>
       </c>
       <c r="G124" t="n">
-        <v>600883.42106514</v>
+        <v>584387.8461336101</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5248,28 +5349,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>159.5</v>
+        <v>152</v>
       </c>
       <c r="C125" t="n">
-        <v>158.3</v>
+        <v>152.9</v>
       </c>
       <c r="D125" t="n">
-        <v>159.5</v>
+        <v>152.9</v>
       </c>
       <c r="E125" t="n">
-        <v>158.3</v>
+        <v>152</v>
       </c>
       <c r="F125" t="n">
-        <v>2293.7694</v>
+        <v>230.89</v>
       </c>
       <c r="G125" t="n">
-        <v>598589.6516651401</v>
+        <v>584618.7361336101</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5283,1476 +5385,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="C126" t="n">
-        <v>156</v>
-      </c>
-      <c r="D126" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="E126" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>6903.4123</v>
-      </c>
-      <c r="G126" t="n">
-        <v>591686.2393651401</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>158</v>
-      </c>
-      <c r="C127" t="n">
-        <v>157</v>
-      </c>
-      <c r="D127" t="n">
-        <v>158</v>
-      </c>
-      <c r="E127" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="F127" t="n">
-        <v>17881.1168</v>
-      </c>
-      <c r="G127" t="n">
-        <v>609567.3561651401</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>157</v>
-      </c>
-      <c r="C128" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>157</v>
-      </c>
-      <c r="E128" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>13435.4594</v>
-      </c>
-      <c r="G128" t="n">
-        <v>596131.89676514</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="C129" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="D129" t="n">
-        <v>156</v>
-      </c>
-      <c r="E129" t="n">
-        <v>154</v>
-      </c>
-      <c r="F129" t="n">
-        <v>15842.9046</v>
-      </c>
-      <c r="G129" t="n">
-        <v>596131.89676514</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2028.643</v>
-      </c>
-      <c r="G130" t="n">
-        <v>598160.53976514</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>156</v>
-      </c>
-      <c r="D131" t="n">
-        <v>156</v>
-      </c>
-      <c r="E131" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>9725.616</v>
-      </c>
-      <c r="G131" t="n">
-        <v>607886.1557651401</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>156</v>
-      </c>
-      <c r="C132" t="n">
-        <v>156.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>15107.1371</v>
-      </c>
-      <c r="G132" t="n">
-        <v>622993.2928651401</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="F133" t="n">
-        <v>309.1785</v>
-      </c>
-      <c r="G133" t="n">
-        <v>622684.1143651401</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="C134" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="D134" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="E134" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>5868.867</v>
-      </c>
-      <c r="G134" t="n">
-        <v>616815.2473651401</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="C135" t="n">
-        <v>154</v>
-      </c>
-      <c r="D135" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="E135" t="n">
-        <v>154</v>
-      </c>
-      <c r="F135" t="n">
-        <v>25369.58</v>
-      </c>
-      <c r="G135" t="n">
-        <v>591445.6673651402</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>155</v>
-      </c>
-      <c r="C136" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>155</v>
-      </c>
-      <c r="F136" t="n">
-        <v>950.602</v>
-      </c>
-      <c r="G136" t="n">
-        <v>592396.2693651401</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>156</v>
-      </c>
-      <c r="C137" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>156</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2086.7716</v>
-      </c>
-      <c r="G137" t="n">
-        <v>592396.2693651401</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>156.6</v>
-      </c>
-      <c r="F138" t="n">
-        <v>4572.843</v>
-      </c>
-      <c r="G138" t="n">
-        <v>592396.2693651401</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>157.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>157.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3497.9386</v>
-      </c>
-      <c r="G139" t="n">
-        <v>595894.2079651401</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>157.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>158</v>
-      </c>
-      <c r="D140" t="n">
-        <v>158</v>
-      </c>
-      <c r="E140" t="n">
-        <v>157.7</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4812.876</v>
-      </c>
-      <c r="G140" t="n">
-        <v>600707.0839651402</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="E141" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4813.4187</v>
-      </c>
-      <c r="G141" t="n">
-        <v>605520.5026651402</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="D142" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="E142" t="n">
-        <v>156</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5527.84086847</v>
-      </c>
-      <c r="G142" t="n">
-        <v>611048.3435336102</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="E143" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3386.492</v>
-      </c>
-      <c r="G143" t="n">
-        <v>607661.8515336103</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="C144" t="n">
-        <v>156</v>
-      </c>
-      <c r="D144" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="E144" t="n">
-        <v>156</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4750.9207</v>
-      </c>
-      <c r="G144" t="n">
-        <v>602910.9308336102</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>156.6</v>
-      </c>
-      <c r="D145" t="n">
-        <v>156.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>155</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4773.1758</v>
-      </c>
-      <c r="G145" t="n">
-        <v>607684.1066336102</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>156</v>
-      </c>
-      <c r="C146" t="n">
-        <v>156</v>
-      </c>
-      <c r="D146" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>156</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1668.2291</v>
-      </c>
-      <c r="G146" t="n">
-        <v>606015.8775336102</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>156</v>
-      </c>
-      <c r="C147" t="n">
-        <v>155</v>
-      </c>
-      <c r="D147" t="n">
-        <v>156</v>
-      </c>
-      <c r="E147" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="F147" t="n">
-        <v>3834.9836</v>
-      </c>
-      <c r="G147" t="n">
-        <v>602180.8939336102</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>156</v>
-      </c>
-      <c r="C148" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="E148" t="n">
-        <v>155</v>
-      </c>
-      <c r="F148" t="n">
-        <v>4147.9426</v>
-      </c>
-      <c r="G148" t="n">
-        <v>606328.8365336101</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>155</v>
-      </c>
-      <c r="C149" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="E149" t="n">
-        <v>155</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2239.4675</v>
-      </c>
-      <c r="G149" t="n">
-        <v>606328.8365336101</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>155.1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2125</v>
-      </c>
-      <c r="G150" t="n">
-        <v>608453.8365336101</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>155</v>
-      </c>
-      <c r="D151" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>155</v>
-      </c>
-      <c r="F151" t="n">
-        <v>4870.4991</v>
-      </c>
-      <c r="G151" t="n">
-        <v>603583.3374336101</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>155</v>
-      </c>
-      <c r="C152" t="n">
-        <v>155</v>
-      </c>
-      <c r="D152" t="n">
-        <v>155</v>
-      </c>
-      <c r="E152" t="n">
-        <v>155</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1269.4269</v>
-      </c>
-      <c r="G152" t="n">
-        <v>603583.3374336101</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>156</v>
-      </c>
-      <c r="C153" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>156</v>
-      </c>
-      <c r="E153" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>7730.1161</v>
-      </c>
-      <c r="G153" t="n">
-        <v>595853.2213336101</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>156</v>
-      </c>
-      <c r="C154" t="n">
-        <v>154</v>
-      </c>
-      <c r="D154" t="n">
-        <v>156</v>
-      </c>
-      <c r="E154" t="n">
-        <v>154</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4593.4382</v>
-      </c>
-      <c r="G154" t="n">
-        <v>600446.6595336101</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="C155" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="D155" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="E155" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3092.4035</v>
-      </c>
-      <c r="G155" t="n">
-        <v>597354.2560336101</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="C156" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="D156" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>11292.0152</v>
-      </c>
-      <c r="G156" t="n">
-        <v>586062.2408336101</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="C157" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="D157" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="E157" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="F157" t="n">
-        <v>5537.3201</v>
-      </c>
-      <c r="G157" t="n">
-        <v>586062.2408336101</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="C158" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="D158" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="E158" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="F158" t="n">
-        <v>264.2799</v>
-      </c>
-      <c r="G158" t="n">
-        <v>586326.52073361</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1700.394</v>
-      </c>
-      <c r="G159" t="n">
-        <v>586326.52073361</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="C160" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="D160" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="E160" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="F160" t="n">
-        <v>888.322</v>
-      </c>
-      <c r="G160" t="n">
-        <v>586326.52073361</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="C161" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="D161" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1183.6383</v>
-      </c>
-      <c r="G161" t="n">
-        <v>585142.88243361</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>120.162</v>
-      </c>
-      <c r="G162" t="n">
-        <v>585263.04443361</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="E163" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>14556.9328</v>
-      </c>
-      <c r="G163" t="n">
-        <v>570706.1116336101</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="C164" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="E164" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="F164" t="n">
-        <v>14441.8835</v>
-      </c>
-      <c r="G164" t="n">
-        <v>585147.9951336101</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="C165" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="E165" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>760.149</v>
-      </c>
-      <c r="G165" t="n">
-        <v>584387.8461336101</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="D166" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="E166" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="F166" t="n">
-        <v>26.809</v>
-      </c>
-      <c r="G166" t="n">
-        <v>584387.8461336101</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>152</v>
-      </c>
-      <c r="C167" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="E167" t="n">
-        <v>152</v>
-      </c>
-      <c r="F167" t="n">
-        <v>230.89</v>
-      </c>
-      <c r="G167" t="n">
-        <v>584618.7361336101</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
+      <c r="N125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>145.9</v>
+        <v>141.3</v>
       </c>
       <c r="C2" t="n">
-        <v>145.9</v>
+        <v>141.9</v>
       </c>
       <c r="D2" t="n">
-        <v>145.9</v>
+        <v>141.9</v>
       </c>
       <c r="E2" t="n">
-        <v>145.9</v>
+        <v>141.3</v>
       </c>
       <c r="F2" t="n">
-        <v>957.3547</v>
+        <v>125</v>
       </c>
       <c r="G2" t="n">
-        <v>71186.70921064005</v>
+        <v>39249.69390000001</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>145.9</v>
+        <v>141.9</v>
       </c>
       <c r="C3" t="n">
-        <v>145.9</v>
+        <v>142.9</v>
       </c>
       <c r="D3" t="n">
-        <v>145.9</v>
+        <v>142.9</v>
       </c>
       <c r="E3" t="n">
-        <v>145.9</v>
+        <v>141.9</v>
       </c>
       <c r="F3" t="n">
-        <v>637</v>
+        <v>506.383</v>
       </c>
       <c r="G3" t="n">
-        <v>71186.70921064005</v>
+        <v>39756.07690000001</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,12 +498,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>141.9</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -514,38 +516,36 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>145.7</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>140</v>
+      </c>
+      <c r="E4" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2822.862</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36933.21490000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>142.9</v>
       </c>
-      <c r="D4" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6544.751</v>
-      </c>
-      <c r="G4" t="n">
-        <v>64641.95821064005</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E5" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F5" t="n">
-        <v>454.3695</v>
+        <v>282.753</v>
       </c>
       <c r="G5" t="n">
-        <v>65096.32771064005</v>
+        <v>37215.9679</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,11 +582,9 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>145.9</v>
-      </c>
+        <v>139.9</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -602,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>144</v>
+        <v>139.9</v>
       </c>
       <c r="C6" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D6" t="n">
-        <v>144</v>
+        <v>139.9</v>
       </c>
       <c r="E6" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F6" t="n">
-        <v>454.3696</v>
+        <v>271.1924</v>
       </c>
       <c r="G6" t="n">
-        <v>65096.32771064005</v>
+        <v>36944.7755</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,11 +624,9 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>144</v>
-      </c>
-      <c r="K6" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -646,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E7" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F7" t="n">
-        <v>619.528</v>
+        <v>286.5411</v>
       </c>
       <c r="G7" t="n">
-        <v>65096.32771064005</v>
+        <v>37231.31660000001</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -670,11 +666,9 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>144</v>
-      </c>
-      <c r="K7" t="n">
-        <v>145.9</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -690,22 +684,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="C8" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="D8" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="E8" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="F8" t="n">
-        <v>302.913</v>
+        <v>315.05</v>
       </c>
       <c r="G8" t="n">
-        <v>64793.41471064005</v>
+        <v>37546.36660000001</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -714,11 +708,9 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>144</v>
-      </c>
-      <c r="K8" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -734,22 +726,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143.8</v>
+        <v>140.1</v>
       </c>
       <c r="C9" t="n">
-        <v>143.8</v>
+        <v>140</v>
       </c>
       <c r="D9" t="n">
-        <v>143.8</v>
+        <v>140.1</v>
       </c>
       <c r="E9" t="n">
-        <v>143.8</v>
+        <v>140</v>
       </c>
       <c r="F9" t="n">
-        <v>717</v>
+        <v>524.5814</v>
       </c>
       <c r="G9" t="n">
-        <v>64076.41471064005</v>
+        <v>37021.78520000001</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -758,11 +750,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>145.9</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -778,22 +768,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>144.8</v>
+        <v>139.8</v>
       </c>
       <c r="C10" t="n">
-        <v>144.8</v>
+        <v>139.8</v>
       </c>
       <c r="D10" t="n">
-        <v>144.8</v>
+        <v>139.8</v>
       </c>
       <c r="E10" t="n">
-        <v>144.8</v>
+        <v>139.8</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>1234</v>
       </c>
       <c r="G10" t="n">
-        <v>64126.41471064005</v>
+        <v>35787.78520000001</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -802,11 +792,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -822,22 +810,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>143.9</v>
+        <v>139.8</v>
       </c>
       <c r="C11" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="D11" t="n">
-        <v>143.9</v>
+        <v>141</v>
       </c>
       <c r="E11" t="n">
-        <v>143.9</v>
+        <v>139.8</v>
       </c>
       <c r="F11" t="n">
-        <v>12.5</v>
+        <v>18047.7662</v>
       </c>
       <c r="G11" t="n">
-        <v>64113.91471064005</v>
+        <v>53835.5514</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -846,11 +834,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>145.9</v>
-      </c>
+        <v>139.8</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -866,22 +852,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144.8</v>
+        <v>139.4</v>
       </c>
       <c r="C12" t="n">
-        <v>144.8</v>
+        <v>139.4</v>
       </c>
       <c r="D12" t="n">
-        <v>144.8</v>
+        <v>139.4</v>
       </c>
       <c r="E12" t="n">
-        <v>144.8</v>
+        <v>139.4</v>
       </c>
       <c r="F12" t="n">
-        <v>325.668</v>
+        <v>394.827</v>
       </c>
       <c r="G12" t="n">
-        <v>64439.58271064005</v>
+        <v>53440.72440000001</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -890,11 +876,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>145.9</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -910,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144.8</v>
+        <v>140</v>
       </c>
       <c r="C13" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D13" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E13" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F13" t="n">
-        <v>2696.6748</v>
+        <v>1329.992</v>
       </c>
       <c r="G13" t="n">
-        <v>67136.25751064005</v>
+        <v>54770.7164</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -934,11 +918,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>145.9</v>
-      </c>
+        <v>139.4</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -954,22 +936,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145.5</v>
+        <v>140</v>
       </c>
       <c r="C14" t="n">
-        <v>145.5</v>
+        <v>140</v>
       </c>
       <c r="D14" t="n">
-        <v>145.5</v>
+        <v>140</v>
       </c>
       <c r="E14" t="n">
-        <v>145.5</v>
+        <v>140</v>
       </c>
       <c r="F14" t="n">
-        <v>85.73883161000001</v>
+        <v>1645.008</v>
       </c>
       <c r="G14" t="n">
-        <v>67221.99634225004</v>
+        <v>54770.7164</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -978,11 +960,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>145</v>
-      </c>
-      <c r="K14" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -998,22 +978,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C15" t="n">
-        <v>146.6</v>
+        <v>141</v>
       </c>
       <c r="D15" t="n">
-        <v>146.6</v>
+        <v>141</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5</v>
+        <v>141</v>
       </c>
       <c r="F15" t="n">
-        <v>4409.093</v>
+        <v>2700</v>
       </c>
       <c r="G15" t="n">
-        <v>71631.08934225004</v>
+        <v>57470.7164</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1022,11 +1002,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1042,22 +1020,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146.6</v>
+        <v>141.4</v>
       </c>
       <c r="C16" t="n">
-        <v>147.1</v>
+        <v>139.2</v>
       </c>
       <c r="D16" t="n">
-        <v>147.1</v>
+        <v>141.4</v>
       </c>
       <c r="E16" t="n">
-        <v>146.6</v>
+        <v>139.2</v>
       </c>
       <c r="F16" t="n">
-        <v>3102.425</v>
+        <v>14835.5185</v>
       </c>
       <c r="G16" t="n">
-        <v>74733.51434225004</v>
+        <v>42635.19790000001</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1066,11 +1044,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>145.9</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1086,22 +1062,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>147.1</v>
+        <v>141</v>
       </c>
       <c r="C17" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D17" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="E17" t="n">
-        <v>145.1</v>
+        <v>139.2</v>
       </c>
       <c r="F17" t="n">
-        <v>7170.8693</v>
+        <v>735</v>
       </c>
       <c r="G17" t="n">
-        <v>81904.38364225005</v>
+        <v>43370.19790000001</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1110,11 +1086,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>145.9</v>
-      </c>
+        <v>139.2</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1130,22 +1104,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C18" t="n">
-        <v>148</v>
+        <v>139.2</v>
       </c>
       <c r="D18" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="E18" t="n">
-        <v>148</v>
+        <v>139.2</v>
       </c>
       <c r="F18" t="n">
-        <v>2380.423</v>
+        <v>500</v>
       </c>
       <c r="G18" t="n">
-        <v>81904.38364225005</v>
+        <v>42870.19790000001</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1154,11 +1128,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>148</v>
-      </c>
-      <c r="K18" t="n">
-        <v>145.9</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1174,22 +1146,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>147.1</v>
+        <v>141.4</v>
       </c>
       <c r="C19" t="n">
-        <v>148</v>
+        <v>142.9</v>
       </c>
       <c r="D19" t="n">
-        <v>148.7</v>
+        <v>142.9</v>
       </c>
       <c r="E19" t="n">
-        <v>147</v>
+        <v>141.4</v>
       </c>
       <c r="F19" t="n">
-        <v>7870.5291</v>
+        <v>6003.62358824</v>
       </c>
       <c r="G19" t="n">
-        <v>81904.38364225005</v>
+        <v>48873.82148824001</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1198,11 +1170,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>148</v>
-      </c>
-      <c r="K19" t="n">
-        <v>145.9</v>
-      </c>
+        <v>139.2</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1218,22 +1188,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>148.1</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D20" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="E20" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F20" t="n">
-        <v>7262.318</v>
+        <v>311.3594</v>
       </c>
       <c r="G20" t="n">
-        <v>74642.06564225005</v>
+        <v>48562.46208824</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1242,11 +1212,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>148</v>
-      </c>
-      <c r="K20" t="n">
-        <v>145.9</v>
-      </c>
+        <v>142.9</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1262,35 +1230,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C21" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="D21" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="E21" t="n">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F21" t="n">
-        <v>5206.302</v>
+        <v>78.88</v>
       </c>
       <c r="G21" t="n">
-        <v>79848.36764225004</v>
+        <v>48562.46208824</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>147</v>
-      </c>
-      <c r="K21" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1306,22 +1270,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="C22" t="n">
-        <v>148.7</v>
+        <v>140.1</v>
       </c>
       <c r="D22" t="n">
-        <v>148.8</v>
+        <v>141</v>
       </c>
       <c r="E22" t="n">
-        <v>148.5</v>
+        <v>140.1</v>
       </c>
       <c r="F22" t="n">
-        <v>21958.8208</v>
+        <v>283.87</v>
       </c>
       <c r="G22" t="n">
-        <v>79848.36764225004</v>
+        <v>48278.59208824</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1330,11 +1294,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>145.9</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1350,22 +1312,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="D23" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="E23" t="n">
-        <v>148.7</v>
+        <v>141</v>
       </c>
       <c r="F23" t="n">
-        <v>6740</v>
+        <v>968.3121</v>
       </c>
       <c r="G23" t="n">
-        <v>79848.36764225004</v>
+        <v>49246.90418824001</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1374,11 +1336,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140.1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1394,22 +1354,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>148.7</v>
+        <v>140</v>
       </c>
       <c r="C24" t="n">
-        <v>148.7</v>
+        <v>140</v>
       </c>
       <c r="D24" t="n">
-        <v>148.7</v>
+        <v>140</v>
       </c>
       <c r="E24" t="n">
-        <v>148.7</v>
+        <v>140</v>
       </c>
       <c r="F24" t="n">
-        <v>3371</v>
+        <v>40.8952</v>
       </c>
       <c r="G24" t="n">
-        <v>79848.36764225004</v>
+        <v>49206.00898824001</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1418,11 +1378,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>145.9</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1438,22 +1396,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>148.7</v>
+        <v>140</v>
       </c>
       <c r="C25" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D25" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E25" t="n">
-        <v>148.7</v>
+        <v>140</v>
       </c>
       <c r="F25" t="n">
-        <v>13979.4299</v>
+        <v>1518</v>
       </c>
       <c r="G25" t="n">
-        <v>93827.79754225005</v>
+        <v>49206.00898824001</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1462,11 +1420,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1482,22 +1438,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>149.3</v>
+        <v>140</v>
       </c>
       <c r="C26" t="n">
-        <v>150.7</v>
+        <v>140</v>
       </c>
       <c r="D26" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E26" t="n">
-        <v>149.3</v>
+        <v>140</v>
       </c>
       <c r="F26" t="n">
-        <v>43091.09051891</v>
+        <v>2538.624</v>
       </c>
       <c r="G26" t="n">
-        <v>136918.88806116</v>
+        <v>49206.00898824001</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1506,11 +1462,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>149</v>
-      </c>
-      <c r="K26" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1526,22 +1480,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>150.7</v>
+        <v>140</v>
       </c>
       <c r="C27" t="n">
-        <v>150.7</v>
+        <v>140</v>
       </c>
       <c r="D27" t="n">
-        <v>150.7</v>
+        <v>140</v>
       </c>
       <c r="E27" t="n">
-        <v>149.8</v>
+        <v>140</v>
       </c>
       <c r="F27" t="n">
-        <v>10635.5283</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>136918.88806116</v>
+        <v>49206.00898824001</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1550,11 +1504,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>150.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1570,22 +1522,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>150.7</v>
+        <v>139.6</v>
       </c>
       <c r="C28" t="n">
-        <v>151.1</v>
+        <v>139.6</v>
       </c>
       <c r="D28" t="n">
-        <v>151.1</v>
+        <v>139.6</v>
       </c>
       <c r="E28" t="n">
-        <v>150.7</v>
+        <v>139.6</v>
       </c>
       <c r="F28" t="n">
-        <v>2386.2496</v>
+        <v>542</v>
       </c>
       <c r="G28" t="n">
-        <v>139305.1376611601</v>
+        <v>48664.00898824001</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1594,11 +1546,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>150.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>145.9</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1614,22 +1564,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>151.1</v>
+        <v>139.6</v>
       </c>
       <c r="C29" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D29" t="n">
-        <v>152.9</v>
+        <v>139.6</v>
       </c>
       <c r="E29" t="n">
-        <v>151.1</v>
+        <v>139</v>
       </c>
       <c r="F29" t="n">
-        <v>1488.137</v>
+        <v>1887</v>
       </c>
       <c r="G29" t="n">
-        <v>140793.27466116</v>
+        <v>46777.00898824001</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1638,11 +1588,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>145.9</v>
-      </c>
+        <v>139.6</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1658,33 +1606,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>152</v>
+        <v>140.9</v>
       </c>
       <c r="C30" t="n">
-        <v>153</v>
+        <v>140.9</v>
       </c>
       <c r="D30" t="n">
-        <v>153</v>
+        <v>140.9</v>
       </c>
       <c r="E30" t="n">
-        <v>151.3</v>
+        <v>140.9</v>
       </c>
       <c r="F30" t="n">
-        <v>16315.22018109</v>
+        <v>17.97</v>
       </c>
       <c r="G30" t="n">
-        <v>157108.49484225</v>
+        <v>46794.97898824001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J30" t="n">
+        <v>139</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1700,33 +1648,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>152</v>
+        <v>140.9</v>
       </c>
       <c r="C31" t="n">
-        <v>152.9</v>
+        <v>140.9</v>
       </c>
       <c r="D31" t="n">
-        <v>153</v>
+        <v>140.9</v>
       </c>
       <c r="E31" t="n">
-        <v>152</v>
+        <v>140.9</v>
       </c>
       <c r="F31" t="n">
-        <v>4042.998</v>
+        <v>0.83</v>
       </c>
       <c r="G31" t="n">
-        <v>153065.4968422501</v>
+        <v>46794.97898824001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J31" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1742,33 +1690,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>152.9</v>
+        <v>139</v>
       </c>
       <c r="C32" t="n">
-        <v>153</v>
+        <v>138.9</v>
       </c>
       <c r="D32" t="n">
-        <v>153.7</v>
+        <v>139</v>
       </c>
       <c r="E32" t="n">
-        <v>152.9</v>
+        <v>138.9</v>
       </c>
       <c r="F32" t="n">
-        <v>20399.5393</v>
+        <v>239.7838</v>
       </c>
       <c r="G32" t="n">
-        <v>173465.0361422501</v>
+        <v>46555.19518824001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J32" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1784,33 +1732,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C33" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D33" t="n">
-        <v>154.9</v>
+        <v>140</v>
       </c>
       <c r="E33" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F33" t="n">
-        <v>21038.9127</v>
+        <v>3.6</v>
       </c>
       <c r="G33" t="n">
-        <v>194503.94884225</v>
+        <v>46558.79518824001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J33" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1826,33 +1774,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C34" t="n">
-        <v>157.2</v>
+        <v>141</v>
       </c>
       <c r="D34" t="n">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E34" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F34" t="n">
-        <v>128251.96046107</v>
+        <v>1052</v>
       </c>
       <c r="G34" t="n">
-        <v>322755.90930332</v>
+        <v>47610.79518824001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J34" t="n">
+        <v>140</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1868,33 +1816,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>159.6</v>
+        <v>141</v>
       </c>
       <c r="C35" t="n">
-        <v>158.9</v>
+        <v>141</v>
       </c>
       <c r="D35" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E35" t="n">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F35" t="n">
-        <v>54086.56392075</v>
+        <v>5997.7756</v>
       </c>
       <c r="G35" t="n">
-        <v>376842.47322407</v>
+        <v>47610.79518824001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J35" t="n">
+        <v>141</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1910,33 +1858,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>157.7</v>
+        <v>141</v>
       </c>
       <c r="C36" t="n">
-        <v>157.1</v>
+        <v>141.7</v>
       </c>
       <c r="D36" t="n">
-        <v>159.8</v>
+        <v>141.7</v>
       </c>
       <c r="E36" t="n">
-        <v>157.1</v>
+        <v>141</v>
       </c>
       <c r="F36" t="n">
-        <v>14791.8087</v>
+        <v>1845.5565</v>
       </c>
       <c r="G36" t="n">
-        <v>362050.66452407</v>
+        <v>49456.35168824001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J36" t="n">
+        <v>141</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1952,33 +1900,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>157.1</v>
+        <v>141.7</v>
       </c>
       <c r="C37" t="n">
-        <v>158.8</v>
+        <v>141</v>
       </c>
       <c r="D37" t="n">
-        <v>159.8</v>
+        <v>141.7</v>
       </c>
       <c r="E37" t="n">
-        <v>156.1</v>
+        <v>141</v>
       </c>
       <c r="F37" t="n">
-        <v>38024.35444949</v>
+        <v>1239.6245</v>
       </c>
       <c r="G37" t="n">
-        <v>400075.0189735601</v>
+        <v>48216.72718824001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J37" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1994,33 +1942,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>158.8</v>
+        <v>142</v>
       </c>
       <c r="C38" t="n">
-        <v>158.8</v>
+        <v>142</v>
       </c>
       <c r="D38" t="n">
-        <v>159.8</v>
+        <v>142</v>
       </c>
       <c r="E38" t="n">
-        <v>157.2</v>
+        <v>142</v>
       </c>
       <c r="F38" t="n">
-        <v>70481.5931</v>
+        <v>741</v>
       </c>
       <c r="G38" t="n">
-        <v>400075.0189735601</v>
+        <v>48957.72718824001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J38" t="n">
+        <v>141</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2036,33 +1984,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>158.8</v>
+        <v>141</v>
       </c>
       <c r="C39" t="n">
-        <v>158.8</v>
+        <v>141</v>
       </c>
       <c r="D39" t="n">
-        <v>158.8</v>
+        <v>141</v>
       </c>
       <c r="E39" t="n">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F39" t="n">
-        <v>13703.2664</v>
+        <v>3990</v>
       </c>
       <c r="G39" t="n">
-        <v>400075.0189735601</v>
+        <v>44967.72718824001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J39" t="n">
+        <v>142</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,33 +2026,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>158.5</v>
+        <v>141</v>
       </c>
       <c r="C40" t="n">
-        <v>158.8</v>
+        <v>141</v>
       </c>
       <c r="D40" t="n">
-        <v>158.8</v>
+        <v>141</v>
       </c>
       <c r="E40" t="n">
-        <v>158.5</v>
+        <v>141</v>
       </c>
       <c r="F40" t="n">
-        <v>12644.0951</v>
+        <v>167.3268</v>
       </c>
       <c r="G40" t="n">
-        <v>400075.0189735601</v>
+        <v>44967.72718824001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J40" t="n">
+        <v>141</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2120,33 +2068,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>158.8</v>
+        <v>142</v>
       </c>
       <c r="C41" t="n">
-        <v>159</v>
+        <v>142.4</v>
       </c>
       <c r="D41" t="n">
-        <v>160</v>
+        <v>142.4</v>
       </c>
       <c r="E41" t="n">
-        <v>158.8</v>
+        <v>142</v>
       </c>
       <c r="F41" t="n">
-        <v>49294.26145051</v>
+        <v>2829</v>
       </c>
       <c r="G41" t="n">
-        <v>449369.2804240701</v>
+        <v>47796.72718824001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J41" t="n">
+        <v>141</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2162,33 +2110,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>160</v>
+        <v>142.4</v>
       </c>
       <c r="C42" t="n">
-        <v>160.9</v>
+        <v>142.4</v>
       </c>
       <c r="D42" t="n">
-        <v>160.9</v>
+        <v>142.4</v>
       </c>
       <c r="E42" t="n">
-        <v>160</v>
+        <v>142.4</v>
       </c>
       <c r="F42" t="n">
-        <v>36645.5027</v>
+        <v>473.11</v>
       </c>
       <c r="G42" t="n">
-        <v>486014.7831240701</v>
+        <v>47796.72718824001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J42" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2204,22 +2152,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>161</v>
+        <v>142.2</v>
       </c>
       <c r="C43" t="n">
-        <v>161</v>
+        <v>142.2</v>
       </c>
       <c r="D43" t="n">
-        <v>162.1</v>
+        <v>142.2</v>
       </c>
       <c r="E43" t="n">
-        <v>160.9</v>
+        <v>142.2</v>
       </c>
       <c r="F43" t="n">
-        <v>43295.71950623</v>
+        <v>79</v>
       </c>
       <c r="G43" t="n">
-        <v>529310.5026303001</v>
+        <v>47717.72718824001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2228,9 +2176,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,33 +2192,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C44" t="n">
-        <v>150.1</v>
+        <v>142</v>
       </c>
       <c r="D44" t="n">
-        <v>163.3</v>
+        <v>142</v>
       </c>
       <c r="E44" t="n">
-        <v>150.1</v>
+        <v>142</v>
       </c>
       <c r="F44" t="n">
-        <v>82137.76549999999</v>
+        <v>1045.97</v>
       </c>
       <c r="G44" t="n">
-        <v>447172.7371303001</v>
+        <v>46671.75718824001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J44" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,22 +2234,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C45" t="n">
-        <v>159.9</v>
+        <v>142</v>
       </c>
       <c r="D45" t="n">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E45" t="n">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F45" t="n">
-        <v>13328.6697</v>
+        <v>238.999</v>
       </c>
       <c r="G45" t="n">
-        <v>460501.4068303002</v>
+        <v>46671.75718824001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2312,9 +2258,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2330,22 +2274,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>159.9</v>
+        <v>141</v>
       </c>
       <c r="C46" t="n">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D46" t="n">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E46" t="n">
-        <v>159.9</v>
+        <v>141</v>
       </c>
       <c r="F46" t="n">
-        <v>22444.5502</v>
+        <v>3300</v>
       </c>
       <c r="G46" t="n">
-        <v>482945.9570303002</v>
+        <v>43371.75718824001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2354,9 +2298,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2372,22 +2314,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>162.8</v>
+        <v>142</v>
       </c>
       <c r="C47" t="n">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D47" t="n">
-        <v>162.8</v>
+        <v>142</v>
       </c>
       <c r="E47" t="n">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F47" t="n">
-        <v>26708.7952</v>
+        <v>378</v>
       </c>
       <c r="G47" t="n">
-        <v>456237.1618303002</v>
+        <v>43749.75718824001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2396,9 +2338,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,22 +2354,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>160.2</v>
+        <v>141</v>
       </c>
       <c r="C48" t="n">
-        <v>161.5</v>
+        <v>141</v>
       </c>
       <c r="D48" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E48" t="n">
-        <v>159.2</v>
+        <v>141</v>
       </c>
       <c r="F48" t="n">
-        <v>29304.57683395</v>
+        <v>264.1427</v>
       </c>
       <c r="G48" t="n">
-        <v>485541.7386642502</v>
+        <v>43485.61448824001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2438,9 +2378,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2456,22 +2394,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>161.5</v>
+        <v>141.9</v>
       </c>
       <c r="C49" t="n">
-        <v>162.5</v>
+        <v>140.3</v>
       </c>
       <c r="D49" t="n">
-        <v>162.5</v>
+        <v>141.9</v>
       </c>
       <c r="E49" t="n">
-        <v>161.5</v>
+        <v>140.3</v>
       </c>
       <c r="F49" t="n">
-        <v>872.8684660500001</v>
+        <v>556</v>
       </c>
       <c r="G49" t="n">
-        <v>486414.6071303002</v>
+        <v>42929.61448824001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2480,9 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,33 +2434,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>162.5</v>
+        <v>141</v>
       </c>
       <c r="C50" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D50" t="n">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E50" t="n">
-        <v>161.5</v>
+        <v>141</v>
       </c>
       <c r="F50" t="n">
-        <v>12141.2206</v>
+        <v>2074.5409</v>
       </c>
       <c r="G50" t="n">
-        <v>474273.3865303002</v>
+        <v>45004.15538824001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J50" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2540,33 +2476,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>161.5</v>
+        <v>141</v>
       </c>
       <c r="C51" t="n">
-        <v>161.5</v>
+        <v>141</v>
       </c>
       <c r="D51" t="n">
-        <v>161.5</v>
+        <v>141</v>
       </c>
       <c r="E51" t="n">
-        <v>160.4</v>
+        <v>141</v>
       </c>
       <c r="F51" t="n">
-        <v>5678.15193395</v>
+        <v>544</v>
       </c>
       <c r="G51" t="n">
-        <v>468595.2345963502</v>
+        <v>45004.15538824001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J51" t="n">
+        <v>141</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,33 +2518,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>161.5</v>
+        <v>140.2</v>
       </c>
       <c r="C52" t="n">
-        <v>162</v>
+        <v>140.2</v>
       </c>
       <c r="D52" t="n">
-        <v>162</v>
+        <v>140.2</v>
       </c>
       <c r="E52" t="n">
-        <v>161.5</v>
+        <v>140.2</v>
       </c>
       <c r="F52" t="n">
-        <v>13221.64556605</v>
+        <v>511.2101</v>
       </c>
       <c r="G52" t="n">
-        <v>481816.8801624002</v>
+        <v>44492.94528824001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J52" t="n">
+        <v>141</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2624,33 +2560,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>161.9</v>
+        <v>140.2</v>
       </c>
       <c r="C53" t="n">
-        <v>162.9</v>
+        <v>140.2</v>
       </c>
       <c r="D53" t="n">
-        <v>162.9</v>
+        <v>140.2</v>
       </c>
       <c r="E53" t="n">
-        <v>160</v>
+        <v>140.2</v>
       </c>
       <c r="F53" t="n">
-        <v>12900.4625</v>
+        <v>319.2077</v>
       </c>
       <c r="G53" t="n">
-        <v>494717.3426624002</v>
+        <v>44492.94528824001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J53" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2666,33 +2602,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>160.4</v>
+        <v>140.2</v>
       </c>
       <c r="C54" t="n">
-        <v>162.6</v>
+        <v>140.2</v>
       </c>
       <c r="D54" t="n">
-        <v>162.6</v>
+        <v>140.2</v>
       </c>
       <c r="E54" t="n">
-        <v>160</v>
+        <v>140.2</v>
       </c>
       <c r="F54" t="n">
-        <v>10931.0224</v>
+        <v>625</v>
       </c>
       <c r="G54" t="n">
-        <v>483786.3202624002</v>
+        <v>44492.94528824001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J54" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2708,33 +2644,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>162.4</v>
+        <v>142.3</v>
       </c>
       <c r="C55" t="n">
-        <v>162.4</v>
+        <v>142.5</v>
       </c>
       <c r="D55" t="n">
-        <v>162.4</v>
+        <v>142.5</v>
       </c>
       <c r="E55" t="n">
-        <v>162.4</v>
+        <v>142.3</v>
       </c>
       <c r="F55" t="n">
-        <v>1608.0268</v>
+        <v>463.999</v>
       </c>
       <c r="G55" t="n">
-        <v>482178.2934624002</v>
+        <v>44956.94428824002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J55" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,33 +2686,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>162.4</v>
+        <v>142.8</v>
       </c>
       <c r="C56" t="n">
-        <v>162.9</v>
+        <v>143</v>
       </c>
       <c r="D56" t="n">
-        <v>162.9</v>
+        <v>143</v>
       </c>
       <c r="E56" t="n">
-        <v>162.4</v>
+        <v>142.8</v>
       </c>
       <c r="F56" t="n">
-        <v>23933.19204615</v>
+        <v>688.696</v>
       </c>
       <c r="G56" t="n">
-        <v>506111.4855085502</v>
+        <v>45645.64028824002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J56" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,33 +2728,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>162.9</v>
+        <v>143</v>
       </c>
       <c r="C57" t="n">
-        <v>165</v>
+        <v>143.4</v>
       </c>
       <c r="D57" t="n">
-        <v>165</v>
+        <v>143.4</v>
       </c>
       <c r="E57" t="n">
-        <v>162.8</v>
+        <v>143</v>
       </c>
       <c r="F57" t="n">
-        <v>95564.14295384999</v>
+        <v>5745.4861</v>
       </c>
       <c r="G57" t="n">
-        <v>601675.6284624002</v>
+        <v>51391.12638824002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J57" t="n">
+        <v>143</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,33 +2770,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>165</v>
+        <v>143.4</v>
       </c>
       <c r="C58" t="n">
-        <v>167.6</v>
+        <v>143.8</v>
       </c>
       <c r="D58" t="n">
-        <v>168</v>
+        <v>143.8</v>
       </c>
       <c r="E58" t="n">
-        <v>164.9</v>
+        <v>143.4</v>
       </c>
       <c r="F58" t="n">
-        <v>83328.61537236</v>
+        <v>7027.1471</v>
       </c>
       <c r="G58" t="n">
-        <v>685004.2438347602</v>
+        <v>58418.27348824003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="J58" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2876,22 +2812,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>167.5</v>
+        <v>143.8</v>
       </c>
       <c r="C59" t="n">
-        <v>166.5</v>
+        <v>143.8</v>
       </c>
       <c r="D59" t="n">
-        <v>167.6</v>
+        <v>143.8</v>
       </c>
       <c r="E59" t="n">
-        <v>166</v>
+        <v>143.2</v>
       </c>
       <c r="F59" t="n">
-        <v>12584.3826</v>
+        <v>3254</v>
       </c>
       <c r="G59" t="n">
-        <v>672419.8612347601</v>
+        <v>58418.27348824003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2900,9 +2836,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,22 +2852,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>166</v>
+        <v>143.2</v>
       </c>
       <c r="C60" t="n">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D60" t="n">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E60" t="n">
-        <v>164</v>
+        <v>143.2</v>
       </c>
       <c r="F60" t="n">
-        <v>14379.6877</v>
+        <v>3188.9541</v>
       </c>
       <c r="G60" t="n">
-        <v>658040.1735347601</v>
+        <v>61607.22758824003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2942,9 +2876,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2960,22 +2892,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>164</v>
+        <v>143.8</v>
       </c>
       <c r="C61" t="n">
-        <v>160.2</v>
+        <v>143.8</v>
       </c>
       <c r="D61" t="n">
-        <v>164</v>
+        <v>143.8</v>
       </c>
       <c r="E61" t="n">
-        <v>160.2</v>
+        <v>143.8</v>
       </c>
       <c r="F61" t="n">
-        <v>12410.2733</v>
+        <v>125</v>
       </c>
       <c r="G61" t="n">
-        <v>645629.9002347601</v>
+        <v>61482.22758824003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2984,9 +2916,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3002,22 +2932,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>160.1</v>
+        <v>144</v>
       </c>
       <c r="C62" t="n">
-        <v>160.2</v>
+        <v>145.9</v>
       </c>
       <c r="D62" t="n">
-        <v>161.3</v>
+        <v>145.9</v>
       </c>
       <c r="E62" t="n">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F62" t="n">
-        <v>37811.6394</v>
+        <v>13930.85465105</v>
       </c>
       <c r="G62" t="n">
-        <v>645629.9002347601</v>
+        <v>75413.08223929003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3026,9 +2956,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,22 +2972,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>160.2</v>
+        <v>145.8</v>
       </c>
       <c r="C63" t="n">
-        <v>161</v>
+        <v>143.2</v>
       </c>
       <c r="D63" t="n">
-        <v>161.3</v>
+        <v>145.8</v>
       </c>
       <c r="E63" t="n">
-        <v>160</v>
+        <v>142.2</v>
       </c>
       <c r="F63" t="n">
-        <v>25819.5341</v>
+        <v>9419.5844</v>
       </c>
       <c r="G63" t="n">
-        <v>671449.4343347602</v>
+        <v>65993.49783929004</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3068,9 +2996,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,22 +3012,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>161.3</v>
+        <v>144.1</v>
       </c>
       <c r="C64" t="n">
-        <v>161.3</v>
+        <v>144.1</v>
       </c>
       <c r="D64" t="n">
-        <v>161.3</v>
+        <v>144.1</v>
       </c>
       <c r="E64" t="n">
-        <v>161.3</v>
+        <v>144.1</v>
       </c>
       <c r="F64" t="n">
-        <v>701.9915</v>
+        <v>236</v>
       </c>
       <c r="G64" t="n">
-        <v>672151.4258347602</v>
+        <v>66229.49783929004</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3110,9 +3036,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,22 +3052,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>161.1</v>
+        <v>144.1</v>
       </c>
       <c r="C65" t="n">
-        <v>162.4</v>
+        <v>145.2</v>
       </c>
       <c r="D65" t="n">
-        <v>162.4</v>
+        <v>145.2</v>
       </c>
       <c r="E65" t="n">
-        <v>161</v>
+        <v>144.1</v>
       </c>
       <c r="F65" t="n">
-        <v>18094.5346</v>
+        <v>380.48888243</v>
       </c>
       <c r="G65" t="n">
-        <v>690245.9604347602</v>
+        <v>66609.98672172004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3152,9 +3076,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3170,22 +3092,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>162.4</v>
+        <v>145.2</v>
       </c>
       <c r="C66" t="n">
-        <v>162.5</v>
+        <v>143.7</v>
       </c>
       <c r="D66" t="n">
-        <v>162.5</v>
+        <v>146.1</v>
       </c>
       <c r="E66" t="n">
-        <v>161.1</v>
+        <v>142.4</v>
       </c>
       <c r="F66" t="n">
-        <v>21606.1963</v>
+        <v>3174.83036163</v>
       </c>
       <c r="G66" t="n">
-        <v>711852.1567347602</v>
+        <v>63435.15636009004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3194,9 +3116,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,22 +3132,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>162.5</v>
+        <v>145</v>
       </c>
       <c r="C67" t="n">
-        <v>162.5</v>
+        <v>145</v>
       </c>
       <c r="D67" t="n">
-        <v>162.5</v>
+        <v>145</v>
       </c>
       <c r="E67" t="n">
-        <v>162.5</v>
+        <v>145</v>
       </c>
       <c r="F67" t="n">
-        <v>848.9008</v>
+        <v>603.80689655</v>
       </c>
       <c r="G67" t="n">
-        <v>711852.1567347602</v>
+        <v>64038.96325664004</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3236,9 +3156,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3254,22 +3172,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>162.4</v>
+        <v>145</v>
       </c>
       <c r="C68" t="n">
-        <v>162.4</v>
+        <v>145</v>
       </c>
       <c r="D68" t="n">
-        <v>162.4</v>
+        <v>145</v>
       </c>
       <c r="E68" t="n">
-        <v>162.4</v>
+        <v>145</v>
       </c>
       <c r="F68" t="n">
-        <v>5890.2754</v>
+        <v>92.5215</v>
       </c>
       <c r="G68" t="n">
-        <v>705961.8813347601</v>
+        <v>64038.96325664004</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3278,9 +3196,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3296,22 +3212,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C69" t="n">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D69" t="n">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E69" t="n">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F69" t="n">
-        <v>214.2783</v>
+        <v>774</v>
       </c>
       <c r="G69" t="n">
-        <v>705747.6030347601</v>
+        <v>63264.96325664004</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3320,9 +3236,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3338,22 +3252,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>161</v>
+        <v>145.9</v>
       </c>
       <c r="C70" t="n">
-        <v>161.8</v>
+        <v>145</v>
       </c>
       <c r="D70" t="n">
-        <v>161.8</v>
+        <v>145.9</v>
       </c>
       <c r="E70" t="n">
-        <v>160.1</v>
+        <v>144.9</v>
       </c>
       <c r="F70" t="n">
-        <v>11415.2325</v>
+        <v>5078.006854</v>
       </c>
       <c r="G70" t="n">
-        <v>694332.3705347601</v>
+        <v>68342.97011064005</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3362,9 +3276,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,22 +3292,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C71" t="n">
-        <v>160</v>
+        <v>145.9</v>
       </c>
       <c r="D71" t="n">
-        <v>160</v>
+        <v>145.9</v>
       </c>
       <c r="E71" t="n">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F71" t="n">
-        <v>26143.5871</v>
+        <v>2395</v>
       </c>
       <c r="G71" t="n">
-        <v>668188.7834347601</v>
+        <v>70737.97011064005</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3404,9 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,22 +3332,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>159.4</v>
+        <v>145.9</v>
       </c>
       <c r="C72" t="n">
-        <v>159.8</v>
+        <v>146</v>
       </c>
       <c r="D72" t="n">
-        <v>159.9</v>
+        <v>146</v>
       </c>
       <c r="E72" t="n">
-        <v>156.8</v>
+        <v>145.9</v>
       </c>
       <c r="F72" t="n">
-        <v>40106.3274</v>
+        <v>1406.0938</v>
       </c>
       <c r="G72" t="n">
-        <v>628082.4560347601</v>
+        <v>72144.06391064005</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3446,9 +3356,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,22 +3372,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>159</v>
+        <v>145.9</v>
       </c>
       <c r="C73" t="n">
-        <v>159</v>
+        <v>145.9</v>
       </c>
       <c r="D73" t="n">
-        <v>159.9</v>
+        <v>145.9</v>
       </c>
       <c r="E73" t="n">
-        <v>158</v>
+        <v>145.9</v>
       </c>
       <c r="F73" t="n">
-        <v>23643.5916</v>
+        <v>957.3547</v>
       </c>
       <c r="G73" t="n">
-        <v>604438.8644347601</v>
+        <v>71186.70921064005</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3488,9 +3396,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3506,22 +3412,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>159.8</v>
+        <v>145.9</v>
       </c>
       <c r="C74" t="n">
-        <v>159.9</v>
+        <v>145.9</v>
       </c>
       <c r="D74" t="n">
-        <v>159.9</v>
+        <v>145.9</v>
       </c>
       <c r="E74" t="n">
-        <v>159.8</v>
+        <v>145.9</v>
       </c>
       <c r="F74" t="n">
-        <v>3971.0503</v>
+        <v>637</v>
       </c>
       <c r="G74" t="n">
-        <v>608409.9147347601</v>
+        <v>71186.70921064005</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3530,9 +3436,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3548,76 +3452,76 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>159.1</v>
+        <v>145.7</v>
       </c>
       <c r="C75" t="n">
-        <v>158</v>
+        <v>142.9</v>
       </c>
       <c r="D75" t="n">
-        <v>159.1</v>
+        <v>145.7</v>
       </c>
       <c r="E75" t="n">
-        <v>158</v>
+        <v>142.9</v>
       </c>
       <c r="F75" t="n">
-        <v>2575.9086</v>
+        <v>6544.751</v>
       </c>
       <c r="G75" t="n">
-        <v>605834.0061347601</v>
+        <v>64641.95821064005</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>145.9</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1.077933516106923</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C76" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D76" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E76" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F76" t="n">
-        <v>9365.8537</v>
+        <v>454.3695</v>
       </c>
       <c r="G76" t="n">
-        <v>605834.0061347601</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3628,22 +3532,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C77" t="n">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D77" t="n">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E77" t="n">
-        <v>156.4</v>
+        <v>144</v>
       </c>
       <c r="F77" t="n">
-        <v>17939.56706962</v>
+        <v>454.3696</v>
       </c>
       <c r="G77" t="n">
-        <v>587894.4390651401</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3653,7 +3557,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3664,22 +3572,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C78" t="n">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D78" t="n">
-        <v>157.1</v>
+        <v>144</v>
       </c>
       <c r="E78" t="n">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F78" t="n">
-        <v>1385.2077</v>
+        <v>619.528</v>
       </c>
       <c r="G78" t="n">
-        <v>587894.4390651401</v>
+        <v>65096.32771064005</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3689,7 +3597,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3700,22 +3612,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>157</v>
+        <v>143.9</v>
       </c>
       <c r="C79" t="n">
-        <v>159.4</v>
+        <v>143.9</v>
       </c>
       <c r="D79" t="n">
-        <v>159.6</v>
+        <v>143.9</v>
       </c>
       <c r="E79" t="n">
-        <v>157</v>
+        <v>143.9</v>
       </c>
       <c r="F79" t="n">
-        <v>9367.973900000001</v>
+        <v>302.913</v>
       </c>
       <c r="G79" t="n">
-        <v>597262.4129651401</v>
+        <v>64793.41471064005</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3725,7 +3637,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3736,22 +3652,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>159.4</v>
+        <v>143.8</v>
       </c>
       <c r="C80" t="n">
-        <v>159.7</v>
+        <v>143.8</v>
       </c>
       <c r="D80" t="n">
-        <v>159.7</v>
+        <v>143.8</v>
       </c>
       <c r="E80" t="n">
-        <v>159.1</v>
+        <v>143.8</v>
       </c>
       <c r="F80" t="n">
-        <v>3700.7819</v>
+        <v>717</v>
       </c>
       <c r="G80" t="n">
-        <v>600963.19486514</v>
+        <v>64076.41471064005</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3761,7 +3677,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3772,22 +3692,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>159.5</v>
+        <v>144.8</v>
       </c>
       <c r="C81" t="n">
-        <v>159.5</v>
+        <v>144.8</v>
       </c>
       <c r="D81" t="n">
-        <v>159.5</v>
+        <v>144.8</v>
       </c>
       <c r="E81" t="n">
-        <v>159.5</v>
+        <v>144.8</v>
       </c>
       <c r="F81" t="n">
-        <v>79.77379999999999</v>
+        <v>50</v>
       </c>
       <c r="G81" t="n">
-        <v>600883.42106514</v>
+        <v>64126.41471064005</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3797,7 +3717,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3808,32 +3732,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>159.5</v>
+        <v>143.9</v>
       </c>
       <c r="C82" t="n">
-        <v>159.5</v>
+        <v>143.9</v>
       </c>
       <c r="D82" t="n">
-        <v>159.5</v>
+        <v>143.9</v>
       </c>
       <c r="E82" t="n">
-        <v>159.5</v>
+        <v>143.9</v>
       </c>
       <c r="F82" t="n">
-        <v>5837.774</v>
+        <v>12.5</v>
       </c>
       <c r="G82" t="n">
-        <v>600883.42106514</v>
+        <v>64113.91471064005</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3844,32 +3772,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>159.5</v>
+        <v>144.8</v>
       </c>
       <c r="C83" t="n">
-        <v>158.3</v>
+        <v>144.8</v>
       </c>
       <c r="D83" t="n">
-        <v>159.5</v>
+        <v>144.8</v>
       </c>
       <c r="E83" t="n">
-        <v>158.3</v>
+        <v>144.8</v>
       </c>
       <c r="F83" t="n">
-        <v>2293.7694</v>
+        <v>325.668</v>
       </c>
       <c r="G83" t="n">
-        <v>598589.6516651401</v>
+        <v>64439.58271064005</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3880,32 +3812,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>157.1</v>
+        <v>144.8</v>
       </c>
       <c r="C84" t="n">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D84" t="n">
-        <v>157.1</v>
+        <v>145</v>
       </c>
       <c r="E84" t="n">
-        <v>154.8</v>
+        <v>144</v>
       </c>
       <c r="F84" t="n">
-        <v>6903.4123</v>
+        <v>2696.6748</v>
       </c>
       <c r="G84" t="n">
-        <v>591686.2393651401</v>
+        <v>67136.25751064005</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3916,32 +3852,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>158</v>
+        <v>145.5</v>
       </c>
       <c r="C85" t="n">
-        <v>157</v>
+        <v>145.5</v>
       </c>
       <c r="D85" t="n">
-        <v>158</v>
+        <v>145.5</v>
       </c>
       <c r="E85" t="n">
-        <v>154.8</v>
+        <v>145.5</v>
       </c>
       <c r="F85" t="n">
-        <v>17881.1168</v>
+        <v>85.73883161000001</v>
       </c>
       <c r="G85" t="n">
-        <v>609567.3561651401</v>
+        <v>67221.99634225004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3952,32 +3892,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C86" t="n">
-        <v>154.2</v>
+        <v>146.6</v>
       </c>
       <c r="D86" t="n">
-        <v>157</v>
+        <v>146.6</v>
       </c>
       <c r="E86" t="n">
-        <v>154.2</v>
+        <v>145.5</v>
       </c>
       <c r="F86" t="n">
-        <v>13435.4594</v>
+        <v>4409.093</v>
       </c>
       <c r="G86" t="n">
-        <v>596131.89676514</v>
+        <v>71631.08934225004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3988,32 +3932,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>154.2</v>
+        <v>146.6</v>
       </c>
       <c r="C87" t="n">
-        <v>154.2</v>
+        <v>147.1</v>
       </c>
       <c r="D87" t="n">
-        <v>156</v>
+        <v>147.1</v>
       </c>
       <c r="E87" t="n">
-        <v>154</v>
+        <v>146.6</v>
       </c>
       <c r="F87" t="n">
-        <v>15842.9046</v>
+        <v>3102.425</v>
       </c>
       <c r="G87" t="n">
-        <v>596131.89676514</v>
+        <v>74733.51434225004</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4024,22 +3972,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>155.6</v>
+        <v>147.1</v>
       </c>
       <c r="C88" t="n">
-        <v>155.1</v>
+        <v>148</v>
       </c>
       <c r="D88" t="n">
-        <v>155.6</v>
+        <v>148.7</v>
       </c>
       <c r="E88" t="n">
-        <v>155.1</v>
+        <v>145.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2028.643</v>
+        <v>7170.8693</v>
       </c>
       <c r="G88" t="n">
-        <v>598160.53976514</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4049,7 +3997,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4060,22 +4012,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>155.1</v>
+        <v>148</v>
       </c>
       <c r="C89" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D89" t="n">
-        <v>156</v>
+        <v>148.7</v>
       </c>
       <c r="E89" t="n">
-        <v>155.1</v>
+        <v>148</v>
       </c>
       <c r="F89" t="n">
-        <v>9725.616</v>
+        <v>2380.423</v>
       </c>
       <c r="G89" t="n">
-        <v>607886.1557651401</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4085,7 +4037,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4096,22 +4052,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>156</v>
+        <v>147.1</v>
       </c>
       <c r="C90" t="n">
-        <v>156.6</v>
+        <v>148</v>
       </c>
       <c r="D90" t="n">
-        <v>156.8</v>
+        <v>148.7</v>
       </c>
       <c r="E90" t="n">
-        <v>154.2</v>
+        <v>147</v>
       </c>
       <c r="F90" t="n">
-        <v>15107.1371</v>
+        <v>7870.5291</v>
       </c>
       <c r="G90" t="n">
-        <v>622993.2928651401</v>
+        <v>81904.38364225005</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4121,7 +4077,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4132,32 +4092,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>155.6</v>
+        <v>148.1</v>
       </c>
       <c r="C91" t="n">
-        <v>155.6</v>
+        <v>147</v>
       </c>
       <c r="D91" t="n">
-        <v>155.6</v>
+        <v>148.7</v>
       </c>
       <c r="E91" t="n">
-        <v>154.4</v>
+        <v>147</v>
       </c>
       <c r="F91" t="n">
-        <v>309.1785</v>
+        <v>7262.318</v>
       </c>
       <c r="G91" t="n">
-        <v>622684.1143651401</v>
+        <v>74642.06564225005</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4168,32 +4132,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>155.4</v>
+        <v>148</v>
       </c>
       <c r="C92" t="n">
-        <v>154.4</v>
+        <v>148.7</v>
       </c>
       <c r="D92" t="n">
-        <v>155.4</v>
+        <v>148.7</v>
       </c>
       <c r="E92" t="n">
-        <v>154.4</v>
+        <v>148</v>
       </c>
       <c r="F92" t="n">
-        <v>5868.867</v>
+        <v>5206.302</v>
       </c>
       <c r="G92" t="n">
-        <v>616815.2473651401</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4204,22 +4172,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>154.4</v>
+        <v>148.7</v>
       </c>
       <c r="C93" t="n">
-        <v>154</v>
+        <v>148.7</v>
       </c>
       <c r="D93" t="n">
-        <v>156.3</v>
+        <v>148.8</v>
       </c>
       <c r="E93" t="n">
-        <v>154</v>
+        <v>148.5</v>
       </c>
       <c r="F93" t="n">
-        <v>25369.58</v>
+        <v>21958.8208</v>
       </c>
       <c r="G93" t="n">
-        <v>591445.6673651402</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4229,7 +4197,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4240,32 +4212,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>155</v>
+        <v>148.7</v>
       </c>
       <c r="C94" t="n">
-        <v>156.7</v>
+        <v>148.7</v>
       </c>
       <c r="D94" t="n">
-        <v>156.7</v>
+        <v>148.7</v>
       </c>
       <c r="E94" t="n">
-        <v>155</v>
+        <v>148.7</v>
       </c>
       <c r="F94" t="n">
-        <v>950.602</v>
+        <v>6740</v>
       </c>
       <c r="G94" t="n">
-        <v>592396.2693651401</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4276,32 +4252,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>156</v>
+        <v>148.7</v>
       </c>
       <c r="C95" t="n">
-        <v>156.7</v>
+        <v>148.7</v>
       </c>
       <c r="D95" t="n">
-        <v>156.7</v>
+        <v>148.7</v>
       </c>
       <c r="E95" t="n">
-        <v>156</v>
+        <v>148.7</v>
       </c>
       <c r="F95" t="n">
-        <v>2086.7716</v>
+        <v>3371</v>
       </c>
       <c r="G95" t="n">
-        <v>592396.2693651401</v>
+        <v>79848.36764225004</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4312,32 +4292,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>156.7</v>
+        <v>148.7</v>
       </c>
       <c r="C96" t="n">
-        <v>156.7</v>
+        <v>149</v>
       </c>
       <c r="D96" t="n">
-        <v>156.7</v>
+        <v>149</v>
       </c>
       <c r="E96" t="n">
-        <v>156.6</v>
+        <v>148.7</v>
       </c>
       <c r="F96" t="n">
-        <v>4572.843</v>
+        <v>13979.4299</v>
       </c>
       <c r="G96" t="n">
-        <v>592396.2693651401</v>
+        <v>93827.79754225005</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4348,32 +4332,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>155.1</v>
+        <v>149.3</v>
       </c>
       <c r="C97" t="n">
-        <v>157.8</v>
+        <v>150.7</v>
       </c>
       <c r="D97" t="n">
-        <v>157.8</v>
+        <v>151</v>
       </c>
       <c r="E97" t="n">
-        <v>155.1</v>
+        <v>149.3</v>
       </c>
       <c r="F97" t="n">
-        <v>3497.9386</v>
+        <v>43091.09051891</v>
       </c>
       <c r="G97" t="n">
-        <v>595894.2079651401</v>
+        <v>136918.88806116</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4384,32 +4372,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>157.7</v>
+        <v>150.7</v>
       </c>
       <c r="C98" t="n">
-        <v>158</v>
+        <v>150.7</v>
       </c>
       <c r="D98" t="n">
-        <v>158</v>
+        <v>150.7</v>
       </c>
       <c r="E98" t="n">
-        <v>157.7</v>
+        <v>149.8</v>
       </c>
       <c r="F98" t="n">
-        <v>4812.876</v>
+        <v>10635.5283</v>
       </c>
       <c r="G98" t="n">
-        <v>600707.0839651402</v>
+        <v>136918.88806116</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4420,32 +4412,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>158.8</v>
+        <v>150.7</v>
       </c>
       <c r="C99" t="n">
-        <v>158.8</v>
+        <v>151.1</v>
       </c>
       <c r="D99" t="n">
-        <v>158.9</v>
+        <v>151.1</v>
       </c>
       <c r="E99" t="n">
-        <v>158.8</v>
+        <v>150.7</v>
       </c>
       <c r="F99" t="n">
-        <v>4813.4187</v>
+        <v>2386.2496</v>
       </c>
       <c r="G99" t="n">
-        <v>605520.5026651402</v>
+        <v>139305.1376611601</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4456,32 +4452,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>158.8</v>
+        <v>151.1</v>
       </c>
       <c r="C100" t="n">
-        <v>158.9</v>
+        <v>152</v>
       </c>
       <c r="D100" t="n">
-        <v>158.9</v>
+        <v>152.9</v>
       </c>
       <c r="E100" t="n">
-        <v>156</v>
+        <v>151.1</v>
       </c>
       <c r="F100" t="n">
-        <v>5527.84086847</v>
+        <v>1488.137</v>
       </c>
       <c r="G100" t="n">
-        <v>611048.3435336102</v>
+        <v>140793.27466116</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4492,32 +4492,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>157.1</v>
+        <v>152</v>
       </c>
       <c r="C101" t="n">
-        <v>157.1</v>
+        <v>153</v>
       </c>
       <c r="D101" t="n">
-        <v>157.1</v>
+        <v>153</v>
       </c>
       <c r="E101" t="n">
-        <v>157.1</v>
+        <v>151.3</v>
       </c>
       <c r="F101" t="n">
-        <v>3386.492</v>
+        <v>16315.22018109</v>
       </c>
       <c r="G101" t="n">
-        <v>607661.8515336103</v>
+        <v>157108.49484225</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4532,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>156.3</v>
+        <v>152</v>
       </c>
       <c r="C102" t="n">
-        <v>156</v>
+        <v>152.9</v>
       </c>
       <c r="D102" t="n">
-        <v>156.3</v>
+        <v>153</v>
       </c>
       <c r="E102" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F102" t="n">
-        <v>4750.9207</v>
+        <v>4042.998</v>
       </c>
       <c r="G102" t="n">
-        <v>602910.9308336102</v>
+        <v>153065.4968422501</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4553,7 +4557,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4564,22 +4572,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>155.2</v>
+        <v>152.9</v>
       </c>
       <c r="C103" t="n">
-        <v>156.6</v>
+        <v>153</v>
       </c>
       <c r="D103" t="n">
-        <v>156.6</v>
+        <v>153.7</v>
       </c>
       <c r="E103" t="n">
-        <v>155</v>
+        <v>152.9</v>
       </c>
       <c r="F103" t="n">
-        <v>4773.1758</v>
+        <v>20399.5393</v>
       </c>
       <c r="G103" t="n">
-        <v>607684.1066336102</v>
+        <v>173465.0361422501</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4589,7 +4597,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4600,22 +4612,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C104" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D104" t="n">
-        <v>156.5</v>
+        <v>154.9</v>
       </c>
       <c r="E104" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F104" t="n">
-        <v>1668.2291</v>
+        <v>21038.9127</v>
       </c>
       <c r="G104" t="n">
-        <v>606015.8775336102</v>
+        <v>194503.94884225</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4625,7 +4637,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4636,22 +4652,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C105" t="n">
-        <v>155</v>
+        <v>157.2</v>
       </c>
       <c r="D105" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E105" t="n">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="F105" t="n">
-        <v>3834.9836</v>
+        <v>128251.96046107</v>
       </c>
       <c r="G105" t="n">
-        <v>602180.8939336102</v>
+        <v>322755.90930332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4661,7 +4677,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4672,32 +4692,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>156</v>
+        <v>159.6</v>
       </c>
       <c r="C106" t="n">
-        <v>155.1</v>
+        <v>158.9</v>
       </c>
       <c r="D106" t="n">
-        <v>156.9</v>
+        <v>162</v>
       </c>
       <c r="E106" t="n">
         <v>155</v>
       </c>
       <c r="F106" t="n">
-        <v>4147.9426</v>
+        <v>54086.56392075</v>
       </c>
       <c r="G106" t="n">
-        <v>606328.8365336101</v>
+        <v>376842.47322407</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4708,32 +4732,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>155</v>
+        <v>157.7</v>
       </c>
       <c r="C107" t="n">
-        <v>155.1</v>
+        <v>157.1</v>
       </c>
       <c r="D107" t="n">
-        <v>155.1</v>
+        <v>159.8</v>
       </c>
       <c r="E107" t="n">
-        <v>155</v>
+        <v>157.1</v>
       </c>
       <c r="F107" t="n">
-        <v>2239.4675</v>
+        <v>14791.8087</v>
       </c>
       <c r="G107" t="n">
-        <v>606328.8365336101</v>
+        <v>362050.66452407</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4744,22 +4772,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>155.1</v>
+        <v>157.1</v>
       </c>
       <c r="C108" t="n">
-        <v>156.5</v>
+        <v>158.8</v>
       </c>
       <c r="D108" t="n">
-        <v>156.5</v>
+        <v>159.8</v>
       </c>
       <c r="E108" t="n">
-        <v>155.1</v>
+        <v>156.1</v>
       </c>
       <c r="F108" t="n">
-        <v>2125</v>
+        <v>38024.35444949</v>
       </c>
       <c r="G108" t="n">
-        <v>608453.8365336101</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4769,7 +4797,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4780,22 +4812,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>156.5</v>
+        <v>158.8</v>
       </c>
       <c r="C109" t="n">
-        <v>155</v>
+        <v>158.8</v>
       </c>
       <c r="D109" t="n">
-        <v>156.5</v>
+        <v>159.8</v>
       </c>
       <c r="E109" t="n">
-        <v>155</v>
+        <v>157.2</v>
       </c>
       <c r="F109" t="n">
-        <v>4870.4991</v>
+        <v>70481.5931</v>
       </c>
       <c r="G109" t="n">
-        <v>603583.3374336101</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4805,7 +4837,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4816,22 +4852,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>155</v>
+        <v>158.8</v>
       </c>
       <c r="C110" t="n">
-        <v>155</v>
+        <v>158.8</v>
       </c>
       <c r="D110" t="n">
-        <v>155</v>
+        <v>158.8</v>
       </c>
       <c r="E110" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F110" t="n">
-        <v>1269.4269</v>
+        <v>13703.2664</v>
       </c>
       <c r="G110" t="n">
-        <v>603583.3374336101</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4841,7 +4877,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4852,22 +4892,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>156</v>
+        <v>158.5</v>
       </c>
       <c r="C111" t="n">
-        <v>153.5</v>
+        <v>158.8</v>
       </c>
       <c r="D111" t="n">
-        <v>156</v>
+        <v>158.8</v>
       </c>
       <c r="E111" t="n">
-        <v>153.5</v>
+        <v>158.5</v>
       </c>
       <c r="F111" t="n">
-        <v>7730.1161</v>
+        <v>12644.0951</v>
       </c>
       <c r="G111" t="n">
-        <v>595853.2213336101</v>
+        <v>400075.0189735601</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4877,7 +4917,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4888,22 +4932,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>156</v>
+        <v>158.8</v>
       </c>
       <c r="C112" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D112" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E112" t="n">
-        <v>154</v>
+        <v>158.8</v>
       </c>
       <c r="F112" t="n">
-        <v>4593.4382</v>
+        <v>49294.26145051</v>
       </c>
       <c r="G112" t="n">
-        <v>600446.6595336101</v>
+        <v>449369.2804240701</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4913,7 +4957,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4924,22 +4972,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>153.7</v>
+        <v>160</v>
       </c>
       <c r="C113" t="n">
-        <v>153.7</v>
+        <v>160.9</v>
       </c>
       <c r="D113" t="n">
-        <v>153.7</v>
+        <v>160.9</v>
       </c>
       <c r="E113" t="n">
-        <v>153.7</v>
+        <v>160</v>
       </c>
       <c r="F113" t="n">
-        <v>3092.4035</v>
+        <v>36645.5027</v>
       </c>
       <c r="G113" t="n">
-        <v>597354.2560336101</v>
+        <v>486014.7831240701</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4949,7 +4997,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4960,22 +5012,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>155.5</v>
+        <v>161</v>
       </c>
       <c r="C114" t="n">
-        <v>153.4</v>
+        <v>161</v>
       </c>
       <c r="D114" t="n">
-        <v>155.5</v>
+        <v>162.1</v>
       </c>
       <c r="E114" t="n">
-        <v>153.4</v>
+        <v>160.9</v>
       </c>
       <c r="F114" t="n">
-        <v>11292.0152</v>
+        <v>43295.71950623</v>
       </c>
       <c r="G114" t="n">
-        <v>586062.2408336101</v>
+        <v>529310.5026303001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4985,7 +5037,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4996,22 +5052,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>153.9</v>
+        <v>161</v>
       </c>
       <c r="C115" t="n">
-        <v>153.4</v>
+        <v>150.1</v>
       </c>
       <c r="D115" t="n">
-        <v>155.4</v>
+        <v>163.3</v>
       </c>
       <c r="E115" t="n">
-        <v>153.4</v>
+        <v>150.1</v>
       </c>
       <c r="F115" t="n">
-        <v>5537.3201</v>
+        <v>82137.76549999999</v>
       </c>
       <c r="G115" t="n">
-        <v>586062.2408336101</v>
+        <v>447172.7371303001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5021,7 +5077,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5032,22 +5092,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>153.6</v>
+        <v>162</v>
       </c>
       <c r="C116" t="n">
-        <v>153.6</v>
+        <v>159.9</v>
       </c>
       <c r="D116" t="n">
-        <v>153.6</v>
+        <v>162</v>
       </c>
       <c r="E116" t="n">
-        <v>153.6</v>
+        <v>159</v>
       </c>
       <c r="F116" t="n">
-        <v>264.2799</v>
+        <v>13328.6697</v>
       </c>
       <c r="G116" t="n">
-        <v>586326.52073361</v>
+        <v>460501.4068303002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5057,7 +5117,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5068,22 +5132,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>153.6</v>
+        <v>159.9</v>
       </c>
       <c r="C117" t="n">
-        <v>153.6</v>
+        <v>163</v>
       </c>
       <c r="D117" t="n">
-        <v>153.6</v>
+        <v>163</v>
       </c>
       <c r="E117" t="n">
-        <v>153.6</v>
+        <v>159.9</v>
       </c>
       <c r="F117" t="n">
-        <v>1700.394</v>
+        <v>22444.5502</v>
       </c>
       <c r="G117" t="n">
-        <v>586326.52073361</v>
+        <v>482945.9570303002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5093,7 +5157,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5104,22 +5172,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>153.6</v>
+        <v>162.8</v>
       </c>
       <c r="C118" t="n">
-        <v>153.6</v>
+        <v>161</v>
       </c>
       <c r="D118" t="n">
-        <v>153.6</v>
+        <v>162.8</v>
       </c>
       <c r="E118" t="n">
-        <v>153.6</v>
+        <v>160</v>
       </c>
       <c r="F118" t="n">
-        <v>888.322</v>
+        <v>26708.7952</v>
       </c>
       <c r="G118" t="n">
-        <v>586326.52073361</v>
+        <v>456237.1618303002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5129,7 +5197,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5140,22 +5212,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>153.4</v>
+        <v>160.2</v>
       </c>
       <c r="C119" t="n">
-        <v>153.4</v>
+        <v>161.5</v>
       </c>
       <c r="D119" t="n">
-        <v>153.4</v>
+        <v>162</v>
       </c>
       <c r="E119" t="n">
-        <v>153.4</v>
+        <v>159.2</v>
       </c>
       <c r="F119" t="n">
-        <v>1183.6383</v>
+        <v>29304.57683395</v>
       </c>
       <c r="G119" t="n">
-        <v>585142.88243361</v>
+        <v>485541.7386642502</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5165,7 +5237,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5176,22 +5252,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>153.5</v>
+        <v>161.5</v>
       </c>
       <c r="C120" t="n">
-        <v>153.5</v>
+        <v>162.5</v>
       </c>
       <c r="D120" t="n">
-        <v>153.5</v>
+        <v>162.5</v>
       </c>
       <c r="E120" t="n">
-        <v>153.5</v>
+        <v>161.5</v>
       </c>
       <c r="F120" t="n">
-        <v>120.162</v>
+        <v>872.8684660500001</v>
       </c>
       <c r="G120" t="n">
-        <v>585263.04443361</v>
+        <v>486414.6071303002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5201,7 +5277,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5212,22 +5292,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>153.4</v>
+        <v>162.5</v>
       </c>
       <c r="C121" t="n">
-        <v>152.5</v>
+        <v>162</v>
       </c>
       <c r="D121" t="n">
-        <v>153.4</v>
+        <v>163</v>
       </c>
       <c r="E121" t="n">
-        <v>152.5</v>
+        <v>161.5</v>
       </c>
       <c r="F121" t="n">
-        <v>14556.9328</v>
+        <v>12141.2206</v>
       </c>
       <c r="G121" t="n">
-        <v>570706.1116336101</v>
+        <v>474273.3865303002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5237,7 +5317,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5248,22 +5332,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>152.2</v>
+        <v>161.5</v>
       </c>
       <c r="C122" t="n">
-        <v>153.4</v>
+        <v>161.5</v>
       </c>
       <c r="D122" t="n">
-        <v>153.4</v>
+        <v>161.5</v>
       </c>
       <c r="E122" t="n">
-        <v>150.9</v>
+        <v>160.4</v>
       </c>
       <c r="F122" t="n">
-        <v>14441.8835</v>
+        <v>5678.15193395</v>
       </c>
       <c r="G122" t="n">
-        <v>585147.9951336101</v>
+        <v>468595.2345963502</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5273,7 +5357,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5284,22 +5372,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>153.4</v>
+        <v>161.5</v>
       </c>
       <c r="C123" t="n">
-        <v>152.1</v>
+        <v>162</v>
       </c>
       <c r="D123" t="n">
-        <v>153.4</v>
+        <v>162</v>
       </c>
       <c r="E123" t="n">
-        <v>152.1</v>
+        <v>161.5</v>
       </c>
       <c r="F123" t="n">
-        <v>760.149</v>
+        <v>13221.64556605</v>
       </c>
       <c r="G123" t="n">
-        <v>584387.8461336101</v>
+        <v>481816.8801624002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5309,7 +5397,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5320,22 +5412,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>152.1</v>
+        <v>161.9</v>
       </c>
       <c r="C124" t="n">
-        <v>152.1</v>
+        <v>162.9</v>
       </c>
       <c r="D124" t="n">
-        <v>152.1</v>
+        <v>162.9</v>
       </c>
       <c r="E124" t="n">
-        <v>152.1</v>
+        <v>160</v>
       </c>
       <c r="F124" t="n">
-        <v>26.809</v>
+        <v>12900.4625</v>
       </c>
       <c r="G124" t="n">
-        <v>584387.8461336101</v>
+        <v>494717.3426624002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5345,7 +5437,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5356,22 +5452,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>152</v>
+        <v>160.4</v>
       </c>
       <c r="C125" t="n">
-        <v>152.9</v>
+        <v>162.6</v>
       </c>
       <c r="D125" t="n">
-        <v>152.9</v>
+        <v>162.6</v>
       </c>
       <c r="E125" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F125" t="n">
-        <v>230.89</v>
+        <v>10931.0224</v>
       </c>
       <c r="G125" t="n">
-        <v>584618.7361336101</v>
+        <v>483786.3202624002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5381,11 +5477,2581 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
       <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1608.0268</v>
+      </c>
+      <c r="G126" t="n">
+        <v>482178.2934624002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>23933.19204615</v>
+      </c>
+      <c r="G127" t="n">
+        <v>506111.4855085502</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>165</v>
+      </c>
+      <c r="D128" t="n">
+        <v>165</v>
+      </c>
+      <c r="E128" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>95564.14295384999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>601675.6284624002</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>165</v>
+      </c>
+      <c r="C129" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>168</v>
+      </c>
+      <c r="E129" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>83328.61537236</v>
+      </c>
+      <c r="G129" t="n">
+        <v>685004.2438347602</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>166</v>
+      </c>
+      <c r="F130" t="n">
+        <v>12584.3826</v>
+      </c>
+      <c r="G130" t="n">
+        <v>672419.8612347601</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>166</v>
+      </c>
+      <c r="C131" t="n">
+        <v>164</v>
+      </c>
+      <c r="D131" t="n">
+        <v>166</v>
+      </c>
+      <c r="E131" t="n">
+        <v>164</v>
+      </c>
+      <c r="F131" t="n">
+        <v>14379.6877</v>
+      </c>
+      <c r="G131" t="n">
+        <v>658040.1735347601</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>164</v>
+      </c>
+      <c r="C132" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>164</v>
+      </c>
+      <c r="E132" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12410.2733</v>
+      </c>
+      <c r="G132" t="n">
+        <v>645629.9002347601</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>160</v>
+      </c>
+      <c r="F133" t="n">
+        <v>37811.6394</v>
+      </c>
+      <c r="G133" t="n">
+        <v>645629.9002347601</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>161</v>
+      </c>
+      <c r="D134" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>160</v>
+      </c>
+      <c r="F134" t="n">
+        <v>25819.5341</v>
+      </c>
+      <c r="G134" t="n">
+        <v>671449.4343347602</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="C135" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>701.9915</v>
+      </c>
+      <c r="G135" t="n">
+        <v>672151.4258347602</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>161</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18094.5346</v>
+      </c>
+      <c r="G136" t="n">
+        <v>690245.9604347602</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>21606.1963</v>
+      </c>
+      <c r="G137" t="n">
+        <v>711852.1567347602</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>848.9008</v>
+      </c>
+      <c r="G138" t="n">
+        <v>711852.1567347602</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="D139" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5890.2754</v>
+      </c>
+      <c r="G139" t="n">
+        <v>705961.8813347601</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>162</v>
+      </c>
+      <c r="C140" t="n">
+        <v>162</v>
+      </c>
+      <c r="D140" t="n">
+        <v>162</v>
+      </c>
+      <c r="E140" t="n">
+        <v>162</v>
+      </c>
+      <c r="F140" t="n">
+        <v>214.2783</v>
+      </c>
+      <c r="G140" t="n">
+        <v>705747.6030347601</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>161</v>
+      </c>
+      <c r="C141" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>11415.2325</v>
+      </c>
+      <c r="G141" t="n">
+        <v>694332.3705347601</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>160</v>
+      </c>
+      <c r="C142" t="n">
+        <v>160</v>
+      </c>
+      <c r="D142" t="n">
+        <v>160</v>
+      </c>
+      <c r="E142" t="n">
+        <v>160</v>
+      </c>
+      <c r="F142" t="n">
+        <v>26143.5871</v>
+      </c>
+      <c r="G142" t="n">
+        <v>668188.7834347601</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>40106.3274</v>
+      </c>
+      <c r="G143" t="n">
+        <v>628082.4560347601</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>159</v>
+      </c>
+      <c r="C144" t="n">
+        <v>159</v>
+      </c>
+      <c r="D144" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>158</v>
+      </c>
+      <c r="F144" t="n">
+        <v>23643.5916</v>
+      </c>
+      <c r="G144" t="n">
+        <v>604438.8644347601</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3971.0503</v>
+      </c>
+      <c r="G145" t="n">
+        <v>608409.9147347601</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>158</v>
+      </c>
+      <c r="D146" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>158</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2575.9086</v>
+      </c>
+      <c r="G146" t="n">
+        <v>605834.0061347601</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>158</v>
+      </c>
+      <c r="C147" t="n">
+        <v>158</v>
+      </c>
+      <c r="D147" t="n">
+        <v>158</v>
+      </c>
+      <c r="E147" t="n">
+        <v>158</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9365.8537</v>
+      </c>
+      <c r="G147" t="n">
+        <v>605834.0061347601</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>158</v>
+      </c>
+      <c r="C148" t="n">
+        <v>157</v>
+      </c>
+      <c r="D148" t="n">
+        <v>158</v>
+      </c>
+      <c r="E148" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17939.56706962</v>
+      </c>
+      <c r="G148" t="n">
+        <v>587894.4390651401</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>157</v>
+      </c>
+      <c r="C149" t="n">
+        <v>157</v>
+      </c>
+      <c r="D149" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>157</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1385.2077</v>
+      </c>
+      <c r="G149" t="n">
+        <v>587894.4390651401</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>157</v>
+      </c>
+      <c r="C150" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>157</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9367.973900000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>597262.4129651401</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="C151" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="E151" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3700.7819</v>
+      </c>
+      <c r="G151" t="n">
+        <v>600963.19486514</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>79.77379999999999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>600883.42106514</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5837.774</v>
+      </c>
+      <c r="G153" t="n">
+        <v>600883.42106514</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>158.3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>158.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2293.7694</v>
+      </c>
+      <c r="G154" t="n">
+        <v>598589.6516651401</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>156</v>
+      </c>
+      <c r="D155" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6903.4123</v>
+      </c>
+      <c r="G155" t="n">
+        <v>591686.2393651401</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>158</v>
+      </c>
+      <c r="C156" t="n">
+        <v>157</v>
+      </c>
+      <c r="D156" t="n">
+        <v>158</v>
+      </c>
+      <c r="E156" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>17881.1168</v>
+      </c>
+      <c r="G156" t="n">
+        <v>609567.3561651401</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>157</v>
+      </c>
+      <c r="C157" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>157</v>
+      </c>
+      <c r="E157" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>13435.4594</v>
+      </c>
+      <c r="G157" t="n">
+        <v>596131.89676514</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>156</v>
+      </c>
+      <c r="E158" t="n">
+        <v>154</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15842.9046</v>
+      </c>
+      <c r="G158" t="n">
+        <v>596131.89676514</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2028.643</v>
+      </c>
+      <c r="G159" t="n">
+        <v>598160.53976514</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>156</v>
+      </c>
+      <c r="D160" t="n">
+        <v>156</v>
+      </c>
+      <c r="E160" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>9725.616</v>
+      </c>
+      <c r="G160" t="n">
+        <v>607886.1557651401</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>156</v>
+      </c>
+      <c r="C161" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>15107.1371</v>
+      </c>
+      <c r="G161" t="n">
+        <v>622993.2928651401</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>309.1785</v>
+      </c>
+      <c r="G162" t="n">
+        <v>622684.1143651401</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5868.867</v>
+      </c>
+      <c r="G163" t="n">
+        <v>616815.2473651401</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>154</v>
+      </c>
+      <c r="D164" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>154</v>
+      </c>
+      <c r="F164" t="n">
+        <v>25369.58</v>
+      </c>
+      <c r="G164" t="n">
+        <v>591445.6673651402</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>155</v>
+      </c>
+      <c r="C165" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>155</v>
+      </c>
+      <c r="F165" t="n">
+        <v>950.602</v>
+      </c>
+      <c r="G165" t="n">
+        <v>592396.2693651401</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>156</v>
+      </c>
+      <c r="C166" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>156</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2086.7716</v>
+      </c>
+      <c r="G166" t="n">
+        <v>592396.2693651401</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4572.843</v>
+      </c>
+      <c r="G167" t="n">
+        <v>592396.2693651401</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3497.9386</v>
+      </c>
+      <c r="G168" t="n">
+        <v>595894.2079651401</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>157.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>158</v>
+      </c>
+      <c r="D169" t="n">
+        <v>158</v>
+      </c>
+      <c r="E169" t="n">
+        <v>157.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4812.876</v>
+      </c>
+      <c r="G169" t="n">
+        <v>600707.0839651402</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4813.4187</v>
+      </c>
+      <c r="G170" t="n">
+        <v>605520.5026651402</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>156</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5527.84086847</v>
+      </c>
+      <c r="G171" t="n">
+        <v>611048.3435336102</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3386.492</v>
+      </c>
+      <c r="G172" t="n">
+        <v>607661.8515336103</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>156</v>
+      </c>
+      <c r="D173" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>156</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4750.9207</v>
+      </c>
+      <c r="G173" t="n">
+        <v>602910.9308336102</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="D174" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>155</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4773.1758</v>
+      </c>
+      <c r="G174" t="n">
+        <v>607684.1066336102</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>156</v>
+      </c>
+      <c r="C175" t="n">
+        <v>156</v>
+      </c>
+      <c r="D175" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>156</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1668.2291</v>
+      </c>
+      <c r="G175" t="n">
+        <v>606015.8775336102</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>156</v>
+      </c>
+      <c r="C176" t="n">
+        <v>155</v>
+      </c>
+      <c r="D176" t="n">
+        <v>156</v>
+      </c>
+      <c r="E176" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3834.9836</v>
+      </c>
+      <c r="G176" t="n">
+        <v>602180.8939336102</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>156</v>
+      </c>
+      <c r="C177" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>155</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4147.9426</v>
+      </c>
+      <c r="G177" t="n">
+        <v>606328.8365336101</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>155</v>
+      </c>
+      <c r="C178" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>155</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2239.4675</v>
+      </c>
+      <c r="G178" t="n">
+        <v>606328.8365336101</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2125</v>
+      </c>
+      <c r="G179" t="n">
+        <v>608453.8365336101</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>155</v>
+      </c>
+      <c r="D180" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>155</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4870.4991</v>
+      </c>
+      <c r="G180" t="n">
+        <v>603583.3374336101</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>155</v>
+      </c>
+      <c r="C181" t="n">
+        <v>155</v>
+      </c>
+      <c r="D181" t="n">
+        <v>155</v>
+      </c>
+      <c r="E181" t="n">
+        <v>155</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1269.4269</v>
+      </c>
+      <c r="G181" t="n">
+        <v>603583.3374336101</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>156</v>
+      </c>
+      <c r="C182" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>156</v>
+      </c>
+      <c r="E182" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>7730.1161</v>
+      </c>
+      <c r="G182" t="n">
+        <v>595853.2213336101</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>156</v>
+      </c>
+      <c r="C183" t="n">
+        <v>154</v>
+      </c>
+      <c r="D183" t="n">
+        <v>156</v>
+      </c>
+      <c r="E183" t="n">
+        <v>154</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4593.4382</v>
+      </c>
+      <c r="G183" t="n">
+        <v>600446.6595336101</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="C184" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="D184" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3092.4035</v>
+      </c>
+      <c r="G184" t="n">
+        <v>597354.2560336101</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="C185" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D185" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>11292.0152</v>
+      </c>
+      <c r="G185" t="n">
+        <v>586062.2408336101</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="C186" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D186" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="E186" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5537.3201</v>
+      </c>
+      <c r="G186" t="n">
+        <v>586062.2408336101</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C187" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D187" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E187" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F187" t="n">
+        <v>264.2799</v>
+      </c>
+      <c r="G187" t="n">
+        <v>586326.52073361</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1700.394</v>
+      </c>
+      <c r="G188" t="n">
+        <v>586326.52073361</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>888.322</v>
+      </c>
+      <c r="G189" t="n">
+        <v>586326.52073361</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C190" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E190" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1183.6383</v>
+      </c>
+      <c r="G190" t="n">
+        <v>585142.88243361</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>120.162</v>
+      </c>
+      <c r="G191" t="n">
+        <v>585263.04443361</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E192" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>14556.9328</v>
+      </c>
+      <c r="G192" t="n">
+        <v>570706.1116336101</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="F193" t="n">
+        <v>14441.8835</v>
+      </c>
+      <c r="G193" t="n">
+        <v>585147.9951336101</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E194" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>760.149</v>
+      </c>
+      <c r="G194" t="n">
+        <v>584387.8461336101</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="E195" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>26.809</v>
+      </c>
+      <c r="G195" t="n">
+        <v>584387.8461336101</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>152</v>
+      </c>
+      <c r="C196" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="D196" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="E196" t="n">
+        <v>152</v>
+      </c>
+      <c r="F196" t="n">
+        <v>230.89</v>
+      </c>
+      <c r="G196" t="n">
+        <v>584618.7361336101</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>39249.69390000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>39756.07690000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>141.9</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,19 @@
         <v>36933.21490000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +560,19 @@
         <v>37215.9679</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +597,19 @@
         <v>36944.7755</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>140</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +634,19 @@
         <v>37231.31660000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>139</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +671,19 @@
         <v>37546.36660000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>140</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +708,19 @@
         <v>37021.78520000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>141</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +745,21 @@
         <v>35787.78520000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>140</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +784,21 @@
         <v>53835.5514</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>139.8</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +823,21 @@
         <v>53440.72440000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>141</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +862,21 @@
         <v>54770.7164</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>139.4</v>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +901,21 @@
         <v>54770.7164</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>140</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +940,21 @@
         <v>57470.7164</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>140</v>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +979,21 @@
         <v>42635.19790000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>141</v>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,24 +1018,21 @@
         <v>43370.19790000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>139.2</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,24 +1057,21 @@
         <v>42870.19790000001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
         <v>141</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1164,24 +1096,21 @@
         <v>48873.82148824001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>139.2</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1206,24 +1135,21 @@
         <v>48562.46208824</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
         <v>142.9</v>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,22 +1174,21 @@
         <v>48562.46208824</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1288,24 +1213,21 @@
         <v>48278.59208824</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>141</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1330,24 +1252,21 @@
         <v>49246.90418824001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
         <v>140.1</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1372,24 +1291,21 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
         <v>141</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1414,24 +1330,21 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>140</v>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1456,24 +1369,21 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>140</v>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1498,24 +1408,21 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>140</v>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1540,24 +1447,21 @@
         <v>48664.00898824001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>140</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1582,24 +1486,21 @@
         <v>46777.00898824001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
         <v>139.6</v>
       </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1624,24 +1525,21 @@
         <v>46794.97898824001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>139</v>
       </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1666,24 +1564,21 @@
         <v>46794.97898824001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
         <v>140.9</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1708,24 +1603,21 @@
         <v>46555.19518824001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
         <v>140.9</v>
       </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1750,24 +1642,21 @@
         <v>46558.79518824001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>138.9</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1792,24 +1681,21 @@
         <v>47610.79518824001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
         <v>140</v>
       </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1834,24 +1720,21 @@
         <v>47610.79518824001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
         <v>141</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1876,24 +1759,21 @@
         <v>49456.35168824001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
         <v>141</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1918,24 +1798,21 @@
         <v>48216.72718824001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
         <v>141.7</v>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1960,24 +1837,19 @@
         <v>48957.72718824001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>141</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2002,24 +1874,19 @@
         <v>44967.72718824001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>142</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2044,24 +1911,19 @@
         <v>44967.72718824001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>141</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2086,24 +1948,19 @@
         <v>47796.72718824001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>141</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2128,24 +1985,19 @@
         <v>47796.72718824001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2172,20 +2024,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2210,24 +2059,19 @@
         <v>46671.75718824001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2254,20 +2098,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2294,20 +2135,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2334,20 +2172,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2374,20 +2209,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2414,20 +2246,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2452,24 +2281,19 @@
         <v>45004.15538824001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2494,24 +2318,19 @@
         <v>45004.15538824001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>141</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2536,24 +2355,19 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>141</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2578,24 +2392,19 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2620,24 +2429,19 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2662,24 +2466,19 @@
         <v>44956.94428824002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2704,24 +2503,19 @@
         <v>45645.64028824002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2746,24 +2540,19 @@
         <v>51391.12638824002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>143</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2788,24 +2577,19 @@
         <v>58418.27348824003</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2832,20 +2616,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2872,20 +2653,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2912,20 +2690,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2952,20 +2727,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2992,20 +2764,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3032,20 +2801,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3072,20 +2838,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3112,20 +2875,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3152,20 +2912,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3192,20 +2949,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3232,20 +2986,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3272,20 +3023,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3312,20 +3060,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3352,20 +3097,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3392,20 +3134,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3432,20 +3171,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3472,20 +3208,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3512,20 +3245,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3552,20 +3282,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3592,20 +3319,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3632,20 +3356,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3672,20 +3393,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3712,20 +3430,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3752,20 +3467,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3792,20 +3504,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3832,20 +3541,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3872,20 +3578,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3912,20 +3615,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3952,20 +3652,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3992,20 +3689,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4032,20 +3726,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4072,20 +3763,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4112,20 +3800,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4152,20 +3837,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4192,20 +3874,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4232,20 +3911,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4272,20 +3948,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4312,20 +3985,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4352,20 +4022,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4392,20 +4059,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4432,20 +4096,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4472,20 +4133,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4512,20 +4170,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4552,20 +4207,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4592,20 +4244,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4632,20 +4281,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4672,20 +4318,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4712,20 +4355,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4750,22 +4390,17 @@
         <v>362050.66452407</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4790,22 +4425,15 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4830,22 +4458,15 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4872,20 +4493,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4910,22 +4524,15 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4950,22 +4557,15 @@
         <v>449369.2804240701</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4992,20 +4592,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5030,22 +4623,15 @@
         <v>529310.5026303001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5070,22 +4656,15 @@
         <v>447172.7371303001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5110,22 +4689,15 @@
         <v>460501.4068303002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5152,20 +4724,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5190,22 +4755,15 @@
         <v>456237.1618303002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5230,22 +4788,15 @@
         <v>485541.7386642502</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5270,22 +4821,15 @@
         <v>486414.6071303002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5310,22 +4854,15 @@
         <v>474273.3865303002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5350,22 +4887,15 @@
         <v>468595.2345963502</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5390,22 +4920,15 @@
         <v>481816.8801624002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5430,22 +4953,15 @@
         <v>494717.3426624002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5470,22 +4986,15 @@
         <v>483786.3202624002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5510,22 +5019,15 @@
         <v>482178.2934624002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5550,22 +5052,15 @@
         <v>506111.4855085502</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5590,20 +5085,15 @@
         <v>601675.6284624002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L128" t="n">
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5628,18 +5118,15 @@
         <v>685004.2438347602</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5664,18 +5151,15 @@
         <v>672419.8612347601</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5700,18 +5184,15 @@
         <v>658040.1735347601</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5736,18 +5217,15 @@
         <v>645629.9002347601</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5774,16 +5252,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5810,16 +5285,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5846,16 +5318,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5882,16 +5351,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5916,18 +5382,15 @@
         <v>711852.1567347602</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5954,16 +5417,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5988,18 +5448,15 @@
         <v>705961.8813347601</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6026,16 +5483,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6062,16 +5516,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6098,16 +5549,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6134,16 +5582,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6170,16 +5615,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6206,16 +5648,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6242,16 +5681,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6276,18 +5712,15 @@
         <v>605834.0061347601</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6314,16 +5747,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6348,18 +5778,15 @@
         <v>587894.4390651401</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6386,16 +5813,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6420,18 +5844,15 @@
         <v>600963.19486514</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6458,16 +5879,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6494,16 +5912,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6530,16 +5945,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6566,16 +5978,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6602,16 +6011,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6638,16 +6044,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6674,16 +6077,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6710,16 +6110,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6746,16 +6143,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6780,18 +6174,15 @@
         <v>622993.2928651401</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6816,18 +6207,15 @@
         <v>622684.1143651401</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6852,18 +6240,15 @@
         <v>616815.2473651401</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6890,16 +6275,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6924,18 +6306,15 @@
         <v>592396.2693651401</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6962,16 +6341,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6996,18 +6372,15 @@
         <v>592396.2693651401</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7034,16 +6407,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7068,18 +6438,15 @@
         <v>600707.0839651402</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7104,18 +6471,15 @@
         <v>605520.5026651402</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7140,18 +6504,15 @@
         <v>611048.3435336102</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7176,18 +6537,15 @@
         <v>607661.8515336103</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7212,18 +6570,15 @@
         <v>602910.9308336102</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7248,18 +6603,15 @@
         <v>607684.1066336102</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7284,18 +6636,15 @@
         <v>606015.8775336102</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7322,16 +6671,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7356,18 +6702,15 @@
         <v>606328.8365336101</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7392,18 +6735,15 @@
         <v>606328.8365336101</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7428,18 +6768,15 @@
         <v>608453.8365336101</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7464,18 +6801,15 @@
         <v>603583.3374336101</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7500,18 +6834,15 @@
         <v>603583.3374336101</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7538,16 +6869,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7574,16 +6902,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7608,18 +6933,15 @@
         <v>597354.2560336101</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7644,18 +6966,15 @@
         <v>586062.2408336101</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7680,18 +6999,15 @@
         <v>586062.2408336101</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7716,18 +7032,15 @@
         <v>586326.52073361</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7752,18 +7065,15 @@
         <v>586326.52073361</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7790,16 +7100,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7826,16 +7133,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7862,16 +7166,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7898,16 +7199,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7934,16 +7232,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7970,16 +7265,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8006,16 +7298,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8042,18 +7331,15 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>39249.69390000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>39756.07690000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>141.9</v>
@@ -523,9 +523,11 @@
         <v>36933.21490000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>142.9</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
@@ -560,9 +562,11 @@
         <v>37215.9679</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>139.9</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -597,9 +601,11 @@
         <v>36944.7755</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>140</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -634,9 +640,11 @@
         <v>37231.31660000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>139</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -671,9 +679,11 @@
         <v>37546.36660000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>140</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -708,9 +718,11 @@
         <v>37021.78520000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>141</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -745,7 +757,7 @@
         <v>35787.78520000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>140</v>
@@ -784,7 +796,7 @@
         <v>53835.5514</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>139.8</v>
@@ -823,7 +835,7 @@
         <v>53440.72440000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>141</v>
@@ -862,7 +874,7 @@
         <v>54770.7164</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>139.4</v>
@@ -901,7 +913,7 @@
         <v>54770.7164</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>140</v>
@@ -940,7 +952,7 @@
         <v>57470.7164</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>140</v>
@@ -979,7 +991,7 @@
         <v>42635.19790000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>141</v>
@@ -1018,7 +1030,7 @@
         <v>43370.19790000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>139.2</v>
@@ -1057,7 +1069,7 @@
         <v>42870.19790000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>141</v>
@@ -1096,7 +1108,7 @@
         <v>48873.82148824001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>139.2</v>
@@ -1135,7 +1147,7 @@
         <v>48562.46208824</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>142.9</v>
@@ -1174,7 +1186,7 @@
         <v>48562.46208824</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>141</v>
@@ -1213,7 +1225,7 @@
         <v>48278.59208824</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>141</v>
@@ -1252,7 +1264,7 @@
         <v>49246.90418824001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>140.1</v>
@@ -1291,7 +1303,7 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>141</v>
@@ -1330,7 +1342,7 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>140</v>
@@ -1369,7 +1381,7 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>140</v>
@@ -1408,7 +1420,7 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>140</v>
@@ -1447,7 +1459,7 @@
         <v>48664.00898824001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>140</v>
@@ -1486,7 +1498,7 @@
         <v>46777.00898824001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>139.6</v>
@@ -1525,7 +1537,7 @@
         <v>46794.97898824001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>139</v>
@@ -1564,7 +1576,7 @@
         <v>46794.97898824001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>140.9</v>
@@ -1603,7 +1615,7 @@
         <v>46555.19518824001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>140.9</v>
@@ -1642,7 +1654,7 @@
         <v>46558.79518824001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>138.9</v>
@@ -1681,7 +1693,7 @@
         <v>47610.79518824001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>140</v>
@@ -1720,7 +1732,7 @@
         <v>47610.79518824001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>141</v>
@@ -1759,7 +1771,7 @@
         <v>49456.35168824001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>141</v>
@@ -1798,7 +1810,7 @@
         <v>48216.72718824001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>141.7</v>
@@ -1837,9 +1849,11 @@
         <v>48957.72718824001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>141</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1874,9 +1888,11 @@
         <v>44967.72718824001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>142</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1911,9 +1927,11 @@
         <v>44967.72718824001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>141</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1948,9 +1966,11 @@
         <v>47796.72718824001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>141</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1985,9 +2005,11 @@
         <v>47796.72718824001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>142.4</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2022,9 +2044,11 @@
         <v>47717.72718824001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>142.4</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2059,9 +2083,11 @@
         <v>46671.75718824001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>142.2</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2096,9 +2122,11 @@
         <v>46671.75718824001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>142</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2133,9 +2161,11 @@
         <v>43371.75718824001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>142</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2170,9 +2200,11 @@
         <v>43749.75718824001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>141</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2207,9 +2239,11 @@
         <v>43485.61448824001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>142</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2244,9 +2278,11 @@
         <v>42929.61448824001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>141</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2281,9 +2317,11 @@
         <v>45004.15538824001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>140.3</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2318,9 +2356,11 @@
         <v>45004.15538824001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>141</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2355,9 +2395,11 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>141</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2392,9 +2434,11 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>140.2</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2429,9 +2473,11 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>140.2</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2466,9 +2512,11 @@
         <v>44956.94428824002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>140.2</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2503,9 +2551,11 @@
         <v>45645.64028824002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>142.5</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2540,9 +2590,11 @@
         <v>51391.12638824002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>143</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2577,9 +2629,11 @@
         <v>58418.27348824003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>143.4</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2614,9 +2668,11 @@
         <v>58418.27348824003</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>143.8</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2651,9 +2707,11 @@
         <v>61607.22758824003</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>143.8</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3280,9 +3338,11 @@
         <v>65096.32771064005</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>144</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3317,9 +3377,11 @@
         <v>65096.32771064005</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>144</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3354,9 +3416,11 @@
         <v>64793.41471064005</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>144</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3391,9 +3455,11 @@
         <v>64076.41471064005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>143.9</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3502,9 +3568,11 @@
         <v>64439.58271064005</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>143.9</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -4390,16 +4458,18 @@
         <v>362050.66452407</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
       <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -4425,11 +4495,15 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4458,11 +4532,15 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4495,7 +4573,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4524,11 +4606,15 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4557,11 +4643,15 @@
         <v>449369.2804240701</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4594,7 +4684,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4623,11 +4717,15 @@
         <v>529310.5026303001</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4656,11 +4754,15 @@
         <v>447172.7371303001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4689,11 +4791,15 @@
         <v>460501.4068303002</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4726,7 +4832,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4755,11 +4865,15 @@
         <v>456237.1618303002</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4788,11 +4902,15 @@
         <v>485541.7386642502</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4821,11 +4939,15 @@
         <v>486414.6071303002</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4854,11 +4976,15 @@
         <v>474273.3865303002</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4887,11 +5013,15 @@
         <v>468595.2345963502</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +5050,15 @@
         <v>481816.8801624002</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4953,11 +5087,15 @@
         <v>494717.3426624002</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4986,11 +5124,15 @@
         <v>483786.3202624002</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5019,11 +5161,15 @@
         <v>482178.2934624002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5052,11 +5198,15 @@
         <v>506111.4855085502</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5085,11 +5235,15 @@
         <v>601675.6284624002</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +5272,15 @@
         <v>685004.2438347602</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5151,11 +5309,15 @@
         <v>672419.8612347601</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5184,11 +5346,15 @@
         <v>658040.1735347601</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5217,11 +5383,15 @@
         <v>645629.9002347601</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5254,7 +5424,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5283,14 +5457,16 @@
         <v>671449.4343347602</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -5316,7 +5492,7 @@
         <v>672151.4258347602</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5349,7 +5525,7 @@
         <v>690245.9604347602</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5382,7 +5558,7 @@
         <v>711852.1567347602</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5415,7 +5591,7 @@
         <v>711852.1567347602</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5448,7 +5624,7 @@
         <v>705961.8813347601</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5481,7 +5657,7 @@
         <v>705747.6030347601</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5514,7 +5690,7 @@
         <v>694332.3705347601</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5547,7 +5723,7 @@
         <v>668188.7834347601</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5580,7 +5756,7 @@
         <v>628082.4560347601</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5613,7 +5789,7 @@
         <v>604438.8644347601</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5646,7 +5822,7 @@
         <v>608409.9147347601</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5679,7 +5855,7 @@
         <v>605834.0061347601</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5712,7 +5888,7 @@
         <v>605834.0061347601</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5745,7 +5921,7 @@
         <v>587894.4390651401</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5778,7 +5954,7 @@
         <v>587894.4390651401</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5811,7 +5987,7 @@
         <v>597262.4129651401</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5844,7 +6020,7 @@
         <v>600963.19486514</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5877,7 +6053,7 @@
         <v>600883.42106514</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5910,7 +6086,7 @@
         <v>600883.42106514</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5943,7 +6119,7 @@
         <v>598589.6516651401</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5976,7 +6152,7 @@
         <v>591686.2393651401</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6009,7 +6185,7 @@
         <v>609567.3561651401</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6042,7 +6218,7 @@
         <v>596131.89676514</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6075,7 +6251,7 @@
         <v>596131.89676514</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6108,7 +6284,7 @@
         <v>598160.53976514</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6141,7 +6317,7 @@
         <v>607886.1557651401</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6174,7 +6350,7 @@
         <v>622993.2928651401</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6207,7 +6383,7 @@
         <v>622684.1143651401</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6240,7 +6416,7 @@
         <v>616815.2473651401</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6273,7 +6449,7 @@
         <v>591445.6673651402</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6306,7 +6482,7 @@
         <v>592396.2693651401</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6339,7 +6515,7 @@
         <v>592396.2693651401</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6372,7 +6548,7 @@
         <v>592396.2693651401</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6405,7 +6581,7 @@
         <v>595894.2079651401</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6438,7 +6614,7 @@
         <v>600707.0839651402</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6471,7 +6647,7 @@
         <v>605520.5026651402</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6504,7 +6680,7 @@
         <v>611048.3435336102</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6537,7 +6713,7 @@
         <v>607661.8515336103</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6570,7 +6746,7 @@
         <v>602910.9308336102</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6603,7 +6779,7 @@
         <v>607684.1066336102</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6636,7 +6812,7 @@
         <v>606015.8775336102</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6669,7 +6845,7 @@
         <v>602180.8939336102</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6702,7 +6878,7 @@
         <v>606328.8365336101</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6735,7 +6911,7 @@
         <v>606328.8365336101</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6768,7 +6944,7 @@
         <v>608453.8365336101</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6801,7 +6977,7 @@
         <v>603583.3374336101</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6834,7 +7010,7 @@
         <v>603583.3374336101</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6867,7 +7043,7 @@
         <v>595853.2213336101</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6900,7 +7076,7 @@
         <v>600446.6595336101</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6933,7 +7109,7 @@
         <v>597354.2560336101</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6966,7 +7142,7 @@
         <v>586062.2408336101</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6999,7 +7175,7 @@
         <v>586062.2408336101</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7032,7 +7208,7 @@
         <v>586326.52073361</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7065,7 +7241,7 @@
         <v>586326.52073361</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7098,7 +7274,7 @@
         <v>586326.52073361</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7131,7 +7307,7 @@
         <v>585142.88243361</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7164,7 +7340,7 @@
         <v>585263.04443361</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7197,7 +7373,7 @@
         <v>570706.1116336101</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7230,7 +7406,7 @@
         <v>585147.9951336101</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7263,7 +7439,7 @@
         <v>584387.8461336101</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7296,7 +7472,7 @@
         <v>584387.8461336101</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7329,7 +7505,7 @@
         <v>584618.7361336101</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7340,6 +7516,6 @@
       <c r="M196" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1303,11 +1303,9 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1849,11 +1847,9 @@
         <v>48957.72718824001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1888,11 +1884,9 @@
         <v>44967.72718824001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1927,11 +1921,9 @@
         <v>44967.72718824001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -2005,11 +1997,9 @@
         <v>47796.72718824001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>142.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2044,11 +2034,9 @@
         <v>47717.72718824001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>142.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2083,11 +2071,9 @@
         <v>46671.75718824001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>142.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2122,11 +2108,9 @@
         <v>46671.75718824001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2161,11 +2145,9 @@
         <v>43371.75718824001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2200,11 +2182,9 @@
         <v>43749.75718824001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2239,11 +2219,9 @@
         <v>43485.61448824001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2278,11 +2256,9 @@
         <v>42929.61448824001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2317,11 +2293,9 @@
         <v>45004.15538824001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>140.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2356,11 +2330,9 @@
         <v>45004.15538824001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2590,11 +2562,9 @@
         <v>51391.12638824002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2629,11 +2599,9 @@
         <v>58418.27348824003</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>143.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2668,11 +2636,9 @@
         <v>58418.27348824003</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>143.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2707,11 +2673,9 @@
         <v>61607.22758824003</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>143.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -3338,11 +3302,9 @@
         <v>65096.32771064005</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3377,11 +3339,9 @@
         <v>65096.32771064005</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3416,11 +3376,9 @@
         <v>64793.41471064005</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3455,11 +3413,9 @@
         <v>64076.41471064005</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3568,11 +3524,9 @@
         <v>64439.58271064005</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>143.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -4125,18 +4079,16 @@
         <v>136918.88806116</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -4162,15 +4114,11 @@
         <v>139305.1376611601</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4203,11 +4151,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4236,15 +4180,11 @@
         <v>157108.49484225</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4273,15 +4213,11 @@
         <v>153065.4968422501</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4310,15 +4246,11 @@
         <v>173465.0361422501</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4347,15 +4279,11 @@
         <v>194503.94884225</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4384,15 +4312,11 @@
         <v>322755.90930332</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4421,15 +4345,11 @@
         <v>376842.47322407</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4458,15 +4378,11 @@
         <v>362050.66452407</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4495,15 +4411,11 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4532,15 +4444,11 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4573,11 +4481,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4610,11 +4514,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4547,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4684,11 +4580,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4721,11 +4613,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4758,11 +4646,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +4679,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +4712,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4869,11 +4745,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4778,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4943,11 +4811,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4980,11 +4844,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5017,11 +4877,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5054,11 +4910,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5091,11 +4943,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5128,11 +4976,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5165,11 +5009,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5202,11 +5042,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +5075,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +5108,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5313,11 +5141,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5350,11 +5174,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +5207,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5424,11 +5240,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5457,16 +5269,14 @@
         <v>671449.4343347602</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
       <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -5492,7 +5302,7 @@
         <v>672151.4258347602</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5525,7 +5335,7 @@
         <v>690245.9604347602</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5591,7 +5401,7 @@
         <v>711852.1567347602</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5624,7 +5434,7 @@
         <v>705961.8813347601</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5657,7 +5467,7 @@
         <v>705747.6030347601</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5690,7 +5500,7 @@
         <v>694332.3705347601</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5723,7 +5533,7 @@
         <v>668188.7834347601</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5756,7 +5566,7 @@
         <v>628082.4560347601</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5789,7 +5599,7 @@
         <v>604438.8644347601</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5822,7 +5632,7 @@
         <v>608409.9147347601</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5855,7 +5665,7 @@
         <v>605834.0061347601</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5888,7 +5698,7 @@
         <v>605834.0061347601</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5921,7 +5731,7 @@
         <v>587894.4390651401</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5954,7 +5764,7 @@
         <v>587894.4390651401</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5987,7 +5797,7 @@
         <v>597262.4129651401</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6020,7 +5830,7 @@
         <v>600963.19486514</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6053,7 +5863,7 @@
         <v>600883.42106514</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6086,7 +5896,7 @@
         <v>600883.42106514</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6119,7 +5929,7 @@
         <v>598589.6516651401</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6152,7 +5962,7 @@
         <v>591686.2393651401</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6185,7 +5995,7 @@
         <v>609567.3561651401</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6218,7 +6028,7 @@
         <v>596131.89676514</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6251,7 +6061,7 @@
         <v>596131.89676514</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6284,7 +6094,7 @@
         <v>598160.53976514</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6317,7 +6127,7 @@
         <v>607886.1557651401</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6350,7 +6160,7 @@
         <v>622993.2928651401</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6383,7 +6193,7 @@
         <v>622684.1143651401</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6416,7 +6226,7 @@
         <v>616815.2473651401</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6449,7 +6259,7 @@
         <v>591445.6673651402</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6482,7 +6292,7 @@
         <v>592396.2693651401</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6515,7 +6325,7 @@
         <v>592396.2693651401</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6548,7 +6358,7 @@
         <v>592396.2693651401</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6581,7 +6391,7 @@
         <v>595894.2079651401</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6614,7 +6424,7 @@
         <v>600707.0839651402</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6647,7 +6457,7 @@
         <v>605520.5026651402</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6680,7 +6490,7 @@
         <v>611048.3435336102</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6713,7 +6523,7 @@
         <v>607661.8515336103</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6746,7 +6556,7 @@
         <v>602910.9308336102</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6779,7 +6589,7 @@
         <v>607684.1066336102</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6812,7 +6622,7 @@
         <v>606015.8775336102</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6845,7 +6655,7 @@
         <v>602180.8939336102</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6878,7 +6688,7 @@
         <v>606328.8365336101</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6911,7 +6721,7 @@
         <v>606328.8365336101</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6944,7 +6754,7 @@
         <v>608453.8365336101</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6977,7 +6787,7 @@
         <v>603583.3374336101</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7010,7 +6820,7 @@
         <v>603583.3374336101</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7043,7 +6853,7 @@
         <v>595853.2213336101</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7076,7 +6886,7 @@
         <v>600446.6595336101</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7109,7 +6919,7 @@
         <v>597354.2560336101</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7142,7 +6952,7 @@
         <v>586062.2408336101</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7175,7 +6985,7 @@
         <v>586062.2408336101</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7208,7 +7018,7 @@
         <v>586326.52073361</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7241,7 +7051,7 @@
         <v>586326.52073361</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7274,7 +7084,7 @@
         <v>586326.52073361</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7307,7 +7117,7 @@
         <v>585142.88243361</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7340,7 +7150,7 @@
         <v>585263.04443361</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7373,7 +7183,7 @@
         <v>570706.1116336101</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7406,7 +7216,7 @@
         <v>585147.9951336101</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7439,7 +7249,7 @@
         <v>584387.8461336101</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7472,7 +7282,7 @@
         <v>584387.8461336101</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7505,7 +7315,7 @@
         <v>584618.7361336101</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7516,6 +7326,6 @@
       <c r="M196" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -1303,9 +1303,11 @@
         <v>49206.00898824001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>141</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1847,9 +1849,11 @@
         <v>48957.72718824001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>141</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -2367,11 +2371,9 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2406,11 +2408,9 @@
         <v>44492.94528824001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>140.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2484,11 +2484,9 @@
         <v>44956.94428824002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>140.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2523,11 +2521,9 @@
         <v>45645.64028824002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>142.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -4079,16 +4075,18 @@
         <v>136918.88806116</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
       <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -4114,11 +4112,15 @@
         <v>139305.1376611601</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4153,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4186,15 @@
         <v>157108.49484225</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4223,15 @@
         <v>153065.4968422501</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4260,15 @@
         <v>173465.0361422501</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4297,15 @@
         <v>194503.94884225</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4334,15 @@
         <v>322755.90930332</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4371,15 @@
         <v>376842.47322407</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4408,15 @@
         <v>362050.66452407</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4445,15 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4482,15 @@
         <v>400075.0189735601</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4523,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4560,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4597,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4634,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4671,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4708,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4745,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4782,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4819,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4856,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4893,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4930,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +4967,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5004,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5041,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5078,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5115,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5152,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +5185,16 @@
         <v>601675.6284624002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -5104,7 +5220,7 @@
         <v>685004.2438347602</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5137,7 +5253,7 @@
         <v>672419.8612347601</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5170,7 +5286,7 @@
         <v>658040.1735347601</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5203,7 +5319,7 @@
         <v>645629.9002347601</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5236,7 +5352,7 @@
         <v>645629.9002347601</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5269,7 +5385,7 @@
         <v>671449.4343347602</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5302,7 +5418,7 @@
         <v>672151.4258347602</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5335,7 +5451,7 @@
         <v>690245.9604347602</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5401,7 +5517,7 @@
         <v>711852.1567347602</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5434,7 +5550,7 @@
         <v>705961.8813347601</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5467,7 +5583,7 @@
         <v>705747.6030347601</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5500,7 +5616,7 @@
         <v>694332.3705347601</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5533,7 +5649,7 @@
         <v>668188.7834347601</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5566,7 +5682,7 @@
         <v>628082.4560347601</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-12 BackTest STEEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>125</v>
       </c>
       <c r="G2" t="n">
-        <v>39249.69390000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>506.383</v>
       </c>
       <c r="G3" t="n">
-        <v>39756.07690000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>141.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>2822.862</v>
       </c>
       <c r="G4" t="n">
-        <v>36933.21490000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>142.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>282.753</v>
       </c>
       <c r="G5" t="n">
-        <v>37215.9679</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>139.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>271.1924</v>
       </c>
       <c r="G6" t="n">
-        <v>36944.7755</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,15 @@
         <v>286.5411</v>
       </c>
       <c r="G7" t="n">
-        <v>37231.31660000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +623,15 @@
         <v>315.05</v>
       </c>
       <c r="G8" t="n">
-        <v>37546.36660000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +653,15 @@
         <v>524.5814</v>
       </c>
       <c r="G9" t="n">
-        <v>37021.78520000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +683,15 @@
         <v>1234</v>
       </c>
       <c r="G10" t="n">
-        <v>35787.78520000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +713,15 @@
         <v>18047.7662</v>
       </c>
       <c r="G11" t="n">
-        <v>53835.5514</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>139.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +743,15 @@
         <v>394.827</v>
       </c>
       <c r="G12" t="n">
-        <v>53440.72440000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +773,15 @@
         <v>1329.992</v>
       </c>
       <c r="G13" t="n">
-        <v>54770.7164</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>139.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +803,15 @@
         <v>1645.008</v>
       </c>
       <c r="G14" t="n">
-        <v>54770.7164</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +833,15 @@
         <v>2700</v>
       </c>
       <c r="G15" t="n">
-        <v>57470.7164</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +863,15 @@
         <v>14835.5185</v>
       </c>
       <c r="G16" t="n">
-        <v>42635.19790000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,24 +893,15 @@
         <v>735</v>
       </c>
       <c r="G17" t="n">
-        <v>43370.19790000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>139.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1066,24 +923,15 @@
         <v>500</v>
       </c>
       <c r="G18" t="n">
-        <v>42870.19790000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1105,24 +953,15 @@
         <v>6003.62358824</v>
       </c>
       <c r="G19" t="n">
-        <v>48873.82148824001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>139.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,24 +983,15 @@
         <v>311.3594</v>
       </c>
       <c r="G20" t="n">
-        <v>48562.46208824</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>142.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1183,24 +1013,15 @@
         <v>78.88</v>
       </c>
       <c r="G21" t="n">
-        <v>48562.46208824</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1222,24 +1043,15 @@
         <v>283.87</v>
       </c>
       <c r="G22" t="n">
-        <v>48278.59208824</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1261,24 +1073,15 @@
         <v>968.3121</v>
       </c>
       <c r="G23" t="n">
-        <v>49246.90418824001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>140.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1300,24 +1103,15 @@
         <v>40.8952</v>
       </c>
       <c r="G24" t="n">
-        <v>49206.00898824001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1339,24 +1133,15 @@
         <v>1518</v>
       </c>
       <c r="G25" t="n">
-        <v>49206.00898824001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1378,24 +1163,15 @@
         <v>2538.624</v>
       </c>
       <c r="G26" t="n">
-        <v>49206.00898824001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1417,24 +1193,15 @@
         <v>1000</v>
       </c>
       <c r="G27" t="n">
-        <v>49206.00898824001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1456,24 +1223,15 @@
         <v>542</v>
       </c>
       <c r="G28" t="n">
-        <v>48664.00898824001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1495,24 +1253,21 @@
         <v>1887</v>
       </c>
       <c r="G29" t="n">
-        <v>46777.00898824001</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
         <v>139.6</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1534,24 +1289,21 @@
         <v>17.97</v>
       </c>
       <c r="G30" t="n">
-        <v>46794.97898824001</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
         <v>139</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1573,24 +1325,21 @@
         <v>0.83</v>
       </c>
       <c r="G31" t="n">
-        <v>46794.97898824001</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
         <v>140.9</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1612,24 +1361,21 @@
         <v>239.7838</v>
       </c>
       <c r="G32" t="n">
-        <v>46555.19518824001</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
         <v>140.9</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1651,24 +1397,21 @@
         <v>3.6</v>
       </c>
       <c r="G33" t="n">
-        <v>46558.79518824001</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
         <v>138.9</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1690,24 +1433,21 @@
         <v>1052</v>
       </c>
       <c r="G34" t="n">
-        <v>47610.79518824001</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
         <v>140</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1729,24 +1469,21 @@
         <v>5997.7756</v>
       </c>
       <c r="G35" t="n">
-        <v>47610.79518824001</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
         <v>141</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1768,24 +1505,21 @@
         <v>1845.5565</v>
       </c>
       <c r="G36" t="n">
-        <v>49456.35168824001</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
         <v>141</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1807,24 +1541,21 @@
         <v>1239.6245</v>
       </c>
       <c r="G37" t="n">
-        <v>48216.72718824001</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
         <v>141.7</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1846,24 +1577,21 @@
         <v>741</v>
       </c>
       <c r="G38" t="n">
-        <v>48957.72718824001</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
         <v>141</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1885,22 +1613,19 @@
         <v>3990</v>
       </c>
       <c r="G39" t="n">
-        <v>44967.72718824001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1922,22 +1647,19 @@
         <v>167.3268</v>
       </c>
       <c r="G40" t="n">
-        <v>44967.72718824001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1959,24 +1681,19 @@
         <v>2829</v>
       </c>
       <c r="G41" t="n">
-        <v>47796.72718824001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>141</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1998,22 +1715,19 @@
         <v>473.11</v>
       </c>
       <c r="G42" t="n">
-        <v>47796.72718824001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2035,22 +1749,19 @@
         <v>79</v>
       </c>
       <c r="G43" t="n">
-        <v>47717.72718824001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2072,22 +1783,19 @@
         <v>1045.97</v>
       </c>
       <c r="G44" t="n">
-        <v>46671.75718824001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2109,22 +1817,19 @@
         <v>238.999</v>
       </c>
       <c r="G45" t="n">
-        <v>46671.75718824001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2146,22 +1851,19 @@
         <v>3300</v>
       </c>
       <c r="G46" t="n">
-        <v>43371.75718824001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2183,22 +1885,19 @@
         <v>378</v>
       </c>
       <c r="G47" t="n">
-        <v>43749.75718824001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2220,22 +1919,19 @@
         <v>264.1427</v>
       </c>
       <c r="G48" t="n">
-        <v>43485.61448824001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2257,22 +1953,19 @@
         <v>556</v>
       </c>
       <c r="G49" t="n">
-        <v>42929.61448824001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2294,22 +1987,19 @@
         <v>2074.5409</v>
       </c>
       <c r="G50" t="n">
-        <v>45004.15538824001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2331,22 +2021,19 @@
         <v>544</v>
       </c>
       <c r="G51" t="n">
-        <v>45004.15538824001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2368,22 +2055,19 @@
         <v>511.2101</v>
       </c>
       <c r="G52" t="n">
-        <v>44492.94528824001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2405,22 +2089,19 @@
         <v>319.2077</v>
       </c>
       <c r="G53" t="n">
-        <v>44492.94528824001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2442,24 +2123,19 @@
         <v>625</v>
       </c>
       <c r="G54" t="n">
-        <v>44492.94528824001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2481,22 +2157,19 @@
         <v>463.999</v>
       </c>
       <c r="G55" t="n">
-        <v>44956.94428824002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2518,22 +2191,19 @@
         <v>688.696</v>
       </c>
       <c r="G56" t="n">
-        <v>45645.64028824002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2555,22 +2225,19 @@
         <v>5745.4861</v>
       </c>
       <c r="G57" t="n">
-        <v>51391.12638824002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2592,22 +2259,19 @@
         <v>7027.1471</v>
       </c>
       <c r="G58" t="n">
-        <v>58418.27348824003</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2629,22 +2293,19 @@
         <v>3254</v>
       </c>
       <c r="G59" t="n">
-        <v>58418.27348824003</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2666,22 +2327,19 @@
         <v>3188.9541</v>
       </c>
       <c r="G60" t="n">
-        <v>61607.22758824003</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2703,22 +2361,19 @@
         <v>125</v>
       </c>
       <c r="G61" t="n">
-        <v>61482.22758824003</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2740,22 +2395,19 @@
         <v>13930.85465105</v>
       </c>
       <c r="G62" t="n">
-        <v>75413.08223929003</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2777,22 +2429,19 @@
         <v>9419.5844</v>
       </c>
       <c r="G63" t="n">
-        <v>65993.49783929004</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2814,22 +2463,19 @@
         <v>236</v>
       </c>
       <c r="G64" t="n">
-        <v>66229.49783929004</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2851,22 +2497,19 @@
         <v>380.48888243</v>
       </c>
       <c r="G65" t="n">
-        <v>66609.98672172004</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2888,22 +2531,19 @@
         <v>3174.83036163</v>
       </c>
       <c r="G66" t="n">
-        <v>63435.15636009004</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2925,22 +2565,19 @@
         <v>603.80689655</v>
       </c>
       <c r="G67" t="n">
-        <v>64038.96325664004</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2962,22 +2599,19 @@
         <v>92.5215</v>
       </c>
       <c r="G68" t="n">
-        <v>64038.96325664004</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2999,22 +2633,19 @@
         <v>774</v>
       </c>
       <c r="G69" t="n">
-        <v>63264.96325664004</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3036,22 +2667,19 @@
         <v>5078.006854</v>
       </c>
       <c r="G70" t="n">
-        <v>68342.97011064005</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3073,22 +2701,19 @@
         <v>2395</v>
       </c>
       <c r="G71" t="n">
-        <v>70737.97011064005</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3110,22 +2735,19 @@
         <v>1406.0938</v>
       </c>
       <c r="G72" t="n">
-        <v>72144.06391064005</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3147,22 +2769,19 @@
         <v>957.3547</v>
       </c>
       <c r="G73" t="n">
-        <v>71186.70921064005</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3184,22 +2803,19 @@
         <v>637</v>
       </c>
       <c r="G74" t="n">
-        <v>71186.70921064005</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3221,22 +2837,19 @@
         <v>6544.751</v>
       </c>
       <c r="G75" t="n">
-        <v>64641.95821064005</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3258,22 +2871,19 @@
         <v>454.3695</v>
       </c>
       <c r="G76" t="n">
-        <v>65096.32771064005</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3295,22 +2905,19 @@
         <v>454.3696</v>
       </c>
       <c r="G77" t="n">
-        <v>65096.32771064005</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3332,22 +2939,19 @@
         <v>619.528</v>
       </c>
       <c r="G78" t="n">
-        <v>65096.32771064005</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3369,22 +2973,19 @@
         <v>302.913</v>
       </c>
       <c r="G79" t="n">
-        <v>64793.41471064005</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3406,22 +3007,19 @@
         <v>717</v>
       </c>
       <c r="G80" t="n">
-        <v>64076.41471064005</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3443,22 +3041,19 @@
         <v>50</v>
       </c>
       <c r="G81" t="n">
-        <v>64126.41471064005</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3480,22 +3075,19 @@
         <v>12.5</v>
       </c>
       <c r="G82" t="n">
-        <v>64113.91471064005</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3517,22 +3109,19 @@
         <v>325.668</v>
       </c>
       <c r="G83" t="n">
-        <v>64439.58271064005</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3554,22 +3143,19 @@
         <v>2696.6748</v>
       </c>
       <c r="G84" t="n">
-        <v>67136.25751064005</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3591,22 +3177,19 @@
         <v>85.73883161000001</v>
       </c>
       <c r="G85" t="n">
-        <v>67221.99634225004</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3628,22 +3211,19 @@
         <v>4409.093</v>
       </c>
       <c r="G86" t="n">
-        <v>71631.08934225004</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3665,22 +3245,19 @@
         <v>3102.425</v>
       </c>
       <c r="G87" t="n">
-        <v>74733.51434225004</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3702,22 +3279,19 @@
         <v>7170.8693</v>
       </c>
       <c r="G88" t="n">
-        <v>81904.38364225005</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3739,22 +3313,19 @@
         <v>2380.423</v>
       </c>
       <c r="G89" t="n">
-        <v>81904.38364225005</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3776,22 +3347,19 @@
         <v>7870.5291</v>
       </c>
       <c r="G90" t="n">
-        <v>81904.38364225005</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3813,22 +3381,19 @@
         <v>7262.318</v>
       </c>
       <c r="G91" t="n">
-        <v>74642.06564225005</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3850,22 +3415,19 @@
         <v>5206.302</v>
       </c>
       <c r="G92" t="n">
-        <v>79848.36764225004</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3887,22 +3449,19 @@
         <v>21958.8208</v>
       </c>
       <c r="G93" t="n">
-        <v>79848.36764225004</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3924,22 +3483,19 @@
         <v>6740</v>
       </c>
       <c r="G94" t="n">
-        <v>79848.36764225004</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3961,22 +3517,19 @@
         <v>3371</v>
       </c>
       <c r="G95" t="n">
-        <v>79848.36764225004</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3998,22 +3551,19 @@
         <v>13979.4299</v>
       </c>
       <c r="G96" t="n">
-        <v>93827.79754225005</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4035,22 +3585,19 @@
         <v>43091.09051891</v>
       </c>
       <c r="G97" t="n">
-        <v>136918.88806116</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4072,22 +3619,19 @@
         <v>10635.5283</v>
       </c>
       <c r="G98" t="n">
-        <v>136918.88806116</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4109,22 +3653,19 @@
         <v>2386.2496</v>
       </c>
       <c r="G99" t="n">
-        <v>139305.1376611601</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4146,22 +3687,19 @@
         <v>1488.137</v>
       </c>
       <c r="G100" t="n">
-        <v>140793.27466116</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4183,22 +3721,19 @@
         <v>16315.22018109</v>
       </c>
       <c r="G101" t="n">
-        <v>157108.49484225</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4220,22 +3755,19 @@
         <v>4042.998</v>
       </c>
       <c r="G102" t="n">
-        <v>153065.4968422501</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4257,22 +3789,19 @@
         <v>20399.5393</v>
       </c>
       <c r="G103" t="n">
-        <v>173465.0361422501</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4294,22 +3823,19 @@
         <v>21038.9127</v>
       </c>
       <c r="G104" t="n">
-        <v>194503.94884225</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4331,22 +3857,19 @@
         <v>128251.96046107</v>
       </c>
       <c r="G105" t="n">
-        <v>322755.90930332</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4368,22 +3891,19 @@
         <v>54086.56392075</v>
       </c>
       <c r="G106" t="n">
-        <v>376842.47322407</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4405,22 +3925,19 @@
         <v>14791.8087</v>
       </c>
       <c r="G107" t="n">
-        <v>362050.66452407</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4442,22 +3959,19 @@
         <v>38024.35444949</v>
       </c>
       <c r="G108" t="n">
-        <v>400075.0189735601</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4479,22 +3993,19 @@
         <v>70481.5931</v>
       </c>
       <c r="G109" t="n">
-        <v>400075.0189735601</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4516,22 +4027,19 @@
         <v>13703.2664</v>
       </c>
       <c r="G110" t="n">
-        <v>400075.0189735601</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4553,22 +4061,19 @@
         <v>12644.0951</v>
       </c>
       <c r="G111" t="n">
-        <v>400075.0189735601</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4590,22 +4095,19 @@
         <v>49294.26145051</v>
       </c>
       <c r="G112" t="n">
-        <v>449369.2804240701</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4627,22 +4129,19 @@
         <v>36645.5027</v>
       </c>
       <c r="G113" t="n">
-        <v>486014.7831240701</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4664,22 +4163,19 @@
         <v>43295.71950623</v>
       </c>
       <c r="G114" t="n">
-        <v>529310.5026303001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4701,22 +4197,19 @@
         <v>82137.76549999999</v>
       </c>
       <c r="G115" t="n">
-        <v>447172.7371303001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4738,22 +4231,19 @@
         <v>13328.6697</v>
       </c>
       <c r="G116" t="n">
-        <v>460501.4068303002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4775,22 +4265,19 @@
         <v>22444.5502</v>
       </c>
       <c r="G117" t="n">
-        <v>482945.9570303002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4812,22 +4299,19 @@
         <v>26708.7952</v>
       </c>
       <c r="G118" t="n">
-        <v>456237.1618303002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4849,22 +4333,19 @@
         <v>29304.57683395</v>
       </c>
       <c r="G119" t="n">
-        <v>485541.7386642502</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4886,22 +4367,19 @@
         <v>872.8684660500001</v>
       </c>
       <c r="G120" t="n">
-        <v>486414.6071303002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4923,22 +4401,19 @@
         <v>12141.2206</v>
       </c>
       <c r="G121" t="n">
-        <v>474273.3865303002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4960,22 +4435,19 @@
         <v>5678.15193395</v>
       </c>
       <c r="G122" t="n">
-        <v>468595.2345963502</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4997,22 +4469,19 @@
         <v>13221.64556605</v>
       </c>
       <c r="G123" t="n">
-        <v>481816.8801624002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5034,22 +4503,19 @@
         <v>12900.4625</v>
       </c>
       <c r="G124" t="n">
-        <v>494717.3426624002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5071,22 +4537,19 @@
         <v>10931.0224</v>
       </c>
       <c r="G125" t="n">
-        <v>483786.3202624002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5108,22 +4571,19 @@
         <v>1608.0268</v>
       </c>
       <c r="G126" t="n">
-        <v>482178.2934624002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5145,22 +4605,17 @@
         <v>23933.19204615</v>
       </c>
       <c r="G127" t="n">
-        <v>506111.4855085502</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5182,20 +4637,15 @@
         <v>95564.14295384999</v>
       </c>
       <c r="G128" t="n">
-        <v>601675.6284624002</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K128" t="n">
+        <v>1</v>
       </c>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5217,18 +4667,15 @@
         <v>83328.61537236</v>
       </c>
       <c r="G129" t="n">
-        <v>685004.2438347602</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5250,18 +4697,15 @@
         <v>12584.3826</v>
       </c>
       <c r="G130" t="n">
-        <v>672419.8612347601</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5283,18 +4727,15 @@
         <v>14379.6877</v>
       </c>
       <c r="G131" t="n">
-        <v>658040.1735347601</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5316,18 +4757,15 @@
         <v>12410.2733</v>
       </c>
       <c r="G132" t="n">
-        <v>645629.9002347601</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5349,18 +4787,15 @@
         <v>37811.6394</v>
       </c>
       <c r="G133" t="n">
-        <v>645629.9002347601</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5382,18 +4817,15 @@
         <v>25819.5341</v>
       </c>
       <c r="G134" t="n">
-        <v>671449.4343347602</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5415,18 +4847,15 @@
         <v>701.9915</v>
       </c>
       <c r="G135" t="n">
-        <v>672151.4258347602</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5448,18 +4877,15 @@
         <v>18094.5346</v>
       </c>
       <c r="G136" t="n">
-        <v>690245.9604347602</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5481,18 +4907,15 @@
         <v>21606.1963</v>
       </c>
       <c r="G137" t="n">
-        <v>711852.1567347602</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5514,18 +4937,15 @@
         <v>848.9008</v>
       </c>
       <c r="G138" t="n">
-        <v>711852.1567347602</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5547,18 +4967,15 @@
         <v>5890.2754</v>
       </c>
       <c r="G139" t="n">
-        <v>705961.8813347601</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5580,18 +4997,15 @@
         <v>214.2783</v>
       </c>
       <c r="G140" t="n">
-        <v>705747.6030347601</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5613,18 +5027,15 @@
         <v>11415.2325</v>
       </c>
       <c r="G141" t="n">
-        <v>694332.3705347601</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5646,18 +5057,15 @@
         <v>26143.5871</v>
       </c>
       <c r="G142" t="n">
-        <v>668188.7834347601</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5679,18 +5087,15 @@
         <v>40106.3274</v>
       </c>
       <c r="G143" t="n">
-        <v>628082.4560347601</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5712,18 +5117,15 @@
         <v>23643.5916</v>
       </c>
       <c r="G144" t="n">
-        <v>604438.8644347601</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5745,18 +5147,15 @@
         <v>3971.0503</v>
       </c>
       <c r="G145" t="n">
-        <v>608409.9147347601</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5778,18 +5177,15 @@
         <v>2575.9086</v>
       </c>
       <c r="G146" t="n">
-        <v>605834.0061347601</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5811,18 +5207,15 @@
         <v>9365.8537</v>
       </c>
       <c r="G147" t="n">
-        <v>605834.0061347601</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5844,18 +5237,15 @@
         <v>17939.56706962</v>
       </c>
       <c r="G148" t="n">
-        <v>587894.4390651401</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5877,18 +5267,15 @@
         <v>1385.2077</v>
       </c>
       <c r="G149" t="n">
-        <v>587894.4390651401</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5910,18 +5297,15 @@
         <v>9367.973900000001</v>
       </c>
       <c r="G150" t="n">
-        <v>597262.4129651401</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5943,18 +5327,15 @@
         <v>3700.7819</v>
       </c>
       <c r="G151" t="n">
-        <v>600963.19486514</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5976,18 +5357,15 @@
         <v>79.77379999999999</v>
       </c>
       <c r="G152" t="n">
-        <v>600883.42106514</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6009,18 +5387,15 @@
         <v>5837.774</v>
       </c>
       <c r="G153" t="n">
-        <v>600883.42106514</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6042,18 +5417,15 @@
         <v>2293.7694</v>
       </c>
       <c r="G154" t="n">
-        <v>598589.6516651401</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6075,18 +5447,15 @@
         <v>6903.4123</v>
       </c>
       <c r="G155" t="n">
-        <v>591686.2393651401</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6108,18 +5477,15 @@
         <v>17881.1168</v>
       </c>
       <c r="G156" t="n">
-        <v>609567.3561651401</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6141,18 +5507,15 @@
         <v>13435.4594</v>
       </c>
       <c r="G157" t="n">
-        <v>596131.89676514</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6174,18 +5537,15 @@
         <v>15842.9046</v>
       </c>
       <c r="G158" t="n">
-        <v>596131.89676514</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6207,18 +5567,15 @@
         <v>2028.643</v>
       </c>
       <c r="G159" t="n">
-        <v>598160.53976514</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6240,18 +5597,15 @@
         <v>9725.616</v>
       </c>
       <c r="G160" t="n">
-        <v>607886.1557651401</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6273,18 +5627,15 @@
         <v>15107.1371</v>
       </c>
       <c r="G161" t="n">
-        <v>622993.2928651401</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6306,18 +5657,15 @@
         <v>309.1785</v>
       </c>
       <c r="G162" t="n">
-        <v>622684.1143651401</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6339,18 +5687,15 @@
         <v>5868.867</v>
       </c>
       <c r="G163" t="n">
-        <v>616815.2473651401</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6372,18 +5717,15 @@
         <v>25369.58</v>
       </c>
       <c r="G164" t="n">
-        <v>591445.6673651402</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6405,18 +5747,15 @@
         <v>950.602</v>
       </c>
       <c r="G165" t="n">
-        <v>592396.2693651401</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6438,18 +5777,15 @@
         <v>2086.7716</v>
       </c>
       <c r="G166" t="n">
-        <v>592396.2693651401</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6471,18 +5807,15 @@
         <v>4572.843</v>
       </c>
       <c r="G167" t="n">
-        <v>592396.2693651401</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6504,18 +5837,15 @@
         <v>3497.9386</v>
       </c>
       <c r="G168" t="n">
-        <v>595894.2079651401</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6537,18 +5867,15 @@
         <v>4812.876</v>
       </c>
       <c r="G169" t="n">
-        <v>600707.0839651402</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6570,18 +5897,15 @@
         <v>4813.4187</v>
       </c>
       <c r="G170" t="n">
-        <v>605520.5026651402</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6603,18 +5927,15 @@
         <v>5527.84086847</v>
       </c>
       <c r="G171" t="n">
-        <v>611048.3435336102</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6636,18 +5957,15 @@
         <v>3386.492</v>
       </c>
       <c r="G172" t="n">
-        <v>607661.8515336103</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6669,18 +5987,15 @@
         <v>4750.9207</v>
       </c>
       <c r="G173" t="n">
-        <v>602910.9308336102</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6702,18 +6017,15 @@
         <v>4773.1758</v>
       </c>
       <c r="G174" t="n">
-        <v>607684.1066336102</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6735,18 +6047,15 @@
         <v>1668.2291</v>
       </c>
       <c r="G175" t="n">
-        <v>606015.8775336102</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6768,18 +6077,15 @@
         <v>3834.9836</v>
       </c>
       <c r="G176" t="n">
-        <v>602180.8939336102</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6801,18 +6107,15 @@
         <v>4147.9426</v>
       </c>
       <c r="G177" t="n">
-        <v>606328.8365336101</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6834,18 +6137,15 @@
         <v>2239.4675</v>
       </c>
       <c r="G178" t="n">
-        <v>606328.8365336101</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6867,18 +6167,15 @@
         <v>2125</v>
       </c>
       <c r="G179" t="n">
-        <v>608453.8365336101</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6900,18 +6197,15 @@
         <v>4870.4991</v>
       </c>
       <c r="G180" t="n">
-        <v>603583.3374336101</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6933,18 +6227,15 @@
         <v>1269.4269</v>
       </c>
       <c r="G181" t="n">
-        <v>603583.3374336101</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6966,18 +6257,15 @@
         <v>7730.1161</v>
       </c>
       <c r="G182" t="n">
-        <v>595853.2213336101</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6999,18 +6287,15 @@
         <v>4593.4382</v>
       </c>
       <c r="G183" t="n">
-        <v>600446.6595336101</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7032,18 +6317,15 @@
         <v>3092.4035</v>
       </c>
       <c r="G184" t="n">
-        <v>597354.2560336101</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7065,18 +6347,15 @@
         <v>11292.0152</v>
       </c>
       <c r="G185" t="n">
-        <v>586062.2408336101</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7098,18 +6377,15 @@
         <v>5537.3201</v>
       </c>
       <c r="G186" t="n">
-        <v>586062.2408336101</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7131,18 +6407,15 @@
         <v>264.2799</v>
       </c>
       <c r="G187" t="n">
-        <v>586326.52073361</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7164,18 +6437,15 @@
         <v>1700.394</v>
       </c>
       <c r="G188" t="n">
-        <v>586326.52073361</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7197,18 +6467,15 @@
         <v>888.322</v>
       </c>
       <c r="G189" t="n">
-        <v>586326.52073361</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7230,18 +6497,15 @@
         <v>1183.6383</v>
       </c>
       <c r="G190" t="n">
-        <v>585142.88243361</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7263,18 +6527,15 @@
         <v>120.162</v>
       </c>
       <c r="G191" t="n">
-        <v>585263.04443361</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7296,18 +6557,15 @@
         <v>14556.9328</v>
       </c>
       <c r="G192" t="n">
-        <v>570706.1116336101</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7329,18 +6587,15 @@
         <v>14441.8835</v>
       </c>
       <c r="G193" t="n">
-        <v>585147.9951336101</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7362,18 +6617,15 @@
         <v>760.149</v>
       </c>
       <c r="G194" t="n">
-        <v>584387.8461336101</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7395,18 +6647,15 @@
         <v>26.809</v>
       </c>
       <c r="G195" t="n">
-        <v>584387.8461336101</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7428,18 +6677,15 @@
         <v>230.89</v>
       </c>
       <c r="G196" t="n">
-        <v>584618.7361336101</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
